--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
@@ -700,7 +700,7 @@
         <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
         <v>3.15</v>
@@ -1087,7 +1087,7 @@
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1480,19 +1480,19 @@
         <v>2.88</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" t="n">
         <v>1.57</v>
@@ -1789,10 +1789,10 @@
         <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.3</v>
       </c>
-      <c r="I11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1906,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
         <v>2.86</v>
@@ -2032,7 +2032,7 @@
         <v>1.54</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>2.52</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
         <v>2.46</v>
@@ -2299,10 +2299,10 @@
         <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>2.54</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
         <v>2.28</v>
@@ -2455,7 +2455,7 @@
         <v>1.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G16" t="n">
         <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
         <v>4.8</v>
@@ -2587,7 +2587,7 @@
         <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
         <v>1.62</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -2839,10 +2839,10 @@
         <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G19" t="n">
         <v>1.64</v>
@@ -2971,7 +2971,7 @@
         <v>5.7</v>
       </c>
       <c r="I19" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J19" t="n">
         <v>4.5</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>1.89</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
         <v>5.2</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q20" t="n">
         <v>1.94</v>
@@ -3244,7 +3244,7 @@
         <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>2.02</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
@@ -3661,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="G25" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="I27" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>1000</v>
@@ -4066,16 +4066,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
         <v>1.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4312,40 +4312,40 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.45</v>
+        <v>2.58</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P29" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
@@ -4354,22 +4354,22 @@
         <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="W29" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
         <v>22</v>
@@ -4381,7 +4381,7 @@
         <v>970</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD29" t="n">
         <v>970</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O30" t="n">
         <v>1.39</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G31" t="n">
         <v>1.51</v>
       </c>
       <c r="H31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I31" t="n">
         <v>1000</v>
@@ -4597,7 +4597,7 @@
         <v>3.95</v>
       </c>
       <c r="K31" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="n">
         <v>1.34</v>
@@ -4741,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.52</v>
+        <v>2.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
         <v>1.52</v>
@@ -4855,10 +4855,10 @@
         <v>3.55</v>
       </c>
       <c r="G33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="n">
         <v>2.3</v>
@@ -5125,16 +5125,16 @@
         <v>1.44</v>
       </c>
       <c r="G35" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H35" t="n">
         <v>7.8</v>
       </c>
       <c r="I35" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K35" t="n">
         <v>5.6</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="Q35" t="n">
         <v>1.52</v>
@@ -5260,10 +5260,10 @@
         <v>3.1</v>
       </c>
       <c r="G36" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I36" t="n">
         <v>2.28</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>5.1</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J37" t="n">
         <v>4.3</v>
@@ -5533,7 +5533,7 @@
         <v>1.99</v>
       </c>
       <c r="H38" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
         <v>4.9</v>
@@ -5542,7 +5542,7 @@
         <v>3.85</v>
       </c>
       <c r="K38" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>1.23</v>
       </c>
       <c r="P38" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q38" t="n">
         <v>1.7</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J39" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O39" t="n">
         <v>1.44</v>
@@ -5797,40 +5797,40 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="G40" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P40" t="n">
         <v>2.6</v>
       </c>
-      <c r="I40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.28</v>
-      </c>
       <c r="Q40" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G41" t="n">
         <v>3.6</v>
       </c>
       <c r="H41" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1.87</v>
       </c>
       <c r="G42" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H42" t="n">
         <v>4.2</v>
@@ -6079,10 +6079,10 @@
         <v>5.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6091,13 +6091,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O42" t="n">
         <v>1.28</v>
       </c>
       <c r="P42" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
         <v>1.83</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G43" t="n">
         <v>3.1</v>
@@ -6226,16 +6226,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6340,7 +6340,7 @@
         <v>4.9</v>
       </c>
       <c r="G44" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H44" t="n">
         <v>1.87</v>
@@ -6352,7 +6352,7 @@
         <v>3.55</v>
       </c>
       <c r="K44" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6361,7 +6361,7 @@
         <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O44" t="n">
         <v>1.49</v>
@@ -6379,7 +6379,7 @@
         <v>4.9</v>
       </c>
       <c r="T44" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U44" t="n">
         <v>1.79</v>
@@ -6397,7 +6397,7 @@
         <v>6.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA44" t="n">
         <v>22</v>
@@ -6406,7 +6406,7 @@
         <v>13.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD44" t="n">
         <v>11</v>
@@ -6415,13 +6415,13 @@
         <v>25</v>
       </c>
       <c r="AF44" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG44" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AH44" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI44" t="n">
         <v>55</v>
@@ -6475,7 +6475,7 @@
         <v>1.87</v>
       </c>
       <c r="G45" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>5.1</v>
@@ -6496,10 +6496,10 @@
         <v>1.09</v>
       </c>
       <c r="N45" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P45" t="n">
         <v>1.73</v>
@@ -6541,7 +6541,7 @@
         <v>7.2</v>
       </c>
       <c r="AC45" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD45" t="n">
         <v>22</v>
@@ -6556,7 +6556,7 @@
         <v>10.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI45" t="n">
         <v>100</v>
@@ -6568,13 +6568,13 @@
         <v>23</v>
       </c>
       <c r="AL45" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM45" t="n">
         <v>180</v>
       </c>
       <c r="AN45" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO45" t="n">
         <v>130</v>
@@ -6613,22 +6613,22 @@
         <v>3.95</v>
       </c>
       <c r="H46" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I46" t="n">
         <v>2.14</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
         <v>4.1</v>
@@ -6640,16 +6640,16 @@
         <v>2.04</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R46" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S46" t="n">
         <v>3.35</v>
       </c>
       <c r="T46" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U46" t="n">
         <v>2.24</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y46" t="n">
         <v>10.5</v>
@@ -6748,7 +6748,7 @@
         <v>2.74</v>
       </c>
       <c r="H47" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I47" t="n">
         <v>2.9</v>
@@ -6772,7 +6772,7 @@
         <v>1.35</v>
       </c>
       <c r="P47" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q47" t="n">
         <v>2.06</v>
@@ -6883,7 +6883,7 @@
         <v>4.4</v>
       </c>
       <c r="H48" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I48" t="n">
         <v>1.9</v>
@@ -6919,7 +6919,7 @@
         <v>2.8</v>
       </c>
       <c r="T48" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U48" t="n">
         <v>2.38</v>
@@ -7015,10 +7015,10 @@
         <v>3.5</v>
       </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H49" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I49" t="n">
         <v>2.36</v>
@@ -7048,10 +7048,10 @@
         <v>2.06</v>
       </c>
       <c r="R49" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S49" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T49" t="n">
         <v>1.81</v>
@@ -7069,13 +7069,13 @@
         <v>13.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z49" t="n">
         <v>15</v>
       </c>
       <c r="AA49" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB49" t="n">
         <v>13.5</v>
@@ -7090,7 +7090,7 @@
         <v>26</v>
       </c>
       <c r="AF49" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG49" t="n">
         <v>14.5</v>
@@ -7114,7 +7114,7 @@
         <v>90</v>
       </c>
       <c r="AN49" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO49" t="n">
         <v>17</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G51" t="n">
         <v>1.68</v>
@@ -7312,7 +7312,7 @@
         <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q51" t="n">
         <v>1.98</v>
@@ -7324,7 +7324,7 @@
         <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
         <v>1.91</v>
@@ -7348,7 +7348,7 @@
         <v>240</v>
       </c>
       <c r="AB51" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC51" t="n">
         <v>9.4</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G53" t="n">
         <v>3.55</v>
@@ -7561,10 +7561,10 @@
         <v>2.22</v>
       </c>
       <c r="I53" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J53" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K53" t="n">
         <v>3.7</v>
@@ -7582,7 +7582,7 @@
         <v>1.28</v>
       </c>
       <c r="P53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q53" t="n">
         <v>1.84</v>
@@ -7591,7 +7591,7 @@
         <v>1.44</v>
       </c>
       <c r="S53" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T53" t="n">
         <v>1.7</v>
@@ -7609,16 +7609,16 @@
         <v>17.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA53" t="n">
         <v>32</v>
       </c>
       <c r="AB53" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC53" t="n">
         <v>8.199999999999999</v>
@@ -7633,10 +7633,10 @@
         <v>29</v>
       </c>
       <c r="AG53" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH53" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI53" t="n">
         <v>38</v>
@@ -7645,7 +7645,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL53" t="n">
         <v>50</v>
@@ -7657,7 +7657,7 @@
         <v>34</v>
       </c>
       <c r="AO53" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="54">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q55" t="n">
         <v>2.16</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G56" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="H56" t="n">
-        <v>15</v>
+        <v>1.15</v>
       </c>
       <c r="I56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>1.09</v>
       </c>
       <c r="K56" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G57" t="n">
         <v>1.91</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I58" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.9</v>
       </c>
       <c r="J58" t="n">
         <v>3.25</v>
@@ -8302,7 +8302,7 @@
         <v>13</v>
       </c>
       <c r="AE58" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF58" t="n">
         <v>18</v>
@@ -8320,7 +8320,7 @@
         <v>50</v>
       </c>
       <c r="AK58" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL58" t="n">
         <v>60</v>
@@ -8365,7 +8365,7 @@
         <v>1.99</v>
       </c>
       <c r="G59" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -8377,7 +8377,7 @@
         <v>3.4</v>
       </c>
       <c r="K59" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>3.4</v>
       </c>
       <c r="H60" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I60" t="n">
         <v>2.98</v>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="G61" t="n">
         <v>13.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I61" t="n">
         <v>1.48</v>
@@ -8647,7 +8647,7 @@
         <v>4.5</v>
       </c>
       <c r="K61" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>1.85</v>
       </c>
       <c r="G62" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H62" t="n">
         <v>4.5</v>
@@ -8905,19 +8905,19 @@
         <v>2.26</v>
       </c>
       <c r="G63" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H63" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I63" t="n">
         <v>3.45</v>
       </c>
       <c r="J63" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K63" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9043,13 +9043,13 @@
         <v>1.79</v>
       </c>
       <c r="H64" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="n">
         <v>4.8</v>
       </c>
       <c r="J64" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
         <v>5.2</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -9181,13 +9181,13 @@
         <v>2.6</v>
       </c>
       <c r="I65" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J65" t="n">
         <v>3.45</v>
       </c>
       <c r="K65" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="Q65" t="n">
         <v>1.86</v>
@@ -9310,16 +9310,16 @@
         <v>1.24</v>
       </c>
       <c r="G66" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="H66" t="n">
         <v>14.5</v>
       </c>
       <c r="I66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
         <v>7.4</v>
@@ -9331,37 +9331,37 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O66" t="n">
         <v>1.21</v>
       </c>
       <c r="P66" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R66" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S66" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T66" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U66" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V66" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W66" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="X66" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y66" t="n">
         <v>65</v>
@@ -9376,7 +9376,7 @@
         <v>12.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD66" t="n">
         <v>85</v>
@@ -9580,10 +9580,10 @@
         <v>2.5</v>
       </c>
       <c r="G68" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H68" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I68" t="n">
         <v>3.15</v>
@@ -9592,7 +9592,7 @@
         <v>3.5</v>
       </c>
       <c r="K68" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9607,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9736,13 +9736,13 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O69" t="n">
         <v>1.28</v>
       </c>
       <c r="P69" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q69" t="n">
         <v>1.28</v>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G71" t="n">
         <v>2.42</v>
@@ -9994,10 +9994,10 @@
         <v>4.8</v>
       </c>
       <c r="J71" t="n">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10015,7 +10015,7 @@
         <v>1.83</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10255,10 +10255,10 @@
         <v>1.52</v>
       </c>
       <c r="G73" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H73" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I73" t="n">
         <v>7</v>
@@ -10291,13 +10291,13 @@
         <v>1.68</v>
       </c>
       <c r="S73" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T73" t="n">
         <v>1.7</v>
       </c>
       <c r="U73" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>80</v>
       </c>
       <c r="AN73" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AO73" t="n">
         <v>70</v>
@@ -10390,7 +10390,7 @@
         <v>4.5</v>
       </c>
       <c r="G74" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H74" t="n">
         <v>1.9</v>
@@ -10411,7 +10411,7 @@
         <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O74" t="n">
         <v>1.32</v>
@@ -10432,7 +10432,7 @@
         <v>1.84</v>
       </c>
       <c r="U74" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -10456,7 +10456,7 @@
         <v>16.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD74" t="n">
         <v>11</v>
@@ -10483,13 +10483,13 @@
         <v>1000</v>
       </c>
       <c r="AL74" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM74" t="n">
         <v>130</v>
       </c>
       <c r="AN74" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO74" t="n">
         <v>13</v>
@@ -10528,7 +10528,7 @@
         <v>1.81</v>
       </c>
       <c r="H75" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
         <v>5.3</v>
@@ -10546,28 +10546,28 @@
         <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O75" t="n">
         <v>1.29</v>
       </c>
       <c r="P75" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R75" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S75" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T75" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U75" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -10576,13 +10576,13 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z75" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA75" t="n">
         <v>150</v>
@@ -10594,10 +10594,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD75" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE75" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF75" t="n">
         <v>11.5</v>
@@ -10606,19 +10606,19 @@
         <v>10.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI75" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ75" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL75" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM75" t="n">
         <v>120</v>
@@ -10672,7 +10672,7 @@
         <v>3.75</v>
       </c>
       <c r="K76" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10681,16 +10681,16 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>2.12</v>
+        <v>4.4</v>
       </c>
       <c r="O76" t="n">
         <v>1.24</v>
       </c>
       <c r="P76" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10801,7 +10801,7 @@
         <v>1.17</v>
       </c>
       <c r="I77" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J77" t="n">
         <v>1.09</v>
@@ -10816,16 +10816,16 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>2.04</v>
+        <v>4.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.23</v>
       </c>
       <c r="P77" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="G78" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="H78" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="I78" t="n">
         <v>1000</v>
       </c>
       <c r="J78" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="K78" t="n">
         <v>1000</v>
@@ -10951,16 +10951,16 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="O78" t="n">
         <v>1.01</v>
       </c>
       <c r="P78" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>2.02</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R81" t="n">
         <v>1.39</v>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y81" t="n">
         <v>15.5</v>
@@ -11395,10 +11395,10 @@
         <v>30</v>
       </c>
       <c r="AA81" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB81" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC81" t="n">
         <v>8.199999999999999</v>
@@ -11410,7 +11410,7 @@
         <v>44</v>
       </c>
       <c r="AF81" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG81" t="n">
         <v>10</v>
@@ -11641,13 +11641,13 @@
         <v>2.4</v>
       </c>
       <c r="S83" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="T83" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U83" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -11692,7 +11692,7 @@
         <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK83" t="n">
         <v>16</v>
@@ -11743,7 +11743,7 @@
         <v>34</v>
       </c>
       <c r="H84" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I84" t="n">
         <v>1.19</v>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G85" t="n">
         <v>4.5</v>
@@ -11881,13 +11881,13 @@
         <v>1.97</v>
       </c>
       <c r="I85" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J85" t="n">
         <v>3.45</v>
       </c>
       <c r="K85" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11896,10 +11896,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O85" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="P85" t="n">
         <v>1.86</v>
@@ -12010,7 +12010,7 @@
         <v>7.2</v>
       </c>
       <c r="G86" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H86" t="n">
         <v>1.56</v>
@@ -12019,7 +12019,7 @@
         <v>1.57</v>
       </c>
       <c r="J86" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K86" t="n">
         <v>4.5</v>
@@ -12043,13 +12043,13 @@
         <v>2.04</v>
       </c>
       <c r="R86" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S86" t="n">
         <v>3.75</v>
       </c>
       <c r="T86" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U86" t="n">
         <v>1.78</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G87" t="n">
         <v>2.06</v>
@@ -12169,7 +12169,7 @@
         <v>5.7</v>
       </c>
       <c r="O87" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P87" t="n">
         <v>2.6</v>
@@ -12310,7 +12310,7 @@
         <v>2.22</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -12415,16 +12415,16 @@
         <v>2.14</v>
       </c>
       <c r="G89" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H89" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J89" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3.5</v>
       </c>
       <c r="K89" t="n">
         <v>3.9</v>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G90" t="n">
         <v>1.68</v>
@@ -12556,7 +12556,7 @@
         <v>6.2</v>
       </c>
       <c r="I90" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J90" t="n">
         <v>4</v>
@@ -12682,22 +12682,22 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I91" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="J91" t="n">
         <v>4.6</v>
       </c>
       <c r="K91" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -12709,7 +12709,7 @@
         <v>5.2</v>
       </c>
       <c r="O91" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P91" t="n">
         <v>2.48</v>
@@ -12718,7 +12718,7 @@
         <v>1.63</v>
       </c>
       <c r="R91" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S91" t="n">
         <v>2.62</v>
@@ -12727,7 +12727,7 @@
         <v>1.69</v>
       </c>
       <c r="U91" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>80</v>
       </c>
       <c r="AN91" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO91" t="n">
         <v>7.8</v>
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q92" t="n">
         <v>2.24</v>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G94" t="n">
         <v>12</v>
@@ -13237,7 +13237,7 @@
         <v>3.05</v>
       </c>
       <c r="K95" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>1.51</v>
       </c>
       <c r="J96" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K96" t="n">
         <v>5</v>
@@ -13387,10 +13387,10 @@
         <v>1.35</v>
       </c>
       <c r="P96" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>6</v>
       </c>
       <c r="G97" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="H97" t="n">
         <v>1.49</v>
@@ -13504,10 +13504,10 @@
         <v>1.61</v>
       </c>
       <c r="J97" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K97" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13516,13 +13516,13 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O97" t="n">
         <v>1.2</v>
       </c>
       <c r="P97" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="Q97" t="n">
         <v>1.5</v>
@@ -13627,13 +13627,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G98" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I98" t="n">
         <v>3.4</v>
@@ -13642,7 +13642,7 @@
         <v>3.55</v>
       </c>
       <c r="K98" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O98" t="n">
         <v>1.17</v>
@@ -13660,7 +13660,7 @@
         <v>2.54</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
         <v>3.1</v>
       </c>
       <c r="H99" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I99" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J99" t="n">
         <v>3.9</v>
       </c>
       <c r="K99" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -13786,7 +13786,7 @@
         <v>1.04</v>
       </c>
       <c r="N99" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O99" t="n">
         <v>1.19</v>
@@ -13828,7 +13828,7 @@
         <v>34</v>
       </c>
       <c r="AB99" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC99" t="n">
         <v>10</v>
@@ -13837,7 +13837,7 @@
         <v>12</v>
       </c>
       <c r="AE99" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF99" t="n">
         <v>29</v>
@@ -13852,10 +13852,10 @@
         <v>30</v>
       </c>
       <c r="AJ99" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK99" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL99" t="n">
         <v>34</v>
@@ -13909,7 +13909,7 @@
         <v>2.02</v>
       </c>
       <c r="J100" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K100" t="n">
         <v>6.4</v>
@@ -13921,16 +13921,16 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>1.79</v>
+        <v>2.66</v>
       </c>
       <c r="O100" t="n">
         <v>1.32</v>
       </c>
       <c r="P100" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R100" t="n">
         <v>1.27</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G101" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H101" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I101" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J101" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="K101" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14056,16 +14056,16 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O101" t="n">
         <v>1.25</v>
       </c>
       <c r="P101" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14191,16 +14191,16 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O102" t="n">
         <v>1.5</v>
       </c>
       <c r="P102" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14311,7 +14311,7 @@
         <v>2.14</v>
       </c>
       <c r="I103" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J103" t="n">
         <v>3.75</v>
@@ -14326,16 +14326,16 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O103" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P103" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14437,10 +14437,10 @@
         </is>
       </c>
       <c r="F104" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G104" t="n">
         <v>1.98</v>
-      </c>
-      <c r="G104" t="n">
-        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>3.95</v>
@@ -14578,10 +14578,10 @@
         <v>3.05</v>
       </c>
       <c r="H105" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I105" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J105" t="n">
         <v>3.15</v>
@@ -14602,7 +14602,7 @@
         <v>1.44</v>
       </c>
       <c r="P105" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q105" t="n">
         <v>2.32</v>
@@ -14662,19 +14662,19 @@
         <v>55</v>
       </c>
       <c r="AJ105" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK105" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL105" t="n">
         <v>55</v>
       </c>
       <c r="AM105" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN105" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO105" t="n">
         <v>38</v>
@@ -14713,7 +14713,7 @@
         <v>6.4</v>
       </c>
       <c r="H106" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="I106" t="n">
         <v>1.67</v>
@@ -14722,7 +14722,7 @@
         <v>4.1</v>
       </c>
       <c r="K106" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -14767,7 +14767,7 @@
         <v>9.4</v>
       </c>
       <c r="Z106" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA106" t="n">
         <v>16</v>
@@ -14776,7 +14776,7 @@
         <v>22</v>
       </c>
       <c r="AC106" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD106" t="n">
         <v>10</v>
@@ -14848,13 +14848,13 @@
         <v>3.3</v>
       </c>
       <c r="H107" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I107" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J107" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="K107" t="n">
         <v>3.2</v>
@@ -14869,13 +14869,13 @@
         <v>2.56</v>
       </c>
       <c r="O107" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P107" t="n">
         <v>1.52</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G108" t="n">
         <v>3.15</v>
@@ -14986,7 +14986,7 @@
         <v>2.64</v>
       </c>
       <c r="I108" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="J108" t="n">
         <v>3.2</v>
@@ -15247,22 +15247,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.12</v>
+        <v>3.7</v>
       </c>
       <c r="G110" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="H110" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="I110" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="J110" t="n">
-        <v>2.12</v>
+        <v>3.5</v>
       </c>
       <c r="K110" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -15271,16 +15271,16 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>1.87</v>
+        <v>4.1</v>
       </c>
       <c r="O110" t="n">
         <v>1.27</v>
       </c>
       <c r="P110" t="n">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -15412,7 +15412,7 @@
         <v>1.3</v>
       </c>
       <c r="P111" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="Q111" t="n">
         <v>1.76</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.01</v>
       </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -700,79 +700,79 @@
         <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.45</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.71</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
         <v>1.71</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H4" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q6" t="n">
         <v>1.65</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>3.1</v>
@@ -1486,13 +1486,13 @@
         <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G10" t="n">
         <v>1.47</v>
@@ -1756,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J10" t="n">
         <v>4.9</v>
@@ -1777,7 +1777,7 @@
         <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
         <v>1.89</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="n">
         <v>410</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
         <v>4.4</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -1915,7 +1915,7 @@
         <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.54</v>
+        <v>2.74</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.51</v>
+        <v>2.66</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P12" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="Q12" t="n">
         <v>2.16</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I13" t="n">
         <v>6.6</v>
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
         <v>2.46</v>
@@ -2299,10 +2299,10 @@
         <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="G15" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J15" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="K15" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.54</v>
+        <v>2.94</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G16" t="n">
         <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J16" t="n">
         <v>3.8</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G19" t="n">
         <v>1.64</v>
@@ -2971,7 +2971,7 @@
         <v>5.7</v>
       </c>
       <c r="I19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J19" t="n">
         <v>4.5</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q19" t="n">
         <v>1.47</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="G20" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
         <v>5.2</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
         <v>1.94</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
         <v>5.6</v>
@@ -3244,7 +3244,7 @@
         <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q21" t="n">
         <v>1.69</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G22" t="n">
         <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R22" t="n">
         <v>1.26</v>
@@ -3505,19 +3505,19 @@
         <v>1.77</v>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
@@ -3667,10 +3667,10 @@
         <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="H27" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4066,16 +4066,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G28" t="n">
         <v>1.5</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>1.21</v>
       </c>
       <c r="I28" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="J28" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4201,16 +4201,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P28" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
         <v>2.62</v>
@@ -4348,76 +4348,76 @@
         <v>2.5</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="V29" t="n">
         <v>1.52</v>
       </c>
       <c r="W29" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
         <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
         <v>1.39</v>
@@ -4588,7 +4588,7 @@
         <v>1.51</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>1.12</v>
       </c>
       <c r="I31" t="n">
         <v>1000</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O31" t="n">
         <v>1.34</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="G32" t="n">
         <v>9.4</v>
@@ -4732,7 +4732,7 @@
         <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4741,16 +4741,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P32" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>3.55</v>
       </c>
       <c r="G33" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I33" t="n">
         <v>2.3</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5011,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.65</v>
+        <v>3.15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P34" t="n">
         <v>1.64</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G35" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H35" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I35" t="n">
         <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K35" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q35" t="n">
         <v>1.52</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>2.24</v>
@@ -5272,7 +5272,7 @@
         <v>3.9</v>
       </c>
       <c r="K36" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>5.1</v>
       </c>
       <c r="I37" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J37" t="n">
         <v>4.3</v>
@@ -5533,7 +5533,7 @@
         <v>1.99</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I38" t="n">
         <v>4.9</v>
@@ -5542,7 +5542,7 @@
         <v>3.85</v>
       </c>
       <c r="K38" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
         <v>2.14</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5689,13 +5689,13 @@
         <v>2.84</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P39" t="n">
         <v>1.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5824,13 +5824,13 @@
         <v>5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P40" t="n">
         <v>2.6</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G41" t="n">
         <v>3.6</v>
@@ -5941,7 +5941,7 @@
         <v>2.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1.87</v>
       </c>
       <c r="G42" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>4.2</v>
@@ -6079,10 +6079,10 @@
         <v>5.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K42" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6091,13 +6091,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O42" t="n">
         <v>1.28</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q42" t="n">
         <v>1.83</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G43" t="n">
         <v>3.1</v>
@@ -6229,13 +6229,13 @@
         <v>3.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6337,13 +6337,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G44" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I44" t="n">
         <v>1.91</v>
@@ -6370,10 +6370,10 @@
         <v>1.66</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R44" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S44" t="n">
         <v>4.9</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H45" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I45" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K45" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6499,13 +6499,13 @@
         <v>3.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P45" t="n">
         <v>1.73</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R45" t="n">
         <v>1.27</v>
@@ -6517,7 +6517,7 @@
         <v>2.08</v>
       </c>
       <c r="U45" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>10.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI45" t="n">
         <v>100</v>
@@ -6574,7 +6574,7 @@
         <v>180</v>
       </c>
       <c r="AN45" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO45" t="n">
         <v>130</v>
@@ -6616,13 +6616,13 @@
         <v>2.08</v>
       </c>
       <c r="I46" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>2.04</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R46" t="n">
         <v>1.41</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
         <v>10.5</v>
@@ -6673,10 +6673,10 @@
         <v>26</v>
       </c>
       <c r="AB46" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC46" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD46" t="n">
         <v>10.5</v>
@@ -6694,13 +6694,13 @@
         <v>18.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AJ46" t="n">
         <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL46" t="n">
         <v>55</v>
@@ -6748,7 +6748,7 @@
         <v>2.74</v>
       </c>
       <c r="H47" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I47" t="n">
         <v>2.9</v>
@@ -6784,10 +6784,10 @@
         <v>3.7</v>
       </c>
       <c r="T47" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U47" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>32</v>
       </c>
       <c r="AL47" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM47" t="n">
         <v>95</v>
@@ -6958,7 +6958,7 @@
         <v>40</v>
       </c>
       <c r="AG48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH48" t="n">
         <v>16.5</v>
@@ -7015,7 +7015,7 @@
         <v>3.5</v>
       </c>
       <c r="G49" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H49" t="n">
         <v>2.34</v>
@@ -7057,7 +7057,7 @@
         <v>1.81</v>
       </c>
       <c r="U49" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>40</v>
       </c>
       <c r="AL49" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM49" t="n">
         <v>90</v>
@@ -7117,7 +7117,7 @@
         <v>40</v>
       </c>
       <c r="AO49" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="50">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G51" t="n">
         <v>1.68</v>
@@ -7306,16 +7306,16 @@
         <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P51" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
         <v>1.36</v>
@@ -7324,7 +7324,7 @@
         <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U51" t="n">
         <v>1.91</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y51" t="n">
         <v>21</v>
@@ -7555,10 +7555,10 @@
         <v>3.5</v>
       </c>
       <c r="G53" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I53" t="n">
         <v>2.26</v>
@@ -7567,7 +7567,7 @@
         <v>3.6</v>
       </c>
       <c r="K53" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7582,19 +7582,19 @@
         <v>1.28</v>
       </c>
       <c r="P53" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R53" t="n">
         <v>1.44</v>
       </c>
       <c r="S53" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T53" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U53" t="n">
         <v>2.3</v>
@@ -7612,10 +7612,10 @@
         <v>11.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB53" t="n">
         <v>16</v>
@@ -7624,7 +7624,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE53" t="n">
         <v>26</v>
@@ -7642,7 +7642,7 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK53" t="n">
         <v>44</v>
@@ -7657,7 +7657,7 @@
         <v>34</v>
       </c>
       <c r="AO53" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="54">
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="G54" t="n">
         <v>2.52</v>
       </c>
       <c r="H54" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="K54" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7711,13 +7711,13 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2.02</v>
+        <v>3.85</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P54" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="Q54" t="n">
         <v>1.6</v>
@@ -7822,40 +7822,40 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="G55" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2.28</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.16</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G56" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="H56" t="n">
-        <v>1.15</v>
+        <v>15</v>
       </c>
       <c r="I56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J56" t="n">
-        <v>1.09</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G57" t="n">
         <v>1.91</v>
@@ -8107,7 +8107,7 @@
         <v>3.7</v>
       </c>
       <c r="K57" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q57" t="n">
         <v>1.93</v>
@@ -8233,10 +8233,10 @@
         <v>2.9</v>
       </c>
       <c r="H58" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I58" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J58" t="n">
         <v>3.25</v>
@@ -8365,7 +8365,7 @@
         <v>1.99</v>
       </c>
       <c r="G59" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -8377,7 +8377,7 @@
         <v>3.4</v>
       </c>
       <c r="K59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>13.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I61" t="n">
         <v>1.48</v>
@@ -8770,7 +8770,7 @@
         <v>1.85</v>
       </c>
       <c r="G62" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H62" t="n">
         <v>4.5</v>
@@ -8905,16 +8905,16 @@
         <v>2.26</v>
       </c>
       <c r="G63" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H63" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I63" t="n">
         <v>3.45</v>
       </c>
       <c r="J63" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K63" t="n">
         <v>4.1</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9043,13 +9043,13 @@
         <v>1.79</v>
       </c>
       <c r="H64" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I64" t="n">
         <v>4.8</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K64" t="n">
         <v>5.2</v>
@@ -9067,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -9181,13 +9181,13 @@
         <v>2.6</v>
       </c>
       <c r="I65" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J65" t="n">
         <v>3.45</v>
       </c>
       <c r="K65" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q65" t="n">
         <v>1.86</v>
@@ -9316,7 +9316,7 @@
         <v>14.5</v>
       </c>
       <c r="I66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J66" t="n">
         <v>6</v>
@@ -9331,22 +9331,22 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="O66" t="n">
         <v>1.21</v>
       </c>
       <c r="P66" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="R66" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="S66" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T66" t="n">
         <v>1.9</v>
@@ -9355,13 +9355,13 @@
         <v>1.45</v>
       </c>
       <c r="V66" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W66" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="X66" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y66" t="n">
         <v>65</v>
@@ -9376,7 +9376,7 @@
         <v>12.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD66" t="n">
         <v>85</v>
@@ -9580,10 +9580,10 @@
         <v>2.5</v>
       </c>
       <c r="G68" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H68" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I68" t="n">
         <v>3.15</v>
@@ -9592,7 +9592,7 @@
         <v>3.5</v>
       </c>
       <c r="K68" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="G70" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H70" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="I70" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9871,16 +9871,16 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="O70" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P70" t="n">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G71" t="n">
         <v>2.42</v>
@@ -9994,7 +9994,7 @@
         <v>4.8</v>
       </c>
       <c r="J71" t="n">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="K71" t="n">
         <v>5.8</v>
@@ -10144,7 +10144,7 @@
         <v>2.26</v>
       </c>
       <c r="O72" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P72" t="n">
         <v>2.26</v>
@@ -10252,19 +10252,19 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G73" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H73" t="n">
         <v>6.6</v>
       </c>
       <c r="I73" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J73" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K73" t="n">
         <v>5.2</v>
@@ -10276,13 +10276,13 @@
         <v>1.04</v>
       </c>
       <c r="N73" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O73" t="n">
         <v>1.18</v>
       </c>
       <c r="P73" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q73" t="n">
         <v>1.55</v>
@@ -10291,13 +10291,13 @@
         <v>1.68</v>
       </c>
       <c r="S73" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T73" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U73" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>80</v>
       </c>
       <c r="AN73" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AO73" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G74" t="n">
         <v>4.8</v>
@@ -10399,7 +10399,7 @@
         <v>1.93</v>
       </c>
       <c r="J74" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K74" t="n">
         <v>3.85</v>
@@ -10411,7 +10411,7 @@
         <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O74" t="n">
         <v>1.32</v>
@@ -10420,7 +10420,7 @@
         <v>1.97</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R74" t="n">
         <v>1.37</v>
@@ -10453,7 +10453,7 @@
         <v>22</v>
       </c>
       <c r="AB74" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC74" t="n">
         <v>8.4</v>
@@ -10480,7 +10480,7 @@
         <v>140</v>
       </c>
       <c r="AK74" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL74" t="n">
         <v>70</v>
@@ -10528,7 +10528,7 @@
         <v>1.81</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I75" t="n">
         <v>5.3</v>
@@ -10546,25 +10546,25 @@
         <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O75" t="n">
         <v>1.29</v>
       </c>
       <c r="P75" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R75" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S75" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T75" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U75" t="n">
         <v>2.12</v>
@@ -10603,7 +10603,7 @@
         <v>11.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH75" t="n">
         <v>22</v>
@@ -10681,16 +10681,16 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O76" t="n">
         <v>1.24</v>
       </c>
       <c r="P76" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10927,19 +10927,19 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="G78" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="H78" t="n">
-        <v>1.82</v>
+        <v>1.09</v>
       </c>
       <c r="I78" t="n">
         <v>1000</v>
       </c>
       <c r="J78" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="K78" t="n">
         <v>1000</v>
@@ -10951,16 +10951,16 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1.39</v>
+        <v>2.38</v>
       </c>
       <c r="O78" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="P78" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G79" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H79" t="n">
         <v>3.35</v>
       </c>
       <c r="I79" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J79" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11086,16 +11086,16 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1.5</v>
+        <v>2.74</v>
       </c>
       <c r="O79" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P79" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G81" t="n">
         <v>2.04</v>
@@ -11347,7 +11347,7 @@
         <v>3.75</v>
       </c>
       <c r="K81" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>2.02</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R81" t="n">
         <v>1.39</v>
@@ -11377,7 +11377,7 @@
         <v>1.81</v>
       </c>
       <c r="U81" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -11386,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y81" t="n">
         <v>15.5</v>
@@ -11398,19 +11398,19 @@
         <v>100</v>
       </c>
       <c r="AB81" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC81" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD81" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE81" t="n">
         <v>44</v>
       </c>
       <c r="AF81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG81" t="n">
         <v>10</v>
@@ -11434,7 +11434,7 @@
         <v>95</v>
       </c>
       <c r="AN81" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO81" t="n">
         <v>55</v>
@@ -11638,16 +11638,16 @@
         <v>1.26</v>
       </c>
       <c r="R83" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S83" t="n">
         <v>1.67</v>
       </c>
       <c r="T83" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U83" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -11692,7 +11692,7 @@
         <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK83" t="n">
         <v>16</v>
@@ -11752,7 +11752,7 @@
         <v>8.4</v>
       </c>
       <c r="K84" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -11767,10 +11767,10 @@
         <v>1.21</v>
       </c>
       <c r="P84" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G85" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H85" t="n">
         <v>1.97</v>
       </c>
       <c r="I85" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J85" t="n">
         <v>3.45</v>
       </c>
       <c r="K85" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11896,10 +11896,10 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O85" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P85" t="n">
         <v>1.86</v>
@@ -12010,13 +12010,13 @@
         <v>7.2</v>
       </c>
       <c r="G86" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H86" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I86" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J86" t="n">
         <v>4.4</v>
@@ -12031,19 +12031,19 @@
         <v>1.07</v>
       </c>
       <c r="N86" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O86" t="n">
         <v>1.35</v>
       </c>
       <c r="P86" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q86" t="n">
         <v>2.04</v>
       </c>
       <c r="R86" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S86" t="n">
         <v>3.75</v>
@@ -12073,7 +12073,7 @@
         <v>13.5</v>
       </c>
       <c r="AB86" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC86" t="n">
         <v>9.800000000000001</v>
@@ -12085,13 +12085,13 @@
         <v>19</v>
       </c>
       <c r="AF86" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG86" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH86" t="n">
         <v>28</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>27</v>
       </c>
       <c r="AI86" t="n">
         <v>48</v>
@@ -12112,7 +12112,7 @@
         <v>230</v>
       </c>
       <c r="AO86" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="87">
@@ -12277,7 +12277,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G88" t="n">
         <v>2.68</v>
@@ -12286,10 +12286,10 @@
         <v>2.76</v>
       </c>
       <c r="I88" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="J88" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K88" t="n">
         <v>4.1</v>
@@ -12310,7 +12310,7 @@
         <v>2.22</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -12415,19 +12415,19 @@
         <v>2.14</v>
       </c>
       <c r="G89" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H89" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I89" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J89" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K89" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.25</v>
+        <v>1.99</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G90" t="n">
         <v>1.68</v>
@@ -12556,7 +12556,7 @@
         <v>6.2</v>
       </c>
       <c r="I90" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J90" t="n">
         <v>4</v>
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q90" t="n">
         <v>1.75</v>
@@ -12688,10 +12688,10 @@
         <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I91" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="J91" t="n">
         <v>4.6</v>
@@ -12709,22 +12709,22 @@
         <v>5.2</v>
       </c>
       <c r="O91" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P91" t="n">
         <v>2.48</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R91" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S91" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T91" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U91" t="n">
         <v>2.34</v>
@@ -12751,7 +12751,7 @@
         <v>22</v>
       </c>
       <c r="AC91" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD91" t="n">
         <v>10</v>
@@ -12850,7 +12850,7 @@
         <v>1.66</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G93" t="n">
         <v>2.98</v>
@@ -12967,7 +12967,7 @@
         <v>2.78</v>
       </c>
       <c r="K93" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="G94" t="n">
         <v>12</v>
       </c>
       <c r="H94" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="I94" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="J94" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K94" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -13120,7 +13120,7 @@
         <v>2.06</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -13237,7 +13237,7 @@
         <v>3.05</v>
       </c>
       <c r="K95" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -13246,16 +13246,16 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="O95" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P95" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -13363,16 +13363,16 @@
         <v>10.5</v>
       </c>
       <c r="H96" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="I96" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="J96" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K96" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -13381,13 +13381,13 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O96" t="n">
         <v>1.35</v>
       </c>
       <c r="P96" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q96" t="n">
         <v>2.04</v>
@@ -13630,19 +13630,19 @@
         <v>2.3</v>
       </c>
       <c r="G98" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H98" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="I98" t="n">
         <v>3.4</v>
       </c>
       <c r="J98" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K98" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -13657,10 +13657,10 @@
         <v>1.17</v>
       </c>
       <c r="P98" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G99" t="n">
         <v>3.1</v>
@@ -13777,7 +13777,7 @@
         <v>3.9</v>
       </c>
       <c r="K99" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -13798,7 +13798,7 @@
         <v>1.62</v>
       </c>
       <c r="R99" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S99" t="n">
         <v>2.46</v>
@@ -13831,7 +13831,7 @@
         <v>18</v>
       </c>
       <c r="AC99" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD99" t="n">
         <v>12</v>
@@ -13840,7 +13840,7 @@
         <v>24</v>
       </c>
       <c r="AF99" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG99" t="n">
         <v>14</v>
@@ -13855,7 +13855,7 @@
         <v>48</v>
       </c>
       <c r="AK99" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL99" t="n">
         <v>34</v>
@@ -13903,16 +13903,16 @@
         <v>7.2</v>
       </c>
       <c r="H100" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I100" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J100" t="n">
         <v>3.4</v>
       </c>
       <c r="K100" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13933,7 +13933,7 @@
         <v>1.81</v>
       </c>
       <c r="R100" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S100" t="n">
         <v>2.96</v>
@@ -13945,7 +13945,7 @@
         <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W100" t="n">
         <v>1.16</v>
@@ -14032,13 +14032,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G101" t="n">
         <v>1.42</v>
       </c>
       <c r="H101" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I101" t="n">
         <v>17.5</v>
@@ -14047,7 +14047,7 @@
         <v>4.7</v>
       </c>
       <c r="K101" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14056,16 +14056,16 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O101" t="n">
         <v>1.25</v>
       </c>
       <c r="P101" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14191,16 +14191,16 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O102" t="n">
         <v>1.5</v>
       </c>
       <c r="P102" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="G103" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H103" t="n">
         <v>2.14</v>
       </c>
       <c r="I103" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J103" t="n">
         <v>3.75</v>
       </c>
       <c r="K103" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O103" t="n">
         <v>1.36</v>
@@ -14467,7 +14467,7 @@
         <v>1.17</v>
       </c>
       <c r="P104" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q104" t="n">
         <v>1.54</v>
@@ -14491,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="X104" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y104" t="n">
         <v>24</v>
@@ -14521,7 +14521,7 @@
         <v>12</v>
       </c>
       <c r="AH104" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI104" t="n">
         <v>40</v>
@@ -14572,10 +14572,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H105" t="n">
         <v>2.76</v>
@@ -14587,7 +14587,7 @@
         <v>3.15</v>
       </c>
       <c r="K105" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14602,7 +14602,7 @@
         <v>1.44</v>
       </c>
       <c r="P105" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q105" t="n">
         <v>2.32</v>
@@ -14641,7 +14641,7 @@
         <v>10</v>
       </c>
       <c r="AC105" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD105" t="n">
         <v>13</v>
@@ -14671,7 +14671,7 @@
         <v>55</v>
       </c>
       <c r="AM105" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN105" t="n">
         <v>48</v>
@@ -14710,10 +14710,10 @@
         <v>6</v>
       </c>
       <c r="G106" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H106" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I106" t="n">
         <v>1.67</v>
@@ -14722,7 +14722,7 @@
         <v>4.1</v>
       </c>
       <c r="K106" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -14776,7 +14776,7 @@
         <v>22</v>
       </c>
       <c r="AC106" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD106" t="n">
         <v>10</v>
@@ -14848,13 +14848,13 @@
         <v>3.3</v>
       </c>
       <c r="H107" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I107" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J107" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K107" t="n">
         <v>3.2</v>
@@ -14869,13 +14869,13 @@
         <v>2.56</v>
       </c>
       <c r="O107" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P107" t="n">
         <v>1.52</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="G108" t="n">
         <v>3.15</v>
@@ -14986,7 +14986,7 @@
         <v>2.64</v>
       </c>
       <c r="I108" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="J108" t="n">
         <v>3.2</v>
@@ -15247,22 +15247,22 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="G110" t="n">
         <v>7</v>
       </c>
       <c r="H110" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="I110" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="J110" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K110" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G111" t="n">
         <v>2.68</v>
@@ -15391,10 +15391,10 @@
         <v>2.72</v>
       </c>
       <c r="I111" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K111" t="n">
         <v>4.2</v>
@@ -15412,7 +15412,7 @@
         <v>1.3</v>
       </c>
       <c r="P111" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="Q111" t="n">
         <v>1.76</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
@@ -673,106 +673,106 @@
         <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.54</v>
+        <v>2.96</v>
       </c>
       <c r="K2" t="n">
         <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24</v>
+        <v>2.96</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
         <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G3" t="n">
         <v>3.1</v>
@@ -811,19 +811,19 @@
         <v>2.6</v>
       </c>
       <c r="I3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>3.45</v>
@@ -832,82 +832,82 @@
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="G4" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1075,109 +1075,109 @@
         <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="I6" t="n">
         <v>2.46</v>
@@ -1222,97 +1222,97 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>2.08</v>
       </c>
       <c r="O6" t="n">
         <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.27</v>
+        <v>3.45</v>
       </c>
       <c r="G7" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1480,109 +1480,109 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
         <v>2.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="G9" t="n">
-        <v>5.8</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="I9" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>9.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>2.28</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
         <v>1.47</v>
@@ -1756,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J10" t="n">
         <v>4.9</v>
@@ -1765,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1795,64 +1795,64 @@
         <v>1.81</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>27</v>
       </c>
       <c r="Z10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
         <v>7.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
@@ -1891,13 +1891,13 @@
         <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G12" t="n">
         <v>2.64</v>
@@ -2029,16 +2029,16 @@
         <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
         <v>2.66</v>
@@ -2050,79 +2050,79 @@
         <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G13" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
         <v>5.7</v>
       </c>
       <c r="I13" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>1.89</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,16 +2581,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.7</v>
+        <v>2.08</v>
       </c>
       <c r="O16" t="n">
         <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
         <v>2.58</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9</v>
+        <v>2.12</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2965,19 +2965,19 @@
         <v>1.57</v>
       </c>
       <c r="G19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H19" t="n">
         <v>5.7</v>
       </c>
       <c r="I19" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="J19" t="n">
         <v>4.5</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="G20" t="n">
         <v>1.88</v>
@@ -3106,7 +3106,7 @@
         <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J20" t="n">
         <v>3.85</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>1.69</v>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H21" t="n">
         <v>5.6</v>
@@ -3244,7 +3244,7 @@
         <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
@@ -3265,7 +3265,7 @@
         <v>2.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
         <v>3.45</v>
@@ -3397,7 +3397,7 @@
         <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q22" t="n">
         <v>2.38</v>
@@ -3409,10 +3409,10 @@
         <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
         <v>14</v>
@@ -3451,22 +3451,22 @@
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
         <v>24</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
         <v>50</v>
       </c>
       <c r="AM22" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN22" t="n">
         <v>19.5</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="G23" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>1.91</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.85</v>
+        <v>1.87</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3775,19 +3775,19 @@
         <v>1.78</v>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="n">
         <v>4.1</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q25" t="n">
         <v>1.5</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="H26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I26" t="n">
         <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K26" t="n">
         <v>1000</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G27" t="n">
         <v>7.4</v>
@@ -4051,10 +4051,10 @@
         <v>1.71</v>
       </c>
       <c r="I27" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
         <v>4.5</v>
@@ -4072,10 +4072,10 @@
         <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>1.4</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="H28" t="n">
-        <v>1.21</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
         <v>4.1</v>
       </c>
       <c r="K28" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4201,16 +4201,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.28</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4321,16 +4321,16 @@
         <v>2.62</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="K29" t="n">
         <v>3.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
@@ -4345,7 +4345,7 @@
         <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R29" t="n">
         <v>1.19</v>
@@ -4354,16 +4354,16 @@
         <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="U29" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="V29" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
         <v>10.5</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I30" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4588,16 +4588,16 @@
         <v>1.51</v>
       </c>
       <c r="H31" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K31" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>1.34</v>
       </c>
       <c r="P31" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.8</v>
+        <v>2.14</v>
       </c>
       <c r="G32" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="I32" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>2.14</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>1.42</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4855,19 +4855,19 @@
         <v>3.55</v>
       </c>
       <c r="G33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="J33" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="G34" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H34" t="n">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>1.36</v>
       </c>
       <c r="P34" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         <v>1.47</v>
       </c>
       <c r="H35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I35" t="n">
         <v>9</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G36" t="n">
         <v>3.4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I36" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K36" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>2.54</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="G37" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H37" t="n">
-        <v>5.1</v>
+        <v>2.76</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>4.3</v>
+        <v>2.76</v>
       </c>
       <c r="K37" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G38" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="H38" t="n">
         <v>3.95</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J38" t="n">
         <v>3.85</v>
       </c>
       <c r="K38" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5554,13 +5554,13 @@
         <v>4.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P38" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5671,13 +5671,13 @@
         <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
         <v>3.15</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5689,10 +5689,10 @@
         <v>2.84</v>
       </c>
       <c r="O39" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q39" t="n">
         <v>2.3</v>
@@ -5800,16 +5800,16 @@
         <v>1.42</v>
       </c>
       <c r="G40" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="H40" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
         <v>9.6</v>
       </c>
       <c r="J40" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K40" t="n">
         <v>6.8</v>
@@ -5827,10 +5827,10 @@
         <v>1.16</v>
       </c>
       <c r="P40" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G41" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H41" t="n">
         <v>2.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="H42" t="n">
         <v>4.2</v>
       </c>
       <c r="I42" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J42" t="n">
         <v>3.65</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>2.02</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6205,10 +6205,10 @@
         <v>2.66</v>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I43" t="n">
         <v>3.35</v>
@@ -6217,7 +6217,7 @@
         <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6226,13 +6226,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O43" t="n">
         <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="Q43" t="n">
         <v>2.04</v>
@@ -6340,7 +6340,7 @@
         <v>5.1</v>
       </c>
       <c r="G44" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H44" t="n">
         <v>1.88</v>
@@ -6349,16 +6349,16 @@
         <v>1.91</v>
       </c>
       <c r="J44" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N44" t="n">
         <v>2.96</v>
@@ -6367,19 +6367,19 @@
         <v>1.49</v>
       </c>
       <c r="P44" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q44" t="n">
         <v>2.44</v>
       </c>
       <c r="R44" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S44" t="n">
         <v>4.9</v>
       </c>
       <c r="T44" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U44" t="n">
         <v>1.79</v>
@@ -6397,7 +6397,7 @@
         <v>6.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA44" t="n">
         <v>22</v>
@@ -6406,34 +6406,34 @@
         <v>13.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE44" t="n">
         <v>25</v>
       </c>
       <c r="AF44" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AG44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI44" t="n">
         <v>55</v>
       </c>
       <c r="AJ44" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AK44" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM44" t="n">
         <v>230</v>
@@ -6442,7 +6442,7 @@
         <v>170</v>
       </c>
       <c r="AO44" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="G45" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="H45" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J45" t="n">
         <v>3.6</v>
@@ -6505,7 +6505,7 @@
         <v>1.73</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R45" t="n">
         <v>1.27</v>
@@ -6517,7 +6517,7 @@
         <v>2.08</v>
       </c>
       <c r="U45" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6529,13 +6529,13 @@
         <v>11.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB45" t="n">
         <v>7.2</v>
@@ -6544,10 +6544,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD45" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE45" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
         <v>10.5</v>
@@ -6562,22 +6562,22 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK45" t="n">
         <v>23</v>
       </c>
       <c r="AL45" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM45" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN45" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46">
@@ -6619,10 +6619,10 @@
         <v>2.12</v>
       </c>
       <c r="J46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6631,16 +6631,16 @@
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O46" t="n">
         <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R46" t="n">
         <v>1.41</v>
@@ -6661,19 +6661,19 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y46" t="n">
         <v>10.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA46" t="n">
         <v>26</v>
       </c>
       <c r="AB46" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC46" t="n">
         <v>8.199999999999999</v>
@@ -6685,34 +6685,34 @@
         <v>22</v>
       </c>
       <c r="AF46" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG46" t="n">
         <v>16.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="n">
         <v>55</v>
       </c>
       <c r="AM46" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN46" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G47" t="n">
         <v>2.74</v>
       </c>
       <c r="H47" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I47" t="n">
         <v>2.88</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.9</v>
       </c>
       <c r="J47" t="n">
         <v>3.45</v>
@@ -6772,13 +6772,13 @@
         <v>1.35</v>
       </c>
       <c r="P47" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R47" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S47" t="n">
         <v>3.7</v>
@@ -6829,16 +6829,16 @@
         <v>17</v>
       </c>
       <c r="AI47" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ47" t="n">
         <v>40</v>
       </c>
       <c r="AK47" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL47" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM47" t="n">
         <v>95</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G48" t="n">
         <v>4.4</v>
@@ -6886,7 +6886,7 @@
         <v>1.88</v>
       </c>
       <c r="I48" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J48" t="n">
         <v>4.1</v>
@@ -6907,10 +6907,10 @@
         <v>1.24</v>
       </c>
       <c r="P48" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R48" t="n">
         <v>1.53</v>
@@ -6919,7 +6919,7 @@
         <v>2.8</v>
       </c>
       <c r="T48" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U48" t="n">
         <v>2.38</v>
@@ -6931,13 +6931,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
         <v>11.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA48" t="n">
         <v>21</v>
@@ -6946,7 +6946,7 @@
         <v>19</v>
       </c>
       <c r="AC48" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD48" t="n">
         <v>10</v>
@@ -6955,7 +6955,7 @@
         <v>17.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG48" t="n">
         <v>16.5</v>
@@ -6967,19 +6967,19 @@
         <v>27</v>
       </c>
       <c r="AJ48" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AK48" t="n">
         <v>48</v>
       </c>
       <c r="AL48" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM48" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN48" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO48" t="n">
         <v>9.4</v>
@@ -7015,7 +7015,7 @@
         <v>3.5</v>
       </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H49" t="n">
         <v>2.34</v>
@@ -7033,28 +7033,28 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P49" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S49" t="n">
         <v>3.6</v>
       </c>
       <c r="T49" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U49" t="n">
         <v>2.18</v>
@@ -7066,34 +7066,34 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA49" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB49" t="n">
         <v>13.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD49" t="n">
         <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF49" t="n">
         <v>24</v>
       </c>
       <c r="AG49" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH49" t="n">
         <v>17.5</v>
@@ -7108,7 +7108,7 @@
         <v>40</v>
       </c>
       <c r="AL49" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM49" t="n">
         <v>90</v>
@@ -7117,7 +7117,7 @@
         <v>40</v>
       </c>
       <c r="AO49" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G50" t="n">
         <v>4.9</v>
       </c>
       <c r="H50" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I50" t="n">
         <v>2.52</v>
@@ -7162,7 +7162,7 @@
         <v>2.52</v>
       </c>
       <c r="K50" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7171,13 +7171,13 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="O50" t="n">
         <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q50" t="n">
         <v>1.85</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G51" t="n">
         <v>1.66</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.68</v>
       </c>
       <c r="H51" t="n">
         <v>6.2</v>
@@ -7297,7 +7297,7 @@
         <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7306,16 +7306,16 @@
         <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O51" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R51" t="n">
         <v>1.36</v>
@@ -7324,10 +7324,10 @@
         <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7348,7 +7348,7 @@
         <v>240</v>
       </c>
       <c r="AB51" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC51" t="n">
         <v>9.4</v>
@@ -7378,7 +7378,7 @@
         <v>19</v>
       </c>
       <c r="AL51" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM51" t="n">
         <v>170</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H53" t="n">
         <v>2.24</v>
       </c>
       <c r="I53" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J53" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K53" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>1.85</v>
       </c>
       <c r="R53" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S53" t="n">
         <v>3.15</v>
@@ -7606,19 +7606,19 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y53" t="n">
         <v>11.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC53" t="n">
         <v>8.199999999999999</v>
@@ -7627,37 +7627,37 @@
         <v>11</v>
       </c>
       <c r="AE53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF53" t="n">
         <v>26</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>29</v>
       </c>
       <c r="AG53" t="n">
         <v>15</v>
       </c>
       <c r="AH53" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AJ53" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK53" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM53" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN53" t="n">
         <v>34</v>
       </c>
       <c r="AO53" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="54">
@@ -7699,7 +7699,7 @@
         <v>4.2</v>
       </c>
       <c r="J54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K54" t="n">
         <v>4.8</v>
@@ -7720,7 +7720,7 @@
         <v>2.16</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7834,10 +7834,10 @@
         <v>2.78</v>
       </c>
       <c r="J55" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K55" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8101,10 +8101,10 @@
         <v>4.6</v>
       </c>
       <c r="I57" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J57" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K57" t="n">
         <v>4.1</v>
@@ -8125,7 +8125,7 @@
         <v>1.9</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H58" t="n">
         <v>2.86</v>
@@ -8254,7 +8254,7 @@
         <v>3.3</v>
       </c>
       <c r="O58" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P58" t="n">
         <v>1.76</v>
@@ -8281,19 +8281,19 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y58" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA58" t="n">
         <v>48</v>
       </c>
       <c r="AB58" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC58" t="n">
         <v>7.2</v>
@@ -8302,7 +8302,7 @@
         <v>13</v>
       </c>
       <c r="AE58" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF58" t="n">
         <v>18</v>
@@ -8317,22 +8317,22 @@
         <v>55</v>
       </c>
       <c r="AJ58" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK58" t="n">
         <v>36</v>
       </c>
       <c r="AL58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM58" t="n">
         <v>140</v>
       </c>
       <c r="AN58" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO58" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I60" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J60" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="K60" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q60" t="n">
         <v>1.53</v>
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G61" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="H61" t="n">
         <v>1.4</v>
@@ -8647,7 +8647,7 @@
         <v>4.5</v>
       </c>
       <c r="K61" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G62" t="n">
         <v>1.94</v>
@@ -8776,10 +8776,10 @@
         <v>4.5</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J62" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K62" t="n">
         <v>3.9</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G63" t="n">
         <v>2.36</v>
@@ -8917,7 +8917,7 @@
         <v>3.65</v>
       </c>
       <c r="K63" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G64" t="n">
         <v>1.79</v>
@@ -9049,7 +9049,7 @@
         <v>4.8</v>
       </c>
       <c r="J64" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K64" t="n">
         <v>5.2</v>
@@ -9070,7 +9070,7 @@
         <v>3.2</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H65" t="n">
         <v>2.6</v>
       </c>
       <c r="I65" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="J65" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K65" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9202,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>1.24</v>
       </c>
       <c r="G66" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="H66" t="n">
         <v>14.5</v>
@@ -9319,22 +9319,22 @@
         <v>22</v>
       </c>
       <c r="J66" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="K66" t="n">
         <v>7.4</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M66" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N66" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="O66" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P66" t="n">
         <v>2.24</v>
@@ -9343,16 +9343,16 @@
         <v>1.64</v>
       </c>
       <c r="R66" t="n">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="S66" t="n">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="T66" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U66" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="V66" t="n">
         <v>1.04</v>
@@ -9361,58 +9361,58 @@
         <v>3.9</v>
       </c>
       <c r="X66" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y66" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z66" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA66" t="n">
         <v>1000</v>
       </c>
       <c r="AB66" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD66" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AE66" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AF66" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AG66" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH66" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AJ66" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK66" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL66" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM66" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN66" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO66" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67">
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="G68" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="H68" t="n">
         <v>2.84</v>
       </c>
       <c r="I68" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K68" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9607,10 +9607,10 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9715,19 +9715,19 @@
         <v>8</v>
       </c>
       <c r="G69" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="H69" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I69" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J69" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K69" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G71" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>2.64</v>
+        <v>1.09</v>
       </c>
       <c r="K71" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -10015,7 +10015,7 @@
         <v>1.83</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -10141,16 +10141,16 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O72" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P72" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10252,10 +10252,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="G73" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H73" t="n">
         <v>6.6</v>
@@ -10267,7 +10267,7 @@
         <v>4.8</v>
       </c>
       <c r="K73" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -10276,16 +10276,16 @@
         <v>1.04</v>
       </c>
       <c r="N73" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O73" t="n">
         <v>1.18</v>
       </c>
       <c r="P73" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R73" t="n">
         <v>1.68</v>
@@ -10294,10 +10294,10 @@
         <v>2.36</v>
       </c>
       <c r="T73" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U73" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>65</v>
       </c>
       <c r="AA73" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB73" t="n">
         <v>12</v>
@@ -10324,10 +10324,10 @@
         <v>12</v>
       </c>
       <c r="AD73" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AE73" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF73" t="n">
         <v>11.5</v>
@@ -10348,7 +10348,7 @@
         <v>14.5</v>
       </c>
       <c r="AL73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM73" t="n">
         <v>80</v>
@@ -10390,16 +10390,16 @@
         <v>4.6</v>
       </c>
       <c r="G74" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H74" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I74" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J74" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K74" t="n">
         <v>3.85</v>
@@ -10411,16 +10411,16 @@
         <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O74" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P74" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R74" t="n">
         <v>1.37</v>
@@ -10429,7 +10429,7 @@
         <v>3.4</v>
       </c>
       <c r="T74" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U74" t="n">
         <v>2.08</v>
@@ -10441,22 +10441,22 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Z74" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AA74" t="n">
         <v>22</v>
       </c>
       <c r="AB74" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC74" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD74" t="n">
         <v>11</v>
@@ -10468,10 +10468,10 @@
         <v>38</v>
       </c>
       <c r="AG74" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AH74" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI74" t="n">
         <v>38</v>
@@ -10480,7 +10480,7 @@
         <v>140</v>
       </c>
       <c r="AK74" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL74" t="n">
         <v>70</v>
@@ -10489,10 +10489,10 @@
         <v>130</v>
       </c>
       <c r="AN74" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO74" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="75">
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G75" t="n">
         <v>1.81</v>
@@ -10549,13 +10549,13 @@
         <v>4.2</v>
       </c>
       <c r="O75" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P75" t="n">
         <v>2.12</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R75" t="n">
         <v>1.43</v>
@@ -10576,19 +10576,19 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
       </c>
       <c r="Z75" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA75" t="n">
         <v>150</v>
       </c>
       <c r="AB75" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC75" t="n">
         <v>9.199999999999999</v>
@@ -10597,7 +10597,7 @@
         <v>23</v>
       </c>
       <c r="AE75" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AF75" t="n">
         <v>11.5</v>
@@ -10606,10 +10606,10 @@
         <v>10</v>
       </c>
       <c r="AH75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI75" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ75" t="n">
         <v>22</v>
@@ -10618,7 +10618,7 @@
         <v>21</v>
       </c>
       <c r="AL75" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM75" t="n">
         <v>120</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G76" t="n">
         <v>4.6</v>
@@ -10669,7 +10669,7 @@
         <v>2.02</v>
       </c>
       <c r="J76" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K76" t="n">
         <v>4.4</v>
@@ -10684,13 +10684,13 @@
         <v>4.3</v>
       </c>
       <c r="O76" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P76" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G77" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="H77" t="n">
-        <v>1.17</v>
+        <v>7.4</v>
       </c>
       <c r="I77" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J77" t="n">
-        <v>1.09</v>
+        <v>4.4</v>
       </c>
       <c r="K77" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O77" t="n">
         <v>1.23</v>
       </c>
       <c r="P77" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G78" t="n">
         <v>2.44</v>
@@ -10951,16 +10951,16 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>2.38</v>
+        <v>1.47</v>
       </c>
       <c r="O78" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q78" t="n">
         <v>1.55</v>
-      </c>
-      <c r="P78" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>2.62</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11065,19 +11065,19 @@
         <v>2.38</v>
       </c>
       <c r="G79" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="H79" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="K79" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11338,7 +11338,7 @@
         <v>2.04</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I81" t="n">
         <v>4.2</v>
@@ -11356,13 +11356,13 @@
         <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O81" t="n">
         <v>1.31</v>
       </c>
       <c r="P81" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q81" t="n">
         <v>1.95</v>
@@ -11395,7 +11395,7 @@
         <v>30</v>
       </c>
       <c r="AA81" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB81" t="n">
         <v>9.6</v>
@@ -11419,7 +11419,7 @@
         <v>19</v>
       </c>
       <c r="AI81" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ81" t="n">
         <v>24</v>
@@ -11434,7 +11434,7 @@
         <v>95</v>
       </c>
       <c r="AN81" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO81" t="n">
         <v>55</v>
@@ -11638,7 +11638,7 @@
         <v>1.26</v>
       </c>
       <c r="R83" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S83" t="n">
         <v>1.67</v>
@@ -11656,34 +11656,34 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y83" t="n">
         <v>1000</v>
       </c>
       <c r="Z83" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AA83" t="n">
         <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC83" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AD83" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="AF83" t="n">
         <v>11</v>
       </c>
       <c r="AG83" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH83" t="n">
         <v>55</v>
@@ -11695,10 +11695,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AK83" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL83" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM83" t="n">
         <v>1000</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G84" t="n">
         <v>34</v>
@@ -11770,7 +11770,7 @@
         <v>2.34</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H85" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="I85" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="J85" t="n">
-        <v>3.45</v>
+        <v>2.54</v>
       </c>
       <c r="K85" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11896,16 +11896,16 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>3.45</v>
+        <v>1.73</v>
       </c>
       <c r="O85" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P85" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12007,19 +12007,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G86" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H86" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I86" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="J86" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K86" t="n">
         <v>4.5</v>
@@ -12034,13 +12034,13 @@
         <v>3.65</v>
       </c>
       <c r="O86" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P86" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R86" t="n">
         <v>1.33</v>
@@ -12052,7 +12052,7 @@
         <v>2.18</v>
       </c>
       <c r="U86" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -12064,16 +12064,16 @@
         <v>14.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z86" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA86" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB86" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC86" t="n">
         <v>9.800000000000001</v>
@@ -12085,22 +12085,22 @@
         <v>19</v>
       </c>
       <c r="AF86" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG86" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH86" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI86" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ86" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AK86" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL86" t="n">
         <v>140</v>
@@ -12109,10 +12109,10 @@
         <v>220</v>
       </c>
       <c r="AN86" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AO86" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -12142,13 +12142,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G87" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H87" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I87" t="n">
         <v>4.2</v>
@@ -12280,19 +12280,19 @@
         <v>2.52</v>
       </c>
       <c r="G88" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="I88" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J88" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K88" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -12307,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q88" t="n">
         <v>1.73</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G89" t="n">
         <v>2.24</v>
       </c>
       <c r="H89" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I89" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J89" t="n">
         <v>3.5</v>
       </c>
       <c r="K89" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12553,13 +12553,13 @@
         <v>1.68</v>
       </c>
       <c r="H90" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I90" t="n">
         <v>7.2</v>
       </c>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K90" t="n">
         <v>4.7</v>
@@ -12580,7 +12580,7 @@
         <v>1.9</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12688,10 +12688,10 @@
         <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I91" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J91" t="n">
         <v>4.6</v>
@@ -12724,7 +12724,7 @@
         <v>2.64</v>
       </c>
       <c r="T91" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U91" t="n">
         <v>2.34</v>
@@ -12751,40 +12751,40 @@
         <v>22</v>
       </c>
       <c r="AC91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD91" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD91" t="n">
-        <v>10</v>
-      </c>
       <c r="AE91" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF91" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG91" t="n">
         <v>19.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI91" t="n">
         <v>29</v>
       </c>
       <c r="AJ91" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL91" t="n">
         <v>55</v>
       </c>
       <c r="AM91" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN91" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO91" t="n">
         <v>7.8</v>
@@ -12820,19 +12820,19 @@
         <v>1.71</v>
       </c>
       <c r="G92" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H92" t="n">
         <v>5.5</v>
       </c>
       <c r="I92" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J92" t="n">
         <v>3.6</v>
       </c>
       <c r="K92" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12847,10 +12847,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G93" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H93" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="I93" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J93" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="K93" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -12976,16 +12976,16 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="O93" t="n">
         <v>1.26</v>
       </c>
       <c r="P93" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="G94" t="n">
         <v>12</v>
       </c>
       <c r="H94" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="I94" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="J94" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K94" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -13222,22 +13222,22 @@
         </is>
       </c>
       <c r="F95" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J95" t="n">
         <v>3</v>
       </c>
-      <c r="G95" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K95" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -13246,16 +13246,16 @@
         <v>0</v>
       </c>
       <c r="N95" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O95" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P95" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -13357,16 +13357,16 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G96" t="n">
         <v>10.5</v>
       </c>
       <c r="H96" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I96" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J96" t="n">
         <v>4.2</v>
@@ -13384,13 +13384,13 @@
         <v>3.35</v>
       </c>
       <c r="O96" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P96" t="n">
         <v>1.81</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>6</v>
       </c>
       <c r="G97" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="H97" t="n">
         <v>1.49</v>
@@ -13504,10 +13504,10 @@
         <v>1.61</v>
       </c>
       <c r="J97" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="K97" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -13525,7 +13525,7 @@
         <v>1.25</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13627,19 +13627,19 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G98" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>2.76</v>
       </c>
       <c r="I98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J98" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3.6</v>
       </c>
       <c r="K98" t="n">
         <v>5.1</v>
@@ -13651,13 +13651,13 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="O98" t="n">
         <v>1.17</v>
       </c>
       <c r="P98" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q98" t="n">
         <v>1.46</v>
@@ -13762,22 +13762,22 @@
         </is>
       </c>
       <c r="F99" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G99" t="n">
         <v>3.05</v>
       </c>
-      <c r="G99" t="n">
-        <v>3.1</v>
-      </c>
       <c r="H99" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I99" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J99" t="n">
         <v>3.9</v>
       </c>
       <c r="K99" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -13786,7 +13786,7 @@
         <v>1.04</v>
       </c>
       <c r="N99" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O99" t="n">
         <v>1.19</v>
@@ -13801,13 +13801,13 @@
         <v>1.66</v>
       </c>
       <c r="S99" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T99" t="n">
         <v>1.54</v>
       </c>
       <c r="U99" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
@@ -13816,52 +13816,52 @@
         <v>0</v>
       </c>
       <c r="X99" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y99" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA99" t="n">
         <v>34</v>
       </c>
       <c r="AB99" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC99" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD99" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE99" t="n">
         <v>24</v>
       </c>
       <c r="AF99" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG99" t="n">
         <v>14</v>
       </c>
       <c r="AH99" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI99" t="n">
         <v>30</v>
       </c>
       <c r="AJ99" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AK99" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL99" t="n">
         <v>34</v>
       </c>
       <c r="AM99" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN99" t="n">
         <v>18.5</v>
@@ -13903,16 +13903,16 @@
         <v>7.2</v>
       </c>
       <c r="H100" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="I100" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="J100" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K100" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13921,13 +13921,13 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>2.66</v>
+        <v>1.76</v>
       </c>
       <c r="O100" t="n">
         <v>1.32</v>
       </c>
       <c r="P100" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="Q100" t="n">
         <v>1.81</v>
@@ -13936,7 +13936,7 @@
         <v>1.28</v>
       </c>
       <c r="S100" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T100" t="n">
         <v>1.01</v>
@@ -13945,7 +13945,7 @@
         <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W100" t="n">
         <v>1.16</v>
@@ -14032,22 +14032,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="G101" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H101" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="I101" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="J101" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="K101" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>2.12</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="G102" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="H102" t="n">
-        <v>4.5</v>
+        <v>1.76</v>
       </c>
       <c r="I102" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J102" t="n">
-        <v>3.05</v>
+        <v>1.76</v>
       </c>
       <c r="K102" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,10 +14197,10 @@
         <v>1.5</v>
       </c>
       <c r="P102" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="G103" t="n">
         <v>3.8</v>
       </c>
       <c r="H103" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="I103" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J103" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K103" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>1.36</v>
       </c>
       <c r="P103" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14437,10 +14437,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G104" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>3.95</v>
@@ -14467,22 +14467,22 @@
         <v>1.17</v>
       </c>
       <c r="P104" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R104" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S104" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T104" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U104" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V104" t="n">
         <v>0</v>
@@ -14509,22 +14509,22 @@
         <v>10.5</v>
       </c>
       <c r="AD104" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE104" t="n">
         <v>40</v>
       </c>
       <c r="AF104" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG104" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI104" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ104" t="n">
         <v>25</v>
@@ -14536,10 +14536,10 @@
         <v>27</v>
       </c>
       <c r="AM104" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN104" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO104" t="n">
         <v>27</v>
@@ -14581,7 +14581,7 @@
         <v>2.76</v>
       </c>
       <c r="I105" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J105" t="n">
         <v>3.15</v>
@@ -14617,7 +14617,7 @@
         <v>1.94</v>
       </c>
       <c r="U105" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V105" t="n">
         <v>0</v>
@@ -14629,13 +14629,13 @@
         <v>10.5</v>
       </c>
       <c r="Y105" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z105" t="n">
         <v>17.5</v>
       </c>
       <c r="AA105" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB105" t="n">
         <v>10</v>
@@ -14647,7 +14647,7 @@
         <v>13</v>
       </c>
       <c r="AE105" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF105" t="n">
         <v>19</v>
@@ -14665,19 +14665,19 @@
         <v>55</v>
       </c>
       <c r="AK105" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL105" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM105" t="n">
         <v>160</v>
       </c>
       <c r="AN105" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO105" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
@@ -14710,19 +14710,19 @@
         <v>6</v>
       </c>
       <c r="G106" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H106" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I106" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="J106" t="n">
         <v>4.1</v>
       </c>
       <c r="K106" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -14734,25 +14734,25 @@
         <v>4.4</v>
       </c>
       <c r="O106" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P106" t="n">
         <v>2.16</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R106" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S106" t="n">
         <v>3.05</v>
       </c>
       <c r="T106" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U106" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
@@ -14764,7 +14764,7 @@
         <v>17.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z106" t="n">
         <v>10.5</v>
@@ -14776,7 +14776,7 @@
         <v>22</v>
       </c>
       <c r="AC106" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD106" t="n">
         <v>10</v>
@@ -14785,22 +14785,22 @@
         <v>17</v>
       </c>
       <c r="AF106" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG106" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH106" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI106" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ106" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK106" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL106" t="n">
         <v>80</v>
@@ -14809,7 +14809,7 @@
         <v>120</v>
       </c>
       <c r="AN106" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO106" t="n">
         <v>8.6</v>
@@ -14842,10 +14842,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G107" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H107" t="n">
         <v>2.7</v>
@@ -14857,7 +14857,7 @@
         <v>2.94</v>
       </c>
       <c r="K107" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -14866,16 +14866,16 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>2.56</v>
+        <v>1.25</v>
       </c>
       <c r="O107" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="P107" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.66</v>
+        <v>1.54</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -15112,19 +15112,19 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="G109" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="H109" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="I109" t="n">
         <v>1000</v>
       </c>
       <c r="J109" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="K109" t="n">
         <v>1000</v>
@@ -15136,16 +15136,16 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O109" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P109" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -15280,7 +15280,7 @@
         <v>2.06</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.58</v>
+        <v>2.06</v>
       </c>
       <c r="G111" t="n">
         <v>2.68</v>
@@ -15391,13 +15391,13 @@
         <v>2.72</v>
       </c>
       <c r="I111" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J111" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K111" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -15415,7 +15415,7 @@
         <v>1.92</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.78</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1075,25 +1075,25 @@
         <v>2.58</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>3.4</v>
@@ -1111,7 +1111,7 @@
         <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.76</v>
@@ -1120,7 +1120,7 @@
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
         <v>1.53</v>
@@ -1141,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>16</v>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
         <v>38</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3.25</v>
@@ -1246,7 +1246,7 @@
         <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
         <v>1.79</v>
@@ -1282,7 +1282,7 @@
         <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
         <v>22</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.08</v>
+        <v>1.42</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>1.21</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1918,7 +1918,7 @@
         <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
         <v>3.3</v>
@@ -1945,10 +1945,10 @@
         <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>1.09</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>1.09</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,79 +2176,79 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="O13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.48</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>1.48</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>1.78</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
@@ -2608,7 +2608,7 @@
         <v>1.24</v>
       </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,13 +2695,13 @@
         <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>2.84</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
         <v>2.74</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.54</v>
+        <v>1.11</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.54</v>
+        <v>1.11</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>1.1</v>
       </c>
       <c r="S17" t="n">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2743,7 +2743,7 @@
         <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
         <v>2.32</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2986,22 +2986,22 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>2.12</v>
+        <v>1.46</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>1.46</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>2.26</v>
+        <v>1.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3010,10 +3010,10 @@
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3106,7 +3106,7 @@
         <v>5.7</v>
       </c>
       <c r="I20" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J20" t="n">
         <v>4.5</v>
@@ -3121,7 +3121,7 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.19</v>
@@ -3136,7 +3136,7 @@
         <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T20" t="n">
         <v>1.68</v>
@@ -3181,7 +3181,7 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
         <v>65</v>
@@ -3235,7 +3235,7 @@
         <v>1.84</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H21" t="n">
         <v>4.7</v>
@@ -3262,7 +3262,7 @@
         <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q21" t="n">
         <v>1.92</v>
@@ -3274,7 +3274,7 @@
         <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U21" t="n">
         <v>1.89</v>
@@ -3283,7 +3283,7 @@
         <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3397,10 +3397,10 @@
         <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
         <v>1.5</v>
@@ -3514,7 +3514,7 @@
         <v>4.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
@@ -3565,7 +3565,7 @@
         <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="n">
         <v>7.4</v>
@@ -3574,7 +3574,7 @@
         <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>75</v>
@@ -3586,28 +3586,28 @@
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
         <v>48</v>
       </c>
       <c r="AM23" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
         <v>19</v>
       </c>
       <c r="AO23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.67</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K24" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,22 +3661,22 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.87</v>
+        <v>1.34</v>
       </c>
       <c r="O24" t="n">
         <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>1.87</v>
+        <v>1.34</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
       <c r="R24" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.68</v>
+        <v>1.28</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="G25" t="n">
         <v>1.99</v>
@@ -3784,7 +3784,7 @@
         <v>4.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
         <v>4.4</v>
@@ -3805,13 +3805,13 @@
         <v>2.16</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3826,49 +3826,49 @@
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -3910,7 +3910,7 @@
         <v>1.78</v>
       </c>
       <c r="G26" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -3931,34 +3931,34 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O26" t="n">
         <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
       <c r="T26" t="n">
         <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
         <v>1.28</v>
       </c>
       <c r="W26" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4315,22 +4315,22 @@
         <v>3.15</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
         <v>2.64</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J29" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K29" t="n">
         <v>3.25</v>
       </c>
       <c r="L29" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
@@ -4345,13 +4345,13 @@
         <v>1.48</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="T29" t="n">
         <v>2.12</v>
@@ -4360,13 +4360,13 @@
         <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W29" t="n">
         <v>1.41</v>
       </c>
       <c r="X29" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y29" t="n">
         <v>9.199999999999999</v>
@@ -4390,7 +4390,7 @@
         <v>50</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
         <v>970</v>
@@ -4402,7 +4402,7 @@
         <v>85</v>
       </c>
       <c r="AJ29" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK29" t="n">
         <v>70</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5.4</v>
+        <v>1.04</v>
       </c>
       <c r="G30" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="H30" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>1.87</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,22 +4471,22 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.69</v>
+        <v>1.1</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="S30" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4495,46 +4495,46 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="G31" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H31" t="n">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
         <v>16</v>
       </c>
       <c r="J31" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>6.4</v>
@@ -4723,19 +4723,19 @@
         <v>7.6</v>
       </c>
       <c r="H32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I32" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
         <v>1.01</v>
@@ -4750,7 +4750,7 @@
         <v>1.47</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
@@ -4765,7 +4765,7 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W32" t="n">
         <v>1.15</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="H33" t="n">
         <v>1.66</v>
       </c>
       <c r="I33" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4876,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O33" t="n">
         <v>1.42</v>
       </c>
       <c r="P33" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G34" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="J34" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
@@ -5035,10 +5035,10 @@
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="W34" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G36" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H36" t="n">
         <v>8.4</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J36" t="n">
         <v>4.9</v>
@@ -5275,16 +5275,16 @@
         <v>5.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
         <v>2.64</v>
@@ -5308,58 +5308,58 @@
         <v>1.12</v>
       </c>
       <c r="W36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X36" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y36" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z36" t="n">
         <v>95</v>
       </c>
       <c r="AA36" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC36" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="n">
         <v>130</v>
       </c>
       <c r="AF36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI36" t="n">
         <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AK36" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AM36" t="n">
         <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO36" t="n">
         <v>120</v>
@@ -5395,19 +5395,19 @@
         <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I37" t="n">
         <v>2.26</v>
       </c>
-      <c r="I37" t="n">
-        <v>2.32</v>
-      </c>
       <c r="J37" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.27</v>
@@ -5425,7 +5425,7 @@
         <v>2.56</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="R37" t="n">
         <v>1.63</v>
@@ -5437,19 +5437,19 @@
         <v>1.43</v>
       </c>
       <c r="U37" t="n">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="V37" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="W37" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z37" t="n">
         <v>22</v>
@@ -5458,25 +5458,25 @@
         <v>36</v>
       </c>
       <c r="AB37" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE37" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AF37" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AG37" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI37" t="n">
         <v>34</v>
@@ -5485,19 +5485,19 @@
         <v>65</v>
       </c>
       <c r="AK37" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM37" t="n">
         <v>65</v>
       </c>
       <c r="AN37" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO37" t="n">
-        <v>80</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="38">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="G38" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H38" t="n">
         <v>6.8</v>
@@ -5539,10 +5539,10 @@
         <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,22 +5551,22 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>1.8</v>
+        <v>1.03</v>
       </c>
       <c r="O38" t="n">
         <v>1.26</v>
       </c>
       <c r="P38" t="n">
-        <v>1.8</v>
+        <v>1.34</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="R38" t="n">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="S38" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="T38" t="n">
         <v>1.01</v>
@@ -5578,7 +5578,7 @@
         <v>1.01</v>
       </c>
       <c r="W38" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I39" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.85</v>
@@ -5686,16 +5686,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O39" t="n">
         <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G40" t="n">
         <v>2.04</v>
@@ -5809,7 +5809,7 @@
         <v>5.3</v>
       </c>
       <c r="J40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
         <v>3.7</v>
@@ -5821,10 +5821,10 @@
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="O40" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P40" t="n">
         <v>1.67</v>
@@ -5842,7 +5842,7 @@
         <v>1.98</v>
       </c>
       <c r="U40" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V40" t="n">
         <v>1.23</v>
@@ -5854,13 +5854,13 @@
         <v>12</v>
       </c>
       <c r="Y40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z40" t="n">
         <v>36</v>
       </c>
       <c r="AA40" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AB40" t="n">
         <v>7.6</v>
@@ -5878,10 +5878,10 @@
         <v>11.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI40" t="n">
         <v>120</v>
@@ -5893,10 +5893,10 @@
         <v>25</v>
       </c>
       <c r="AL40" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AN40" t="n">
         <v>21</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="G41" t="n">
-        <v>1.56</v>
+        <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>5.7</v>
+        <v>1.04</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>4.5</v>
+        <v>1.02</v>
       </c>
       <c r="K41" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,22 +5956,22 @@
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="O41" t="n">
         <v>1.15</v>
       </c>
       <c r="P41" t="n">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="S41" t="n">
-        <v>2.06</v>
+        <v>1.15</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -5980,16 +5980,16 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W41" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
@@ -5998,37 +5998,37 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
@@ -6070,7 +6070,7 @@
         <v>1.59</v>
       </c>
       <c r="G42" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>6</v>
@@ -6079,7 +6079,7 @@
         <v>7.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K42" t="n">
         <v>4.8</v>
@@ -6208,10 +6208,10 @@
         <v>3.7</v>
       </c>
       <c r="H43" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I43" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J43" t="n">
         <v>2.96</v>
@@ -6244,10 +6244,10 @@
         <v>3.85</v>
       </c>
       <c r="T43" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U43" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>1.63</v>
@@ -6259,13 +6259,13 @@
         <v>13.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z43" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
@@ -6274,13 +6274,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG43" t="n">
         <v>18.5</v>
@@ -6292,10 +6292,10 @@
         <v>60</v>
       </c>
       <c r="AJ43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL43" t="n">
         <v>70</v>
@@ -6307,7 +6307,7 @@
         <v>60</v>
       </c>
       <c r="AO43" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -6340,7 +6340,7 @@
         <v>1.84</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H44" t="n">
         <v>4.3</v>
@@ -6349,7 +6349,7 @@
         <v>5.1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
         <v>4.1</v>
@@ -6385,16 +6385,16 @@
         <v>1.84</v>
       </c>
       <c r="V44" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W44" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X44" t="n">
         <v>17</v>
       </c>
       <c r="Y44" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z44" t="n">
         <v>44</v>
@@ -6424,7 +6424,7 @@
         <v>24</v>
       </c>
       <c r="AI44" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ44" t="n">
         <v>27</v>
@@ -6433,7 +6433,7 @@
         <v>25</v>
       </c>
       <c r="AL44" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM44" t="n">
         <v>140</v>
@@ -6442,7 +6442,7 @@
         <v>16.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
@@ -6475,7 +6475,7 @@
         <v>2.68</v>
       </c>
       <c r="G45" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>2.96</v>
@@ -6610,13 +6610,13 @@
         <v>5.1</v>
       </c>
       <c r="G46" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I46" t="n">
         <v>1.92</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.93</v>
       </c>
       <c r="J46" t="n">
         <v>3.5</v>
@@ -6625,22 +6625,22 @@
         <v>3.6</v>
       </c>
       <c r="L46" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M46" t="n">
         <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O46" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P46" t="n">
         <v>1.65</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R46" t="n">
         <v>1.23</v>
@@ -6649,13 +6649,13 @@
         <v>4.9</v>
       </c>
       <c r="T46" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U46" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W46" t="n">
         <v>1.23</v>
@@ -6667,7 +6667,7 @@
         <v>6.8</v>
       </c>
       <c r="Z46" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AA46" t="n">
         <v>21</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G47" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H47" t="n">
         <v>4.6</v>
@@ -6775,7 +6775,7 @@
         <v>1.71</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R47" t="n">
         <v>1.26</v>
@@ -6784,7 +6784,7 @@
         <v>4.5</v>
       </c>
       <c r="T47" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="U47" t="n">
         <v>1.86</v>
@@ -6799,7 +6799,7 @@
         <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z47" t="n">
         <v>32</v>
@@ -6814,7 +6814,7 @@
         <v>7.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE47" t="n">
         <v>75</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G48" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
         <v>2.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J48" t="n">
         <v>3.7</v>
@@ -6901,7 +6901,7 @@
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O48" t="n">
         <v>1.3</v>
@@ -6910,7 +6910,7 @@
         <v>2.04</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R48" t="n">
         <v>1.41</v>
@@ -6925,7 +6925,7 @@
         <v>2.24</v>
       </c>
       <c r="V48" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W48" t="n">
         <v>1.34</v>
@@ -6934,7 +6934,7 @@
         <v>15</v>
       </c>
       <c r="Y48" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z48" t="n">
         <v>13</v>
@@ -6973,7 +6973,7 @@
         <v>42</v>
       </c>
       <c r="AL48" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM48" t="n">
         <v>90</v>
@@ -6982,7 +6982,7 @@
         <v>42</v>
       </c>
       <c r="AO48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G49" t="n">
         <v>2.66</v>
@@ -7042,13 +7042,13 @@
         <v>1.35</v>
       </c>
       <c r="P49" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q49" t="n">
         <v>2.06</v>
       </c>
       <c r="R49" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S49" t="n">
         <v>3.7</v>
@@ -7096,7 +7096,7 @@
         <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI49" t="n">
         <v>44</v>
@@ -7105,7 +7105,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL49" t="n">
         <v>42</v>
@@ -7153,10 +7153,10 @@
         <v>4.3</v>
       </c>
       <c r="H50" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I50" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="J50" t="n">
         <v>4.1</v>
@@ -7174,7 +7174,7 @@
         <v>4.9</v>
       </c>
       <c r="O50" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P50" t="n">
         <v>2.36</v>
@@ -7186,7 +7186,7 @@
         <v>1.53</v>
       </c>
       <c r="S50" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T50" t="n">
         <v>1.67</v>
@@ -7231,7 +7231,7 @@
         <v>16.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI50" t="n">
         <v>27</v>
@@ -7240,7 +7240,7 @@
         <v>85</v>
       </c>
       <c r="AK50" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL50" t="n">
         <v>48</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G51" t="n">
         <v>3.6</v>
@@ -7312,7 +7312,7 @@
         <v>1.35</v>
       </c>
       <c r="P51" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q51" t="n">
         <v>2.1</v>
@@ -7324,13 +7324,13 @@
         <v>3.7</v>
       </c>
       <c r="T51" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U51" t="n">
         <v>2.16</v>
       </c>
       <c r="V51" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W51" t="n">
         <v>1.38</v>
@@ -7351,7 +7351,7 @@
         <v>13</v>
       </c>
       <c r="AC51" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD51" t="n">
         <v>11</v>
@@ -7423,7 +7423,7 @@
         <v>4.9</v>
       </c>
       <c r="H52" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="I52" t="n">
         <v>2.52</v>
@@ -7432,7 +7432,7 @@
         <v>3.1</v>
       </c>
       <c r="K52" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7441,16 +7441,16 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O52" t="n">
         <v>1.01</v>
       </c>
       <c r="P52" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R52" t="n">
         <v>1.25</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G53" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H53" t="n">
         <v>6.2</v>
@@ -7564,7 +7564,7 @@
         <v>6.8</v>
       </c>
       <c r="J53" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K53" t="n">
         <v>4.4</v>
@@ -7582,7 +7582,7 @@
         <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
         <v>1.96</v>
@@ -7603,7 +7603,7 @@
         <v>1.17</v>
       </c>
       <c r="W53" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="X53" t="n">
         <v>15.5</v>
@@ -7615,13 +7615,13 @@
         <v>55</v>
       </c>
       <c r="AA53" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB53" t="n">
         <v>7.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD53" t="n">
         <v>26</v>
@@ -7639,7 +7639,7 @@
         <v>24</v>
       </c>
       <c r="AI53" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="n">
         <v>15.5</v>
@@ -7714,13 +7714,13 @@
         <v>1.26</v>
       </c>
       <c r="O54" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P54" t="n">
         <v>1.25</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="R54" t="n">
         <v>1.18</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G55" t="n">
         <v>3.55</v>
@@ -7876,7 +7876,7 @@
         <v>1.39</v>
       </c>
       <c r="X55" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y55" t="n">
         <v>11.5</v>
@@ -7885,7 +7885,7 @@
         <v>15</v>
       </c>
       <c r="AA55" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB55" t="n">
         <v>15</v>
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="I56" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J56" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="K56" t="n">
         <v>4.8</v>
@@ -7981,22 +7981,22 @@
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P56" t="n">
         <v>2.16</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="R56" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S56" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
@@ -8005,10 +8005,10 @@
         <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="W56" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8095,10 +8095,10 @@
         <v>3.1</v>
       </c>
       <c r="G57" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H57" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I57" t="n">
         <v>2.94</v>
@@ -8143,7 +8143,7 @@
         <v>1.51</v>
       </c>
       <c r="W57" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8365,7 +8365,7 @@
         <v>1.8</v>
       </c>
       <c r="G59" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>4.6</v>
@@ -8395,10 +8395,10 @@
         <v>1.9</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S59" t="n">
         <v>2.96</v>
@@ -8413,7 +8413,7 @@
         <v>1.23</v>
       </c>
       <c r="W59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X59" t="n">
         <v>1000</v>
@@ -8443,7 +8443,7 @@
         <v>16</v>
       </c>
       <c r="AG59" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH59" t="n">
         <v>29</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I60" t="n">
         <v>2.86</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.88</v>
       </c>
       <c r="J60" t="n">
         <v>3.25</v>
@@ -8515,7 +8515,7 @@
         <v>3.3</v>
       </c>
       <c r="L60" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M60" t="n">
         <v>1.09</v>
@@ -8524,13 +8524,13 @@
         <v>3.3</v>
       </c>
       <c r="O60" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P60" t="n">
         <v>1.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R60" t="n">
         <v>1.28</v>
@@ -8539,22 +8539,22 @@
         <v>4.2</v>
       </c>
       <c r="T60" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U60" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V60" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W60" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X60" t="n">
         <v>11</v>
       </c>
       <c r="Y60" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z60" t="n">
         <v>17</v>
@@ -8578,7 +8578,7 @@
         <v>17.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH60" t="n">
         <v>18.5</v>
@@ -8587,7 +8587,7 @@
         <v>55</v>
       </c>
       <c r="AJ60" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK60" t="n">
         <v>36</v>
@@ -8599,7 +8599,7 @@
         <v>120</v>
       </c>
       <c r="AN60" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO60" t="n">
         <v>36</v>
@@ -8635,7 +8635,7 @@
         <v>1.98</v>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H61" t="n">
         <v>4.1</v>
@@ -8644,7 +8644,7 @@
         <v>4.6</v>
       </c>
       <c r="J61" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K61" t="n">
         <v>3.8</v>
@@ -8674,7 +8674,7 @@
         <v>3.25</v>
       </c>
       <c r="T61" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U61" t="n">
         <v>1.01</v>
@@ -8683,7 +8683,7 @@
         <v>1.27</v>
       </c>
       <c r="W61" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X61" t="n">
         <v>18.5</v>
@@ -8692,7 +8692,7 @@
         <v>20</v>
       </c>
       <c r="Z61" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA61" t="n">
         <v>1000</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="H62" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="I62" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="J62" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="K62" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,22 +8791,22 @@
         <v>1.03</v>
       </c>
       <c r="N62" t="n">
-        <v>2.16</v>
+        <v>1.47</v>
       </c>
       <c r="O62" t="n">
         <v>1.19</v>
       </c>
       <c r="P62" t="n">
-        <v>2.16</v>
+        <v>1.47</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="R62" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="S62" t="n">
-        <v>2.26</v>
+        <v>1.19</v>
       </c>
       <c r="T62" t="n">
         <v>1.01</v>
@@ -8815,10 +8815,10 @@
         <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W62" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8902,10 +8902,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H63" t="n">
         <v>1.42</v>
@@ -8932,7 +8932,7 @@
         <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q63" t="n">
         <v>1.33</v>
@@ -8944,7 +8944,7 @@
         <v>3.1</v>
       </c>
       <c r="T63" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U63" t="n">
         <v>1.01</v>
@@ -9061,7 +9061,7 @@
         <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
@@ -9073,13 +9073,13 @@
         <v>1.87</v>
       </c>
       <c r="R64" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S64" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="T64" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U64" t="n">
         <v>1.89</v>
@@ -9091,58 +9091,58 @@
         <v>2.06</v>
       </c>
       <c r="X64" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y64" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z64" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AA64" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB64" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN64" t="n">
         <v>13</v>
       </c>
-      <c r="AC64" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO64" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G65" t="n">
         <v>2.36</v>
@@ -9187,7 +9187,7 @@
         <v>3.65</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9196,7 +9196,7 @@
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="O65" t="n">
         <v>1.23</v>
@@ -9214,16 +9214,16 @@
         <v>2.5</v>
       </c>
       <c r="T65" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U65" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V65" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W65" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G66" t="n">
         <v>1.8</v>
@@ -9352,7 +9352,7 @@
         <v>1.41</v>
       </c>
       <c r="U66" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V66" t="n">
         <v>1.27</v>
@@ -9448,13 +9448,13 @@
         <v>3.05</v>
       </c>
       <c r="H67" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I67" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J67" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K67" t="n">
         <v>3.65</v>
@@ -9469,7 +9469,7 @@
         <v>1.96</v>
       </c>
       <c r="O67" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="P67" t="n">
         <v>1.96</v>
@@ -9478,70 +9478,70 @@
         <v>1.91</v>
       </c>
       <c r="R67" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S67" t="n">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="T67" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="U67" t="n">
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W67" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
       </c>
       <c r="Y67" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z67" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA67" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB67" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC67" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD67" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE67" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF67" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG67" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH67" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI67" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ67" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK67" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL67" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM67" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN67" t="n">
         <v>1000</v>
@@ -9580,7 +9580,7 @@
         <v>1.24</v>
       </c>
       <c r="G68" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H68" t="n">
         <v>15.5</v>
@@ -9589,7 +9589,7 @@
         <v>22</v>
       </c>
       <c r="J68" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="K68" t="n">
         <v>7.2</v>
@@ -9613,10 +9613,10 @@
         <v>1.71</v>
       </c>
       <c r="R68" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S68" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T68" t="n">
         <v>2.36</v>
@@ -9628,7 +9628,7 @@
         <v>1.04</v>
       </c>
       <c r="W68" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="X68" t="n">
         <v>25</v>
@@ -9643,7 +9643,7 @@
         <v>1000</v>
       </c>
       <c r="AB68" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC68" t="n">
         <v>18</v>
@@ -9715,7 +9715,7 @@
         <v>1.04</v>
       </c>
       <c r="G69" t="n">
-        <v>1.41</v>
+        <v>2.18</v>
       </c>
       <c r="H69" t="n">
         <v>1.04</v>
@@ -9724,7 +9724,7 @@
         <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K69" t="n">
         <v>970</v>
@@ -9847,46 +9847,46 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.48</v>
+        <v>1.35</v>
       </c>
       <c r="G70" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="H70" t="n">
-        <v>2.8</v>
+        <v>1.67</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J70" t="n">
-        <v>3.6</v>
+        <v>1.19</v>
       </c>
       <c r="K70" t="n">
-        <v>4.2</v>
+        <v>970</v>
       </c>
       <c r="L70" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M70" t="n">
         <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>3.75</v>
+        <v>1.34</v>
       </c>
       <c r="O70" t="n">
         <v>1.3</v>
       </c>
       <c r="P70" t="n">
-        <v>1.95</v>
+        <v>1.34</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="R70" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S70" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9895,10 +9895,10 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W70" t="n">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -10003,25 +10003,25 @@
         <v>1.37</v>
       </c>
       <c r="M71" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="O71" t="n">
         <v>1.28</v>
       </c>
       <c r="P71" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R71" t="n">
         <v>1.33</v>
       </c>
       <c r="S71" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T71" t="n">
         <v>1.01</v>
@@ -10153,7 +10153,7 @@
         <v>1.81</v>
       </c>
       <c r="R72" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S72" t="n">
         <v>1.81</v>
@@ -10255,7 +10255,7 @@
         <v>1.98</v>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H73" t="n">
         <v>3.45</v>
@@ -10285,7 +10285,7 @@
         <v>1.84</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R73" t="n">
         <v>1.31</v>
@@ -10303,7 +10303,7 @@
         <v>1.25</v>
       </c>
       <c r="W73" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="G74" t="n">
-        <v>1.32</v>
+        <v>1000</v>
       </c>
       <c r="H74" t="n">
-        <v>12</v>
+        <v>1.04</v>
       </c>
       <c r="I74" t="n">
         <v>1000</v>
       </c>
       <c r="J74" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="K74" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10411,22 +10411,22 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="O74" t="n">
         <v>1.15</v>
       </c>
       <c r="P74" t="n">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="R74" t="n">
-        <v>1.51</v>
+        <v>1.18</v>
       </c>
       <c r="S74" t="n">
-        <v>2.06</v>
+        <v>1.15</v>
       </c>
       <c r="T74" t="n">
         <v>1.01</v>
@@ -10438,7 +10438,7 @@
         <v>1.01</v>
       </c>
       <c r="W74" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10522,10 +10522,10 @@
         </is>
       </c>
       <c r="F75" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G75" t="n">
         <v>1.52</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.54</v>
       </c>
       <c r="H75" t="n">
         <v>6.8</v>
@@ -10537,10 +10537,10 @@
         <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L75" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M75" t="n">
         <v>1.04</v>
@@ -10558,13 +10558,13 @@
         <v>1.56</v>
       </c>
       <c r="R75" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S75" t="n">
         <v>2.36</v>
       </c>
       <c r="T75" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U75" t="n">
         <v>2.26</v>
@@ -10573,7 +10573,7 @@
         <v>1.16</v>
       </c>
       <c r="W75" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X75" t="n">
         <v>27</v>
@@ -10582,13 +10582,13 @@
         <v>32</v>
       </c>
       <c r="Z75" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA75" t="n">
         <v>180</v>
       </c>
       <c r="AB75" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC75" t="n">
         <v>11.5</v>
@@ -10606,13 +10606,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH75" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI75" t="n">
         <v>70</v>
       </c>
       <c r="AJ75" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK75" t="n">
         <v>14</v>
@@ -10678,7 +10678,7 @@
         <v>1.39</v>
       </c>
       <c r="M76" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N76" t="n">
         <v>3.9</v>
@@ -10687,7 +10687,7 @@
         <v>1.31</v>
       </c>
       <c r="P76" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q76" t="n">
         <v>1.94</v>
@@ -10714,13 +10714,13 @@
         <v>15.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z76" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AA76" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB76" t="n">
         <v>17</v>
@@ -10729,40 +10729,40 @@
         <v>8.6</v>
       </c>
       <c r="AD76" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AF76" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG76" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AH76" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI76" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ76" t="n">
         <v>140</v>
       </c>
       <c r="AK76" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM76" t="n">
         <v>130</v>
       </c>
       <c r="AN76" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AO76" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="77">
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G77" t="n">
         <v>1.78</v>
       </c>
-      <c r="G77" t="n">
-        <v>1.81</v>
-      </c>
       <c r="H77" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J77" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L77" t="n">
         <v>1.37</v>
@@ -10831,46 +10831,46 @@
         <v>1.43</v>
       </c>
       <c r="S77" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T77" t="n">
         <v>1.8</v>
       </c>
       <c r="U77" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V77" t="n">
         <v>1.23</v>
       </c>
       <c r="W77" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="X77" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y77" t="n">
         <v>19</v>
       </c>
       <c r="Z77" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA77" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB77" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC77" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD77" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF77" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG77" t="n">
         <v>9.6</v>
@@ -10879,25 +10879,25 @@
         <v>19</v>
       </c>
       <c r="AI77" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ77" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK77" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL77" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM77" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN77" t="n">
         <v>10.5</v>
       </c>
       <c r="AO77" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78">
@@ -10930,19 +10930,19 @@
         <v>4</v>
       </c>
       <c r="G78" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="I78" t="n">
         <v>2.02</v>
       </c>
       <c r="J78" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K78" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
@@ -10957,16 +10957,16 @@
         <v>1.25</v>
       </c>
       <c r="P78" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q78" t="n">
         <v>1.64</v>
       </c>
       <c r="R78" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="S78" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="T78" t="n">
         <v>1.01</v>
@@ -10978,52 +10978,52 @@
         <v>1.98</v>
       </c>
       <c r="W78" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="X78" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y78" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z78" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA78" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB78" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC78" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD78" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE78" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF78" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG78" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH78" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI78" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ78" t="n">
         <v>1000</v>
       </c>
       <c r="AK78" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL78" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM78" t="n">
         <v>1000</v>
@@ -11062,19 +11062,19 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.88</v>
+        <v>1.04</v>
       </c>
       <c r="G79" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="H79" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I79" t="n">
         <v>1000</v>
       </c>
       <c r="J79" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="K79" t="n">
         <v>1000</v>
@@ -11086,22 +11086,22 @@
         <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="O79" t="n">
         <v>1.01</v>
       </c>
       <c r="P79" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="R79" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S79" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="T79" t="n">
         <v>1.01</v>
@@ -11113,7 +11113,7 @@
         <v>1.01</v>
       </c>
       <c r="W79" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -11332,19 +11332,19 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G81" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H81" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I81" t="n">
         <v>18</v>
       </c>
       <c r="J81" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="K81" t="n">
         <v>7.6</v>
@@ -11365,31 +11365,31 @@
         <v>2.18</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R81" t="n">
         <v>1.38</v>
       </c>
       <c r="S81" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T81" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U81" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="V81" t="n">
         <v>1.06</v>
       </c>
       <c r="W81" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="X81" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y81" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z81" t="n">
         <v>1000</v>
@@ -11398,37 +11398,37 @@
         <v>1000</v>
       </c>
       <c r="AB81" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC81" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD81" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE81" t="n">
         <v>1000</v>
       </c>
       <c r="AF81" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG81" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH81" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI81" t="n">
         <v>1000</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK81" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL81" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM81" t="n">
         <v>1000</v>
@@ -11488,10 +11488,10 @@
         <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O82" t="n">
         <v>1.22</v>
@@ -11506,7 +11506,7 @@
         <v>1.39</v>
       </c>
       <c r="S82" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T82" t="n">
         <v>1.01</v>
@@ -11611,7 +11611,7 @@
         <v>32</v>
       </c>
       <c r="I83" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J83" t="n">
         <v>13</v>
@@ -11620,7 +11620,7 @@
         <v>14</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="M83" t="n">
         <v>1.01</v>
@@ -11638,22 +11638,22 @@
         <v>1.23</v>
       </c>
       <c r="R83" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="S83" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T83" t="n">
         <v>2.08</v>
       </c>
       <c r="U83" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X83" t="n">
         <v>85</v>
@@ -11662,13 +11662,13 @@
         <v>1000</v>
       </c>
       <c r="Z83" t="n">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="AA83" t="n">
         <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC83" t="n">
         <v>34</v>
@@ -11677,13 +11677,13 @@
         <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="AF83" t="n">
         <v>11.5</v>
       </c>
       <c r="AG83" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH83" t="n">
         <v>55</v>
@@ -11692,19 +11692,19 @@
         <v>1000</v>
       </c>
       <c r="AJ83" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK83" t="n">
         <v>14</v>
       </c>
       <c r="AL83" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM83" t="n">
         <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="AO83" t="n">
         <v>1000</v>
@@ -11740,10 +11740,10 @@
         <v>2.08</v>
       </c>
       <c r="G84" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I84" t="n">
         <v>4.1</v>
@@ -11752,28 +11752,28 @@
         <v>3.65</v>
       </c>
       <c r="K84" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L84" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M84" t="n">
         <v>1.07</v>
       </c>
       <c r="N84" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O84" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P84" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R84" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S84" t="n">
         <v>3.35</v>
@@ -11782,7 +11782,7 @@
         <v>1.78</v>
       </c>
       <c r="U84" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V84" t="n">
         <v>1.32</v>
@@ -11791,7 +11791,7 @@
         <v>1.9</v>
       </c>
       <c r="X84" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y84" t="n">
         <v>15.5</v>
@@ -11803,13 +11803,13 @@
         <v>80</v>
       </c>
       <c r="AB84" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC84" t="n">
         <v>8</v>
       </c>
       <c r="AD84" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE84" t="n">
         <v>44</v>
@@ -11827,7 +11827,7 @@
         <v>55</v>
       </c>
       <c r="AJ84" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK84" t="n">
         <v>21</v>
@@ -11884,100 +11884,100 @@
         <v>1000</v>
       </c>
       <c r="J85" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K85" t="n">
         <v>1000</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P85" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO85" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86">
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="G86" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="H86" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="I86" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J86" t="n">
-        <v>2.98</v>
+        <v>1.02</v>
       </c>
       <c r="K86" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12037,16 +12037,16 @@
         <v>1.47</v>
       </c>
       <c r="P86" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.36</v>
+        <v>1.47</v>
       </c>
       <c r="R86" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>2.36</v>
+        <v>1.47</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12055,10 +12055,10 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W86" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G87" t="n">
         <v>34</v>
@@ -12160,10 +12160,10 @@
         <v>10</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N87" t="n">
         <v>4.8</v>
@@ -12178,76 +12178,76 @@
         <v>1.6</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AI87" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="AN87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO87" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="88">
@@ -12277,112 +12277,112 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="G88" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="H88" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="I88" t="n">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="J88" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="K88" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="O88" t="n">
         <v>1.01</v>
       </c>
       <c r="P88" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q88" t="n">
         <v>1.02</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89">
@@ -12415,7 +12415,7 @@
         <v>7</v>
       </c>
       <c r="G89" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H89" t="n">
         <v>1.58</v>
@@ -12430,7 +12430,7 @@
         <v>4.4</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M89" t="n">
         <v>1.07</v>
@@ -12451,7 +12451,7 @@
         <v>1.34</v>
       </c>
       <c r="S89" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T89" t="n">
         <v>2.14</v>
@@ -12460,19 +12460,19 @@
         <v>1.82</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X89" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y89" t="n">
         <v>7.6</v>
       </c>
       <c r="Z89" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA89" t="n">
         <v>14</v>
@@ -12481,40 +12481,40 @@
         <v>21</v>
       </c>
       <c r="AC89" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD89" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD89" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE89" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF89" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG89" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH89" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI89" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ89" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AK89" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL89" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AM89" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AN89" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="AO89" t="n">
         <v>9.6</v>
@@ -12556,25 +12556,25 @@
         <v>3.55</v>
       </c>
       <c r="I90" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K90" t="n">
         <v>4.8</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N90" t="n">
         <v>5.7</v>
       </c>
       <c r="O90" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P90" t="n">
         <v>2.6</v>
@@ -12583,76 +12583,76 @@
         <v>1.49</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W90" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
@@ -12682,34 +12682,34 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G91" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I91" t="n">
         <v>2.94</v>
       </c>
       <c r="J91" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K91" t="n">
         <v>3.85</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P91" t="n">
         <v>2.24</v>
@@ -12718,76 +12718,76 @@
         <v>1.74</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X91" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA91" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE91" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF91" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI91" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ91" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK91" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL91" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM91" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN91" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO91" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
@@ -12817,13 +12817,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H92" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I92" t="n">
         <v>3.9</v>
@@ -12835,94 +12835,94 @@
         <v>3.6</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P92" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q92" t="n">
         <v>1.87</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z92" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA92" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE92" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF92" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG92" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH92" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ92" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL92" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -12952,112 +12952,112 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G93" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I93" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J93" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K93" t="n">
         <v>4.7</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P93" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q93" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U93" t="n">
         <v>1.83</v>
       </c>
-      <c r="R93" t="n">
-        <v>0</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0</v>
-      </c>
-      <c r="T93" t="n">
-        <v>0</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0</v>
-      </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="94">
@@ -13087,25 +13087,25 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G94" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I94" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J94" t="n">
         <v>4.6</v>
       </c>
       <c r="K94" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M94" t="n">
         <v>1.04</v>
@@ -13117,37 +13117,37 @@
         <v>1.22</v>
       </c>
       <c r="P94" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R94" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S94" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T94" t="n">
         <v>1.69</v>
       </c>
       <c r="U94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V94" t="n">
         <v>2.36</v>
       </c>
-      <c r="V94" t="n">
-        <v>0</v>
-      </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X94" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y94" t="n">
         <v>11.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA94" t="n">
         <v>18</v>
@@ -13156,28 +13156,28 @@
         <v>22</v>
       </c>
       <c r="AC94" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE94" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG94" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH94" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI94" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ94" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK94" t="n">
         <v>55</v>
@@ -13186,10 +13186,10 @@
         <v>55</v>
       </c>
       <c r="AM94" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AN94" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO94" t="n">
         <v>7.8</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G95" t="n">
         <v>1.94</v>
@@ -13240,16 +13240,16 @@
         <v>3.85</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P95" t="n">
         <v>1.65</v>
@@ -13258,76 +13258,76 @@
         <v>2.26</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z95" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB95" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF95" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG95" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ95" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK95" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL95" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO95" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96">
@@ -13357,112 +13357,112 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G96" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="H96" t="n">
-        <v>2.58</v>
+        <v>1.04</v>
       </c>
       <c r="I96" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J96" t="n">
-        <v>2.58</v>
+        <v>1.02</v>
       </c>
       <c r="K96" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N96" t="n">
-        <v>3.9</v>
+        <v>1.44</v>
       </c>
       <c r="O96" t="n">
         <v>1.28</v>
       </c>
       <c r="P96" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO96" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97">
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G97" t="n">
         <v>12</v>
@@ -13504,22 +13504,22 @@
         <v>1.38</v>
       </c>
       <c r="J97" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K97" t="n">
         <v>5.7</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P97" t="n">
         <v>2.06</v>
@@ -13528,76 +13528,76 @@
         <v>1.83</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO97" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98">
@@ -13630,25 +13630,25 @@
         <v>3.15</v>
       </c>
       <c r="G98" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K98" t="n">
         <v>3.95</v>
       </c>
-      <c r="H98" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K98" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N98" t="n">
         <v>2.92</v>
@@ -13663,76 +13663,76 @@
         <v>2.24</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO98" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99">
@@ -13768,22 +13768,22 @@
         <v>10.5</v>
       </c>
       <c r="H99" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I99" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="J99" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K99" t="n">
         <v>4.9</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N99" t="n">
         <v>3.35</v>
@@ -13798,76 +13798,76 @@
         <v>2.02</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X99" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y99" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z99" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA99" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD99" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF99" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG99" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH99" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI99" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ99" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="AK99" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AL99" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AM99" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AN99" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AO99" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -13909,16 +13909,16 @@
         <v>1.61</v>
       </c>
       <c r="J100" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K100" t="n">
         <v>6.2</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N100" t="n">
         <v>4.9</v>
@@ -13933,76 +13933,76 @@
         <v>1.59</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO100" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="101">
@@ -14032,28 +14032,28 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H101" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I101" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J101" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K101" t="n">
         <v>5.1</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N101" t="n">
         <v>4.8</v>
@@ -14062,82 +14062,82 @@
         <v>1.17</v>
       </c>
       <c r="P101" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO101" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102">
@@ -14173,7 +14173,7 @@
         <v>3.05</v>
       </c>
       <c r="H102" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I102" t="n">
         <v>2.42</v>
@@ -14185,7 +14185,7 @@
         <v>4.1</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M102" t="n">
         <v>1.04</v>
@@ -14215,10 +14215,10 @@
         <v>2.74</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X102" t="n">
         <v>26</v>
@@ -14305,19 +14305,19 @@
         <v>4.1</v>
       </c>
       <c r="G103" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="H103" t="n">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="I103" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="J103" t="n">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="K103" t="n">
-        <v>6.6</v>
+        <v>970</v>
       </c>
       <c r="L103" t="n">
         <v>1.01</v>
@@ -14335,7 +14335,7 @@
         <v>1.65</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R103" t="n">
         <v>1.24</v>
@@ -14350,10 +14350,10 @@
         <v>1.01</v>
       </c>
       <c r="V103" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="W103" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X103" t="n">
         <v>1000</v>
@@ -14437,19 +14437,19 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="G104" t="n">
-        <v>1.43</v>
+        <v>970</v>
       </c>
       <c r="H104" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I104" t="n">
         <v>1000</v>
       </c>
       <c r="J104" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="K104" t="n">
         <v>1000</v>
@@ -14461,13 +14461,13 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="O104" t="n">
         <v>1.25</v>
       </c>
       <c r="P104" t="n">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="Q104" t="n">
         <v>1.25</v>
@@ -14572,22 +14572,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G105" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I105" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J105" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K105" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14602,10 +14602,10 @@
         <v>1.37</v>
       </c>
       <c r="P105" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14716,7 +14716,7 @@
         <v>2.28</v>
       </c>
       <c r="I106" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J106" t="n">
         <v>3.5</v>
@@ -14740,7 +14740,7 @@
         <v>1.69</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14842,19 +14842,19 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="G107" t="n">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="H107" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="I107" t="n">
         <v>1000</v>
       </c>
       <c r="J107" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="K107" t="n">
         <v>1000</v>
@@ -14866,16 +14866,16 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>2.62</v>
+        <v>1.44</v>
       </c>
       <c r="O107" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="P107" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -15013,7 +15013,7 @@
         <v>1.54</v>
       </c>
       <c r="R108" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S108" t="n">
         <v>2.32</v>
@@ -15031,58 +15031,58 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y108" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z108" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AA108" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB108" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC108" t="n">
         <v>10.5</v>
       </c>
       <c r="AD108" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH108" t="n">
         <v>18</v>
       </c>
-      <c r="AE108" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI108" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ108" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AK108" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL108" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM108" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN108" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AO108" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -15118,10 +15118,10 @@
         <v>3.1</v>
       </c>
       <c r="H109" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I109" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J109" t="n">
         <v>3.2</v>
@@ -15136,13 +15136,13 @@
         <v>1.1</v>
       </c>
       <c r="N109" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O109" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P109" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q109" t="n">
         <v>2.34</v>
@@ -15157,7 +15157,7 @@
         <v>1.95</v>
       </c>
       <c r="U109" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V109" t="n">
         <v>0</v>
@@ -15178,7 +15178,7 @@
         <v>44</v>
       </c>
       <c r="AB109" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC109" t="n">
         <v>7</v>
@@ -15199,19 +15199,19 @@
         <v>19.5</v>
       </c>
       <c r="AI109" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ109" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK109" t="n">
         <v>40</v>
       </c>
       <c r="AL109" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM109" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN109" t="n">
         <v>42</v>
@@ -15259,7 +15259,7 @@
         <v>1.77</v>
       </c>
       <c r="J110" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K110" t="n">
         <v>4</v>
@@ -15280,7 +15280,7 @@
         <v>2.06</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R110" t="n">
         <v>1.42</v>
@@ -15289,7 +15289,7 @@
         <v>3.2</v>
       </c>
       <c r="T110" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U110" t="n">
         <v>2.06</v>
@@ -15316,7 +15316,7 @@
         <v>18.5</v>
       </c>
       <c r="AC110" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD110" t="n">
         <v>11</v>
@@ -15334,7 +15334,7 @@
         <v>19.5</v>
       </c>
       <c r="AI110" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ110" t="n">
         <v>170</v>
@@ -15349,10 +15349,10 @@
         <v>110</v>
       </c>
       <c r="AN110" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO110" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
@@ -15382,22 +15382,22 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="G111" t="n">
         <v>3.15</v>
       </c>
       <c r="H111" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I111" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J111" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K111" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -15412,7 +15412,7 @@
         <v>1.57</v>
       </c>
       <c r="P111" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q111" t="n">
         <v>2.68</v>
@@ -15799,7 +15799,7 @@
         <v>1.81</v>
       </c>
       <c r="J114" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K114" t="n">
         <v>5</v>
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="G115" t="n">
         <v>2.68</v>
@@ -15931,13 +15931,13 @@
         <v>2.72</v>
       </c>
       <c r="I115" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J115" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K115" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
@@ -673,13 +673,13 @@
         <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -709,22 +709,22 @@
         <v>1.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
         <v>1.72</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
         <v>38</v>
@@ -733,46 +733,46 @@
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -841,7 +841,7 @@
         <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.73</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>2.78</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -985,10 +985,10 @@
         <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="n">
         <v>2.9</v>
@@ -1084,7 +1084,7 @@
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
         <v>2.92</v>
@@ -1219,22 +1219,22 @@
         <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
         <v>1.78</v>
@@ -1246,7 +1246,7 @@
         <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
         <v>1.79</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2.74</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.21</v>
+        <v>2.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1657,7 +1657,7 @@
         <v>1.54</v>
       </c>
       <c r="U9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V9" t="n">
         <v>1.67</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.46</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.47</v>
-      </c>
       <c r="H11" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
         <v>9.199999999999999</v>
@@ -1915,7 +1915,7 @@
         <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R11" t="n">
         <v>1.4</v>
@@ -1933,7 +1933,7 @@
         <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X11" t="n">
         <v>17</v>
@@ -1948,7 +1948,7 @@
         <v>330</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
         <v>10.5</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
         <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
@@ -2047,7 +2047,7 @@
         <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
         <v>1.66</v>
@@ -2152,103 +2152,103 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="H13" t="n">
-        <v>1.09</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.09</v>
+        <v>2.72</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>1.48</v>
+        <v>2.16</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2320,10 +2320,10 @@
         <v>2.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
         <v>2.4</v>
@@ -2695,13 +2695,13 @@
         <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
         <v>2.84</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
         <v>2.74</v>
@@ -2710,28 +2710,28 @@
         <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.11</v>
+        <v>1.54</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.11</v>
+        <v>1.54</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
         <v>1.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2743,7 +2743,7 @@
         <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="J19" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>1000</v>
@@ -2986,34 +2986,34 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.46</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S19" t="n">
-        <v>1.2</v>
+        <v>2.26</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U19" t="n">
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H20" t="n">
         <v>5.7</v>
@@ -3109,13 +3109,13 @@
         <v>6.8</v>
       </c>
       <c r="J20" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3127,13 +3127,13 @@
         <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
         <v>2.36</v>
@@ -3145,13 +3145,13 @@
         <v>2.24</v>
       </c>
       <c r="V20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W20" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
         <v>28</v>
@@ -3163,10 +3163,10 @@
         <v>170</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
         <v>24</v>
@@ -3178,7 +3178,7 @@
         <v>12.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
         <v>19.5</v>
@@ -3190,13 +3190,13 @@
         <v>16.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
         <v>6.6</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="G21" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.85</v>
@@ -3256,37 +3256,37 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="O21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.3</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
         <v>1.89</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
         <v>2.12</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
         <v>24</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G22" t="n">
         <v>1.73</v>
       </c>
       <c r="H22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
@@ -3409,7 +3409,7 @@
         <v>2.68</v>
       </c>
       <c r="T22" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
         <v>2.2</v>
@@ -3427,7 +3427,7 @@
         <v>26</v>
       </c>
       <c r="Z22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA22" t="n">
         <v>160</v>
@@ -3436,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
         <v>25</v>
@@ -3463,10 +3463,10 @@
         <v>17.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
         <v>8.6</v>
@@ -3526,7 +3526,7 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O23" t="n">
         <v>1.45</v>
@@ -3556,7 +3556,7 @@
         <v>1.98</v>
       </c>
       <c r="X23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.34</v>
+        <v>1.84</v>
       </c>
       <c r="O24" t="n">
         <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>1.34</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>1.28</v>
+        <v>2.68</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G25" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3808,70 +3808,70 @@
         <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G26" t="n">
         <v>1.89</v>
@@ -3931,13 +3931,13 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>2.84</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>1.14</v>
       </c>
       <c r="P26" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q26" t="n">
         <v>1.46</v>
@@ -3946,13 +3946,13 @@
         <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.46</v>
+        <v>1.98</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="V26" t="n">
         <v>1.28</v>
@@ -4060,7 +4060,7 @@
         <v>7.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -4195,7 +4195,7 @@
         <v>5.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -4321,7 +4321,7 @@
         <v>2.64</v>
       </c>
       <c r="I29" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="J29" t="n">
         <v>2.82</v>
@@ -4336,22 +4336,22 @@
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O29" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="T29" t="n">
         <v>2.12</v>
@@ -4360,13 +4360,13 @@
         <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W29" t="n">
         <v>1.41</v>
       </c>
       <c r="X29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y29" t="n">
         <v>9.199999999999999</v>
@@ -4447,94 +4447,94 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="J30" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.1</v>
+        <v>1.58</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R30" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="H31" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
         <v>16</v>
@@ -4993,7 +4993,7 @@
         <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I34" t="n">
         <v>2.36</v>
@@ -5023,16 +5023,16 @@
         <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S34" t="n">
         <v>3.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V34" t="n">
         <v>1.73</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="G35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.96</v>
+        <v>2.64</v>
       </c>
       <c r="K35" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5146,16 +5146,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2.76</v>
+        <v>1.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="P35" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5266,16 +5266,16 @@
         <v>8.4</v>
       </c>
       <c r="I36" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J36" t="n">
         <v>4.9</v>
       </c>
       <c r="K36" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -5323,10 +5323,10 @@
         <v>280</v>
       </c>
       <c r="AB36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD36" t="n">
         <v>38</v>
@@ -5335,10 +5335,10 @@
         <v>130</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
         <v>25</v>
@@ -5359,7 +5359,7 @@
         <v>110</v>
       </c>
       <c r="AN36" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AO36" t="n">
         <v>120</v>
@@ -5395,13 +5395,13 @@
         <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I37" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="J37" t="n">
         <v>3.85</v>
@@ -5410,25 +5410,25 @@
         <v>4.3</v>
       </c>
       <c r="L37" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O37" t="n">
         <v>1.18</v>
       </c>
       <c r="P37" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="R37" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S37" t="n">
         <v>2.36</v>
@@ -5437,13 +5437,13 @@
         <v>1.43</v>
       </c>
       <c r="U37" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="V37" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="W37" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X37" t="n">
         <v>32</v>
@@ -5665,16 +5665,16 @@
         <v>1.79</v>
       </c>
       <c r="G39" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
         <v>4.2</v>
       </c>
       <c r="I39" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K39" t="n">
         <v>4.5</v>
@@ -5692,10 +5692,10 @@
         <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="G40" t="n">
         <v>2.04</v>
@@ -5815,7 +5815,7 @@
         <v>3.7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M40" t="n">
         <v>1.09</v>
@@ -5824,7 +5824,7 @@
         <v>2.92</v>
       </c>
       <c r="O40" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P40" t="n">
         <v>1.67</v>
@@ -5839,10 +5839,10 @@
         <v>4.3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U40" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V40" t="n">
         <v>1.23</v>
@@ -5896,7 +5896,7 @@
         <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN40" t="n">
         <v>21</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.04</v>
+        <v>5.7</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.02</v>
+        <v>4.4</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,22 +5956,22 @@
         <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>1.61</v>
+        <v>2.32</v>
       </c>
       <c r="O41" t="n">
         <v>1.15</v>
       </c>
       <c r="P41" t="n">
-        <v>1.61</v>
+        <v>2.32</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="R41" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="S41" t="n">
-        <v>1.15</v>
+        <v>2.06</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -5980,16 +5980,16 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
@@ -5998,37 +5998,37 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="n">
         <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
@@ -6244,7 +6244,7 @@
         <v>3.85</v>
       </c>
       <c r="T43" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U43" t="n">
         <v>2</v>
@@ -6259,22 +6259,22 @@
         <v>13.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z43" t="n">
         <v>19.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE43" t="n">
         <v>38</v>
@@ -6292,7 +6292,7 @@
         <v>60</v>
       </c>
       <c r="AJ43" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK43" t="n">
         <v>55</v>
@@ -6340,13 +6340,13 @@
         <v>1.84</v>
       </c>
       <c r="G44" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>4.3</v>
       </c>
       <c r="I44" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
         <v>3.5</v>
@@ -6385,10 +6385,10 @@
         <v>1.84</v>
       </c>
       <c r="V44" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W44" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
         <v>17</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G45" t="n">
         <v>2.9</v>
@@ -6688,7 +6688,7 @@
         <v>36</v>
       </c>
       <c r="AG46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH46" t="n">
         <v>25</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>4.6</v>
       </c>
       <c r="I47" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K47" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.65</v>
       </c>
       <c r="L47" t="n">
         <v>1.48</v>
@@ -6775,7 +6775,7 @@
         <v>1.71</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R47" t="n">
         <v>1.26</v>
@@ -6790,10 +6790,10 @@
         <v>1.86</v>
       </c>
       <c r="V47" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W47" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X47" t="n">
         <v>10.5</v>
@@ -6835,7 +6835,7 @@
         <v>22</v>
       </c>
       <c r="AK47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL47" t="n">
         <v>48</v>
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H48" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I48" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J48" t="n">
         <v>3.7</v>
@@ -6925,10 +6925,10 @@
         <v>2.24</v>
       </c>
       <c r="V48" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W48" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X48" t="n">
         <v>15</v>
@@ -6982,7 +6982,7 @@
         <v>42</v>
       </c>
       <c r="AO48" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="49">
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G49" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H49" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J49" t="n">
         <v>3.45</v>
@@ -7042,13 +7042,13 @@
         <v>1.35</v>
       </c>
       <c r="P49" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S49" t="n">
         <v>3.7</v>
@@ -7060,7 +7060,7 @@
         <v>2.16</v>
       </c>
       <c r="V49" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W49" t="n">
         <v>1.6</v>
@@ -7072,7 +7072,7 @@
         <v>11.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA49" t="n">
         <v>48</v>
@@ -7084,7 +7084,7 @@
         <v>7.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE49" t="n">
         <v>34</v>
@@ -7153,10 +7153,10 @@
         <v>4.3</v>
       </c>
       <c r="H50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I50" t="n">
         <v>1.92</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.94</v>
       </c>
       <c r="J50" t="n">
         <v>4.1</v>
@@ -7177,7 +7177,7 @@
         <v>1.24</v>
       </c>
       <c r="P50" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q50" t="n">
         <v>1.71</v>
@@ -7195,7 +7195,7 @@
         <v>2.4</v>
       </c>
       <c r="V50" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W50" t="n">
         <v>1.3</v>
@@ -7240,7 +7240,7 @@
         <v>85</v>
       </c>
       <c r="AK50" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="n">
         <v>48</v>
@@ -7285,10 +7285,10 @@
         <v>3.5</v>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H51" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I51" t="n">
         <v>2.36</v>
@@ -7300,7 +7300,7 @@
         <v>3.45</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7315,7 +7315,7 @@
         <v>1.89</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R51" t="n">
         <v>1.34</v>
@@ -7330,10 +7330,10 @@
         <v>2.16</v>
       </c>
       <c r="V51" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X51" t="n">
         <v>12.5</v>
@@ -7435,7 +7435,7 @@
         <v>6.4</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M52" t="n">
         <v>1.01</v>
@@ -7558,19 +7558,19 @@
         <v>1.65</v>
       </c>
       <c r="H53" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J53" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K53" t="n">
         <v>4.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M53" t="n">
         <v>1.07</v>
@@ -7594,16 +7594,16 @@
         <v>3.5</v>
       </c>
       <c r="T53" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U53" t="n">
         <v>1.92</v>
       </c>
       <c r="V53" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W53" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X53" t="n">
         <v>15.5</v>
@@ -7624,7 +7624,7 @@
         <v>9.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE53" t="n">
         <v>120</v>
@@ -8095,10 +8095,10 @@
         <v>3.1</v>
       </c>
       <c r="G57" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H57" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I57" t="n">
         <v>2.94</v>
@@ -8143,7 +8143,7 @@
         <v>1.51</v>
       </c>
       <c r="W57" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8272,7 +8272,7 @@
         <v>1.01</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="V58" t="n">
         <v>1.04</v>
@@ -8395,7 +8395,7 @@
         <v>1.9</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R59" t="n">
         <v>1.29</v>
@@ -8404,10 +8404,10 @@
         <v>2.96</v>
       </c>
       <c r="T59" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V59" t="n">
         <v>1.23</v>
@@ -8497,16 +8497,16 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G60" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>2.78</v>
       </c>
       <c r="I60" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J60" t="n">
         <v>3.25</v>
@@ -8521,10 +8521,10 @@
         <v>1.09</v>
       </c>
       <c r="N60" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O60" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P60" t="n">
         <v>1.75</v>
@@ -8575,7 +8575,7 @@
         <v>34</v>
       </c>
       <c r="AF60" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG60" t="n">
         <v>13</v>
@@ -8587,7 +8587,7 @@
         <v>55</v>
       </c>
       <c r="AJ60" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK60" t="n">
         <v>36</v>
@@ -8677,7 +8677,7 @@
         <v>1.71</v>
       </c>
       <c r="U61" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V61" t="n">
         <v>1.27</v>
@@ -8734,7 +8734,7 @@
         <v>1000</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO61" t="n">
         <v>1000</v>
@@ -8767,22 +8767,22 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="G62" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="H62" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="I62" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="J62" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K62" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
@@ -8791,34 +8791,34 @@
         <v>1.03</v>
       </c>
       <c r="N62" t="n">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="O62" t="n">
         <v>1.19</v>
       </c>
       <c r="P62" t="n">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.19</v>
+        <v>1.51</v>
       </c>
       <c r="R62" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="S62" t="n">
-        <v>1.19</v>
+        <v>2.26</v>
       </c>
       <c r="T62" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="U62" t="n">
         <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="W62" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X62" t="n">
         <v>1000</v>
@@ -8905,19 +8905,19 @@
         <v>7</v>
       </c>
       <c r="G63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H63" t="n">
         <v>1.42</v>
       </c>
       <c r="I63" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J63" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K63" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L63" t="n">
         <v>1.4</v>
@@ -8944,16 +8944,16 @@
         <v>3.1</v>
       </c>
       <c r="T63" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="U63" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V63" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W63" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9061,7 +9061,7 @@
         <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
@@ -9076,13 +9076,13 @@
         <v>1.37</v>
       </c>
       <c r="S64" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T64" t="n">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="U64" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="V64" t="n">
         <v>1.25</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G65" t="n">
         <v>2.36</v>
@@ -9187,7 +9187,7 @@
         <v>3.65</v>
       </c>
       <c r="K65" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L65" t="n">
         <v>1.01</v>
@@ -9220,10 +9220,10 @@
         <v>2.16</v>
       </c>
       <c r="V65" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W65" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X65" t="n">
         <v>1000</v>
@@ -9307,13 +9307,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H66" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I66" t="n">
         <v>4.8</v>
@@ -9331,7 +9331,7 @@
         <v>1.02</v>
       </c>
       <c r="N66" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="O66" t="n">
         <v>1.12</v>
@@ -9340,25 +9340,25 @@
         <v>3.2</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R66" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S66" t="n">
         <v>1.85</v>
       </c>
       <c r="T66" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="U66" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="V66" t="n">
         <v>1.27</v>
       </c>
       <c r="W66" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X66" t="n">
         <v>1000</v>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="G67" t="n">
         <v>3.05</v>
@@ -9466,82 +9466,82 @@
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="P67" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R67" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S67" t="n">
-        <v>1.91</v>
+        <v>2.84</v>
       </c>
       <c r="T67" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U67" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V67" t="n">
         <v>1.56</v>
       </c>
       <c r="W67" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X67" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y67" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA67" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB67" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD67" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE67" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF67" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG67" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH67" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI67" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK67" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL67" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM67" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN67" t="n">
         <v>1000</v>
@@ -9580,7 +9580,7 @@
         <v>1.24</v>
       </c>
       <c r="G68" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="H68" t="n">
         <v>15.5</v>
@@ -9589,7 +9589,7 @@
         <v>22</v>
       </c>
       <c r="J68" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="K68" t="n">
         <v>7.2</v>
@@ -9610,13 +9610,13 @@
         <v>2.12</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R68" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S68" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T68" t="n">
         <v>2.36</v>
@@ -9715,7 +9715,7 @@
         <v>1.04</v>
       </c>
       <c r="G69" t="n">
-        <v>2.18</v>
+        <v>1.51</v>
       </c>
       <c r="H69" t="n">
         <v>1.04</v>
@@ -9763,7 +9763,7 @@
         <v>1.01</v>
       </c>
       <c r="W69" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="X69" t="n">
         <v>1000</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.35</v>
+        <v>2.22</v>
       </c>
       <c r="G70" t="n">
-        <v>1000</v>
+        <v>2.78</v>
       </c>
       <c r="H70" t="n">
-        <v>1.67</v>
+        <v>2.94</v>
       </c>
       <c r="I70" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="J70" t="n">
-        <v>1.19</v>
+        <v>3.3</v>
       </c>
       <c r="K70" t="n">
-        <v>970</v>
+        <v>4.8</v>
       </c>
       <c r="L70" t="n">
         <v>1.01</v>
@@ -9871,34 +9871,34 @@
         <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>1.34</v>
+        <v>1.79</v>
       </c>
       <c r="O70" t="n">
         <v>1.3</v>
       </c>
       <c r="P70" t="n">
-        <v>1.34</v>
+        <v>1.79</v>
       </c>
       <c r="Q70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R70" t="n">
         <v>1.3</v>
       </c>
-      <c r="R70" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S70" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="T70" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U70" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V70" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W70" t="n">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -10006,13 +10006,13 @@
         <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="O71" t="n">
         <v>1.28</v>
       </c>
       <c r="P71" t="n">
-        <v>1.33</v>
+        <v>2.02</v>
       </c>
       <c r="Q71" t="n">
         <v>1.29</v>
@@ -10123,7 +10123,7 @@
         <v>2.42</v>
       </c>
       <c r="H72" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="I72" t="n">
         <v>5.1</v>
@@ -10132,7 +10132,7 @@
         <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10387,22 +10387,22 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="G74" t="n">
-        <v>1000</v>
+        <v>1.32</v>
       </c>
       <c r="H74" t="n">
-        <v>1.04</v>
+        <v>12</v>
       </c>
       <c r="I74" t="n">
         <v>1000</v>
       </c>
       <c r="J74" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="K74" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10411,22 +10411,22 @@
         <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="O74" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P74" t="n">
-        <v>1.25</v>
+        <v>2.32</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="R74" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="S74" t="n">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="T74" t="n">
         <v>1.01</v>
@@ -10438,7 +10438,7 @@
         <v>1.01</v>
       </c>
       <c r="W74" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="X74" t="n">
         <v>1000</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G75" t="n">
         <v>1.52</v>
@@ -10537,7 +10537,7 @@
         <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L75" t="n">
         <v>1.27</v>
@@ -10558,7 +10558,7 @@
         <v>1.56</v>
       </c>
       <c r="R75" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S75" t="n">
         <v>2.36</v>
@@ -10594,7 +10594,7 @@
         <v>11.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE75" t="n">
         <v>80</v>
@@ -10666,7 +10666,7 @@
         <v>1.89</v>
       </c>
       <c r="I76" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J76" t="n">
         <v>3.7</v>
@@ -10690,13 +10690,13 @@
         <v>1.97</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R76" t="n">
         <v>1.37</v>
       </c>
       <c r="S76" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T76" t="n">
         <v>1.84</v>
@@ -10705,7 +10705,7 @@
         <v>2.08</v>
       </c>
       <c r="V76" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W76" t="n">
         <v>1.25</v>
@@ -10717,10 +10717,10 @@
         <v>9</v>
       </c>
       <c r="Z76" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA76" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB76" t="n">
         <v>17</v>
@@ -10732,19 +10732,19 @@
         <v>10.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF76" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG76" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH76" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI76" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ76" t="n">
         <v>140</v>
@@ -10753,7 +10753,7 @@
         <v>80</v>
       </c>
       <c r="AL76" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM76" t="n">
         <v>130</v>
@@ -10762,7 +10762,7 @@
         <v>90</v>
       </c>
       <c r="AO76" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -10795,10 +10795,10 @@
         <v>1.76</v>
       </c>
       <c r="G77" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I77" t="n">
         <v>5.3</v>
@@ -10807,7 +10807,7 @@
         <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L77" t="n">
         <v>1.37</v>
@@ -10825,7 +10825,7 @@
         <v>2.12</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R77" t="n">
         <v>1.43</v>
@@ -10837,7 +10837,7 @@
         <v>1.8</v>
       </c>
       <c r="U77" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V77" t="n">
         <v>1.23</v>
@@ -10939,7 +10939,7 @@
         <v>2.02</v>
       </c>
       <c r="J78" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K78" t="n">
         <v>4.1</v>
@@ -10960,16 +10960,16 @@
         <v>2.12</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="R78" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="S78" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="T78" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U78" t="n">
         <v>1.01</v>
@@ -10981,49 +10981,49 @@
         <v>1.28</v>
       </c>
       <c r="X78" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y78" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA78" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB78" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC78" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD78" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF78" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG78" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH78" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI78" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ78" t="n">
         <v>1000</v>
       </c>
       <c r="AK78" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL78" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM78" t="n">
         <v>1000</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="G79" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="H79" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I79" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="K79" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L79" t="n">
         <v>1.01</v>
@@ -11086,13 +11086,13 @@
         <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="O79" t="n">
         <v>1.01</v>
       </c>
       <c r="P79" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q79" t="n">
         <v>1.01</v>
@@ -11110,10 +11110,10 @@
         <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="W79" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -11209,7 +11209,7 @@
         <v>2.9</v>
       </c>
       <c r="J80" t="n">
-        <v>1.52</v>
+        <v>2.64</v>
       </c>
       <c r="K80" t="n">
         <v>1000</v>
@@ -11338,7 +11338,7 @@
         <v>1.37</v>
       </c>
       <c r="H81" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I81" t="n">
         <v>18</v>
@@ -11347,7 +11347,7 @@
         <v>5.4</v>
       </c>
       <c r="K81" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L81" t="n">
         <v>1.01</v>
@@ -11356,10 +11356,10 @@
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O81" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P81" t="n">
         <v>2.18</v>
@@ -11608,10 +11608,10 @@
         <v>1.12</v>
       </c>
       <c r="H83" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I83" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J83" t="n">
         <v>13</v>
@@ -11629,19 +11629,19 @@
         <v>12.5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P83" t="n">
         <v>4.8</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R83" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="S83" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T83" t="n">
         <v>2.08</v>
@@ -11656,19 +11656,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X83" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y83" t="n">
         <v>1000</v>
       </c>
       <c r="Z83" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="AA83" t="n">
         <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC83" t="n">
         <v>34</v>
@@ -11677,13 +11677,13 @@
         <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="AF83" t="n">
         <v>11.5</v>
       </c>
       <c r="AG83" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH83" t="n">
         <v>55</v>
@@ -11704,7 +11704,7 @@
         <v>1000</v>
       </c>
       <c r="AN83" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="AO83" t="n">
         <v>1000</v>
@@ -11755,7 +11755,7 @@
         <v>3.75</v>
       </c>
       <c r="L84" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M84" t="n">
         <v>1.07</v>
@@ -11770,7 +11770,7 @@
         <v>2.06</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R84" t="n">
         <v>1.41</v>
@@ -11779,7 +11779,7 @@
         <v>3.35</v>
       </c>
       <c r="T84" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U84" t="n">
         <v>2.22</v>
@@ -12007,46 +12007,46 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="G86" t="n">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="I86" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J86" t="n">
-        <v>1.02</v>
+        <v>2.68</v>
       </c>
       <c r="K86" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L86" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M86" t="n">
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="O86" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="P86" t="n">
-        <v>1.25</v>
+        <v>1.61</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.47</v>
+        <v>1.97</v>
       </c>
       <c r="R86" t="n">
         <v>1.18</v>
       </c>
       <c r="S86" t="n">
-        <v>1.47</v>
+        <v>1.97</v>
       </c>
       <c r="T86" t="n">
         <v>1.01</v>
@@ -12055,10 +12055,10 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W86" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X86" t="n">
         <v>1000</v>
@@ -12163,7 +12163,7 @@
         <v>1.01</v>
       </c>
       <c r="M87" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N87" t="n">
         <v>4.8</v>
@@ -12277,46 +12277,46 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="G88" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="H88" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="I88" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="J88" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="K88" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L88" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M88" t="n">
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="O88" t="n">
         <v>1.01</v>
       </c>
       <c r="P88" t="n">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.02</v>
+        <v>1.84</v>
       </c>
       <c r="R88" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S88" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="T88" t="n">
         <v>1.01</v>
@@ -12325,10 +12325,10 @@
         <v>1.01</v>
       </c>
       <c r="V88" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="W88" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="X88" t="n">
         <v>1000</v>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G90" t="n">
         <v>2.04</v>
@@ -12556,10 +12556,10 @@
         <v>3.55</v>
       </c>
       <c r="I90" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="J90" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K90" t="n">
         <v>4.8</v>
@@ -12583,70 +12583,70 @@
         <v>1.49</v>
       </c>
       <c r="R90" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="S90" t="n">
-        <v>1.5</v>
+        <v>2.06</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V90" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="W90" t="n">
         <v>1.96</v>
       </c>
       <c r="X90" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y90" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z90" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA90" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB90" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC90" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE90" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF90" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG90" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH90" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI90" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ90" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK90" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL90" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM90" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN90" t="n">
         <v>1000</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G91" t="n">
         <v>2.6</v>
@@ -12859,10 +12859,10 @@
         <v>2.82</v>
       </c>
       <c r="T92" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U92" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V92" t="n">
         <v>1.34</v>
@@ -12964,7 +12964,7 @@
         <v>6.8</v>
       </c>
       <c r="J93" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
         <v>4.7</v>
@@ -12976,13 +12976,13 @@
         <v>1.05</v>
       </c>
       <c r="N93" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="O93" t="n">
         <v>1.27</v>
       </c>
       <c r="P93" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="Q93" t="n">
         <v>1.84</v>
@@ -12994,7 +12994,7 @@
         <v>2.86</v>
       </c>
       <c r="T93" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U93" t="n">
         <v>1.83</v>
@@ -13003,7 +13003,7 @@
         <v>1.17</v>
       </c>
       <c r="W93" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X93" t="n">
         <v>1000</v>
@@ -13123,16 +13123,16 @@
         <v>1.64</v>
       </c>
       <c r="R94" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S94" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T94" t="n">
         <v>1.69</v>
       </c>
       <c r="U94" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V94" t="n">
         <v>2.36</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="G95" t="n">
         <v>1.94</v>
@@ -13231,7 +13231,7 @@
         <v>5</v>
       </c>
       <c r="I95" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J95" t="n">
         <v>3.5</v>
@@ -13258,7 +13258,7 @@
         <v>2.26</v>
       </c>
       <c r="R95" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S95" t="n">
         <v>3.85</v>
@@ -13270,7 +13270,7 @@
         <v>1.66</v>
       </c>
       <c r="V95" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="W95" t="n">
         <v>2.06</v>
@@ -13357,46 +13357,46 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="G96" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H96" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="I96" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J96" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K96" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L96" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M96" t="n">
         <v>1.04</v>
       </c>
       <c r="N96" t="n">
-        <v>1.44</v>
+        <v>3.9</v>
       </c>
       <c r="O96" t="n">
         <v>1.28</v>
       </c>
       <c r="P96" t="n">
-        <v>1.44</v>
+        <v>1.92</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="R96" t="n">
         <v>1.18</v>
       </c>
       <c r="S96" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="T96" t="n">
         <v>1.01</v>
@@ -13405,10 +13405,10 @@
         <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W96" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X96" t="n">
         <v>1000</v>
@@ -13498,7 +13498,7 @@
         <v>12</v>
       </c>
       <c r="H97" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="I97" t="n">
         <v>1.38</v>
@@ -13534,10 +13534,10 @@
         <v>1.83</v>
       </c>
       <c r="T97" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U97" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V97" t="n">
         <v>3.65</v>
@@ -13549,37 +13549,37 @@
         <v>1000</v>
       </c>
       <c r="Y97" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z97" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA97" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC97" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD97" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE97" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF97" t="n">
         <v>1000</v>
       </c>
       <c r="AG97" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH97" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI97" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ97" t="n">
         <v>1000</v>
@@ -13627,25 +13627,25 @@
         </is>
       </c>
       <c r="F98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J98" t="n">
         <v>3.15</v>
       </c>
-      <c r="G98" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K98" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L98" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M98" t="n">
         <v>1.01</v>
@@ -13660,70 +13660,70 @@
         <v>1.65</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R98" t="n">
         <v>1.16</v>
       </c>
       <c r="S98" t="n">
-        <v>2.24</v>
+        <v>3.85</v>
       </c>
       <c r="T98" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="U98" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V98" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="W98" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X98" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y98" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z98" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA98" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB98" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC98" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE98" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF98" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG98" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH98" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI98" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ98" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK98" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL98" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM98" t="n">
         <v>1000</v>
@@ -13909,7 +13909,7 @@
         <v>1.61</v>
       </c>
       <c r="J100" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="K100" t="n">
         <v>6.2</v>
@@ -13936,10 +13936,10 @@
         <v>1.18</v>
       </c>
       <c r="S100" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T100" t="n">
         <v>1.59</v>
-      </c>
-      <c r="T100" t="n">
-        <v>1.01</v>
       </c>
       <c r="U100" t="n">
         <v>1.01</v>
@@ -13951,40 +13951,40 @@
         <v>1.13</v>
       </c>
       <c r="X100" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y100" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z100" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA100" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB100" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC100" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD100" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE100" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF100" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG100" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH100" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI100" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ100" t="n">
         <v>1000</v>
@@ -13993,7 +13993,7 @@
         <v>1000</v>
       </c>
       <c r="AL100" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM100" t="n">
         <v>1000</v>
@@ -14035,16 +14035,16 @@
         <v>2.26</v>
       </c>
       <c r="G101" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I101" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J101" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K101" t="n">
         <v>5.1</v>
@@ -14053,7 +14053,7 @@
         <v>1.01</v>
       </c>
       <c r="M101" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N101" t="n">
         <v>4.8</v>
@@ -14065,13 +14065,13 @@
         <v>2.52</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="R101" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="S101" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="T101" t="n">
         <v>1.01</v>
@@ -14080,10 +14080,10 @@
         <v>1.01</v>
       </c>
       <c r="V101" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W101" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X101" t="n">
         <v>1000</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G102" t="n">
         <v>3.05</v>
@@ -14179,7 +14179,7 @@
         <v>2.42</v>
       </c>
       <c r="J102" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
         <v>4.1</v>
@@ -14188,16 +14188,16 @@
         <v>1.28</v>
       </c>
       <c r="M102" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N102" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O102" t="n">
         <v>1.19</v>
       </c>
       <c r="P102" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q102" t="n">
         <v>1.62</v>
@@ -14212,22 +14212,22 @@
         <v>1.54</v>
       </c>
       <c r="U102" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V102" t="n">
         <v>1.7</v>
       </c>
       <c r="W102" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X102" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y102" t="n">
         <v>15.5</v>
       </c>
       <c r="Z102" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA102" t="n">
         <v>34</v>
@@ -14236,43 +14236,43 @@
         <v>17.5</v>
       </c>
       <c r="AC102" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD102" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE102" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF102" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG102" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH102" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI102" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ102" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AK102" t="n">
         <v>28</v>
       </c>
       <c r="AL102" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM102" t="n">
         <v>55</v>
       </c>
       <c r="AN102" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO102" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -14323,7 +14323,7 @@
         <v>1.01</v>
       </c>
       <c r="M103" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N103" t="n">
         <v>1.65</v>
@@ -14437,112 +14437,112 @@
         </is>
       </c>
       <c r="F104" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H104" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K104" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M104" t="n">
         <v>1.04</v>
       </c>
-      <c r="G104" t="n">
-        <v>970</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
       <c r="N104" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="O104" t="n">
         <v>1.25</v>
       </c>
       <c r="P104" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="105">
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G105" t="n">
         <v>2.12</v>
@@ -14584,16 +14584,16 @@
         <v>4.8</v>
       </c>
       <c r="J105" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K105" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N105" t="n">
         <v>3.15</v>
@@ -14608,76 +14608,76 @@
         <v>2.14</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z105" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB105" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD105" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE105" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF105" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG105" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH105" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI105" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK105" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL105" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="106">
@@ -14707,16 +14707,16 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="G106" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H106" t="n">
         <v>2.28</v>
       </c>
       <c r="I106" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J106" t="n">
         <v>3.5</v>
@@ -14737,7 +14737,7 @@
         <v>1.36</v>
       </c>
       <c r="P106" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q106" t="n">
         <v>2.16</v>
@@ -14842,112 +14842,112 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="G107" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H107" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="I107" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J107" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="K107" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O107" t="n">
         <v>1.01</v>
       </c>
       <c r="P107" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO107" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="108">
@@ -14977,25 +14977,25 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="G108" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="H108" t="n">
         <v>3.95</v>
       </c>
       <c r="I108" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J108" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K108" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M108" t="n">
         <v>1.03</v>
@@ -15013,76 +15013,76 @@
         <v>1.54</v>
       </c>
       <c r="R108" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S108" t="n">
         <v>2.32</v>
       </c>
       <c r="T108" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U108" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V108" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X108" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Y108" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Z108" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA108" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB108" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG108" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD108" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>11</v>
-      </c>
       <c r="AH108" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI108" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ108" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL108" t="n">
         <v>28</v>
       </c>
-      <c r="AK108" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>32</v>
-      </c>
       <c r="AM108" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN108" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AO108" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
@@ -15115,7 +15115,7 @@
         <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H109" t="n">
         <v>2.78</v>
@@ -15130,13 +15130,13 @@
         <v>3.25</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M109" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N109" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O109" t="n">
         <v>1.44</v>
@@ -15160,61 +15160,61 @@
         <v>2</v>
       </c>
       <c r="V109" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X109" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y109" t="n">
         <v>9.6</v>
       </c>
       <c r="Z109" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA109" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB109" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC109" t="n">
         <v>7</v>
       </c>
       <c r="AD109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG109" t="n">
         <v>13</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH109" t="n">
         <v>19.5</v>
       </c>
       <c r="AI109" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ109" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AK109" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN109" t="n">
         <v>40</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>42</v>
       </c>
       <c r="AO109" t="n">
         <v>36</v>
@@ -15247,25 +15247,25 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G110" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I110" t="n">
         <v>1.76</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1.77</v>
       </c>
       <c r="J110" t="n">
         <v>3.9</v>
       </c>
       <c r="K110" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M110" t="n">
         <v>1.07</v>
@@ -15277,70 +15277,70 @@
         <v>1.3</v>
       </c>
       <c r="P110" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R110" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S110" t="n">
         <v>3.2</v>
       </c>
       <c r="T110" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U110" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V110" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X110" t="n">
         <v>15</v>
       </c>
       <c r="Y110" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z110" t="n">
         <v>10.5</v>
       </c>
       <c r="AA110" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC110" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD110" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE110" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF110" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG110" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH110" t="n">
         <v>19.5</v>
       </c>
       <c r="AI110" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ110" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AK110" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL110" t="n">
         <v>75</v>
@@ -15349,10 +15349,10 @@
         <v>110</v>
       </c>
       <c r="AN110" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO110" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -15382,112 +15382,112 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="G111" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J111" t="n">
         <v>3.15</v>
       </c>
-      <c r="H111" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J111" t="n">
-        <v>3</v>
-      </c>
       <c r="K111" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N111" t="n">
         <v>2.52</v>
       </c>
       <c r="O111" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P111" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U111" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V111" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X111" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z111" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA111" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB111" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD111" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE111" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF111" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG111" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH111" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI111" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ111" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK111" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL111" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AM111" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN111" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AO111" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
@@ -15535,10 +15535,10 @@
         <v>3.3</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N112" t="n">
         <v>3</v>
@@ -15553,76 +15553,76 @@
         <v>2.26</v>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U112" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z112" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA112" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB112" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE112" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF112" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG112" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH112" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI112" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ112" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK112" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL112" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO112" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
@@ -15670,10 +15670,10 @@
         <v>1000</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N113" t="n">
         <v>1.8</v>
@@ -15688,76 +15688,76 @@
         <v>1.73</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO113" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114">
@@ -15790,7 +15790,7 @@
         <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="H114" t="n">
         <v>1.67</v>
@@ -15805,10 +15805,10 @@
         <v>5</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N114" t="n">
         <v>4.1</v>
@@ -15823,76 +15823,76 @@
         <v>1.75</v>
       </c>
       <c r="R114" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U114" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD114" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE114" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF114" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AG114" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH114" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI114" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK114" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL114" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="115">
@@ -15922,7 +15922,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="G115" t="n">
         <v>2.68</v>
@@ -15931,7 +15931,7 @@
         <v>2.72</v>
       </c>
       <c r="I115" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J115" t="n">
         <v>2.98</v>
@@ -15940,10 +15940,10 @@
         <v>4.4</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N115" t="n">
         <v>3.25</v>
@@ -15958,76 +15958,76 @@
         <v>1.87</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U115" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V115" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W115" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X115" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z115" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB115" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC115" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD115" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF115" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG115" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH115" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="H2" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="I2" t="n">
         <v>1.7</v>
@@ -682,7 +682,7 @@
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>110</v>
+        <v>14.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,16 +691,16 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
         <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.81</v>
@@ -718,7 +718,7 @@
         <v>2.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.34</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>1.34</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1075,13 +1075,13 @@
         <v>2.64</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
         <v>2.58</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
@@ -1090,7 +1090,7 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1111,7 +1111,7 @@
         <v>1.32</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
         <v>1.73</v>
@@ -1120,7 +1120,7 @@
         <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W5" t="n">
         <v>1.48</v>
@@ -1147,7 +1147,7 @@
         <v>15.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="n">
         <v>23</v>
@@ -1210,22 +1210,22 @@
         <v>2.66</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
         <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K6" t="n">
         <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1255,10 +1255,10 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.46</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.47</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1348,7 +1348,7 @@
         <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="I7" t="n">
         <v>2.4</v>
@@ -1357,7 +1357,7 @@
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="I8" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
@@ -1540,7 +1540,7 @@
         <v>970</v>
       </c>
       <c r="AA8" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AB8" t="n">
         <v>970</v>
@@ -1552,28 +1552,28 @@
         <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
         <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="I9" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
@@ -1648,7 +1648,7 @@
         <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
         <v>3.6</v>
@@ -1660,10 +1660,10 @@
         <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
         <v>16</v>
@@ -1756,7 +1756,7 @@
         <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -1771,16 +1771,16 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
@@ -1810,7 +1810,7 @@
         <v>24</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
         <v>12.5</v>
@@ -1834,7 +1834,7 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
         <v>46</v>
@@ -1885,16 +1885,16 @@
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4.1</v>
@@ -1906,13 +1906,13 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.59</v>
@@ -1930,10 +1930,10 @@
         <v>2.6</v>
       </c>
       <c r="V11" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
         <v>25</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I12" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="J12" t="n">
         <v>4.1</v>
@@ -2035,94 +2035,94 @@
         <v>4.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S12" t="n">
         <v>2.32</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.12</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="W12" t="n">
         <v>1.25</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H14" t="n">
         <v>9</v>
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P15" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R15" t="n">
         <v>1.21</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W15" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
         <v>25</v>
@@ -2488,37 +2488,37 @@
         <v>75</v>
       </c>
       <c r="AB15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC15" t="n">
-        <v>970</v>
-      </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2563,13 +2563,13 @@
         <v>1.97</v>
       </c>
       <c r="H16" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
@@ -2590,7 +2590,7 @@
         <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>5.6</v>
       </c>
       <c r="I17" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J17" t="n">
         <v>4.6</v>
@@ -2719,25 +2719,25 @@
         <v>5.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
         <v>2.42</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
         <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
         <v>1.17</v>
@@ -2755,13 +2755,13 @@
         <v>65</v>
       </c>
       <c r="AA17" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD17" t="n">
         <v>29</v>
@@ -2776,10 +2776,10 @@
         <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
         <v>19</v>
@@ -2791,13 +2791,13 @@
         <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
@@ -2878,7 +2878,7 @@
         <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G19" t="n">
         <v>2.28</v>
@@ -3130,13 +3130,13 @@
         <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
         <v>1.22</v>
       </c>
       <c r="S20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3241,7 +3241,7 @@
         <v>1.91</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -3256,13 +3256,13 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
         <v>1.51</v>
@@ -3274,13 +3274,13 @@
         <v>2.26</v>
       </c>
       <c r="T21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U21" t="n">
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
         <v>1.46</v>
@@ -3382,7 +3382,7 @@
         <v>4.6</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.29</v>
@@ -3397,19 +3397,19 @@
         <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R22" t="n">
         <v>1.64</v>
       </c>
       <c r="S22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U22" t="n">
         <v>2.26</v>
@@ -3508,7 +3508,7 @@
         <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I23" t="n">
         <v>5.3</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G24" t="n">
         <v>1.72</v>
       </c>
       <c r="H24" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
@@ -3688,7 +3688,7 @@
         <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X24" t="n">
         <v>21</v>
@@ -3709,7 +3709,7 @@
         <v>9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>75</v>
@@ -3790,7 +3790,7 @@
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
@@ -3910,7 +3910,7 @@
         <v>1.67</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -3919,7 +3919,7 @@
         <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K26" t="n">
         <v>6.6</v>
@@ -3940,13 +3940,13 @@
         <v>1.86</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R26" t="n">
         <v>1.32</v>
       </c>
       <c r="S26" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T26" t="n">
         <v>1.01</v>
@@ -3958,7 +3958,7 @@
         <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4054,7 +4054,7 @@
         <v>5.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>4.2</v>
@@ -4078,10 +4078,10 @@
         <v>1.69</v>
       </c>
       <c r="R27" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="T27" t="n">
         <v>1.67</v>
@@ -4180,7 +4180,7 @@
         <v>1.75</v>
       </c>
       <c r="G28" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H28" t="n">
         <v>4.2</v>
@@ -4222,13 +4222,13 @@
         <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V28" t="n">
         <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X28" t="n">
         <v>40</v>
@@ -4471,16 +4471,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="O30" t="n">
         <v>1.43</v>
       </c>
       <c r="P30" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J32" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
         <v>1.58</v>
@@ -4741,16 +4741,16 @@
         <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="O32" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="P32" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="R32" t="n">
         <v>1.18</v>
@@ -4765,13 +4765,13 @@
         <v>1.73</v>
       </c>
       <c r="V32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W32" t="n">
         <v>1.41</v>
       </c>
       <c r="X32" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Y32" t="n">
         <v>9.199999999999999</v>
@@ -4861,7 +4861,7 @@
         <v>1.71</v>
       </c>
       <c r="I33" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J33" t="n">
         <v>3.45</v>
@@ -4876,7 +4876,7 @@
         <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
         <v>1.39</v>
@@ -4900,7 +4900,7 @@
         <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W33" t="n">
         <v>1.18</v>
@@ -4996,10 +4996,10 @@
         <v>1.7</v>
       </c>
       <c r="I34" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
         <v>3.9</v>
@@ -5026,7 +5026,7 @@
         <v>1.19</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T34" t="n">
         <v>2.2</v>
@@ -5035,7 +5035,7 @@
         <v>1.64</v>
       </c>
       <c r="V34" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W34" t="n">
         <v>1.15</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
-        <v>2.92</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5146,16 +5146,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P35" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5269,7 +5269,7 @@
         <v>1000</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K36" t="n">
         <v>11</v>
@@ -5293,7 +5293,7 @@
         <v>1.61</v>
       </c>
       <c r="R36" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S36" t="n">
         <v>2.54</v>
@@ -5323,7 +5323,7 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
         <v>1000</v>
@@ -5335,7 +5335,7 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG36" t="n">
         <v>12.5</v>
@@ -5392,40 +5392,40 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="G37" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I37" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J37" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P37" t="n">
         <v>1.67</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R37" t="n">
         <v>1.24</v>
@@ -5440,19 +5440,19 @@
         <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W37" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z37" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA37" t="n">
         <v>140</v>
@@ -5464,13 +5464,13 @@
         <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
         <v>11</v>
@@ -5482,10 +5482,10 @@
         <v>120</v>
       </c>
       <c r="AJ37" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK37" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL37" t="n">
         <v>55</v>
@@ -5494,7 +5494,7 @@
         <v>170</v>
       </c>
       <c r="AN37" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO37" t="n">
         <v>140</v>
@@ -5539,10 +5539,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L38" t="n">
         <v>1.27</v>
@@ -5551,19 +5551,19 @@
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O38" t="n">
         <v>1.18</v>
       </c>
       <c r="P38" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q38" t="n">
         <v>1.54</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="n">
         <v>2.34</v>
@@ -5578,7 +5578,7 @@
         <v>1.12</v>
       </c>
       <c r="W38" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X38" t="n">
         <v>32</v>
@@ -5593,7 +5593,7 @@
         <v>280</v>
       </c>
       <c r="AB38" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
         <v>14.5</v>
@@ -5692,22 +5692,22 @@
         <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="Q39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T39" t="n">
         <v>1.51</v>
       </c>
-      <c r="R39" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.48</v>
-      </c>
       <c r="U39" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="V39" t="n">
         <v>1.76</v>
@@ -5737,10 +5737,10 @@
         <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF39" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG39" t="n">
         <v>14.5</v>
@@ -5764,7 +5764,7 @@
         <v>55</v>
       </c>
       <c r="AN39" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO39" t="n">
         <v>10.5</v>
@@ -5800,13 +5800,13 @@
         <v>1.77</v>
       </c>
       <c r="G40" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="H40" t="n">
         <v>4.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
         <v>3.95</v>
@@ -5827,10 +5827,10 @@
         <v>1.23</v>
       </c>
       <c r="P40" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5956,13 +5956,13 @@
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.35</v>
       </c>
       <c r="P41" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q41" t="n">
         <v>2.04</v>
@@ -5974,7 +5974,7 @@
         <v>3.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U41" t="n">
         <v>2.06</v>
@@ -6070,19 +6070,19 @@
         <v>1.42</v>
       </c>
       <c r="G42" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H42" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I42" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="J42" t="n">
         <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6232,13 +6232,13 @@
         <v>1.16</v>
       </c>
       <c r="P43" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q43" t="n">
         <v>1.43</v>
       </c>
       <c r="R43" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="n">
         <v>2.1</v>
@@ -6250,7 +6250,7 @@
         <v>2.1</v>
       </c>
       <c r="V43" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W43" t="n">
         <v>2.94</v>
@@ -6355,7 +6355,7 @@
         <v>4.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6478,10 +6478,10 @@
         <v>3.6</v>
       </c>
       <c r="H45" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="I45" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J45" t="n">
         <v>3.1</v>
@@ -6502,13 +6502,13 @@
         <v>1.39</v>
       </c>
       <c r="P45" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R45" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S45" t="n">
         <v>3.85</v>
@@ -6520,7 +6520,7 @@
         <v>2.08</v>
       </c>
       <c r="V45" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W45" t="n">
         <v>1.39</v>
@@ -6559,7 +6559,7 @@
         <v>19.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ45" t="n">
         <v>65</v>
@@ -6619,7 +6619,7 @@
         <v>4.9</v>
       </c>
       <c r="J46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
         <v>3.9</v>
@@ -6631,7 +6631,7 @@
         <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.33</v>
@@ -6640,7 +6640,7 @@
         <v>1.86</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R46" t="n">
         <v>1.33</v>
@@ -6664,7 +6664,7 @@
         <v>16.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z46" t="n">
         <v>44</v>
@@ -6772,22 +6772,22 @@
         <v>1.43</v>
       </c>
       <c r="P47" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R47" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S47" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T47" t="n">
         <v>1.89</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V47" t="n">
         <v>1.45</v>
@@ -6796,7 +6796,7 @@
         <v>1.53</v>
       </c>
       <c r="X47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
         <v>970</v>
@@ -6886,7 +6886,7 @@
         <v>1.89</v>
       </c>
       <c r="I48" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J48" t="n">
         <v>3.5</v>
@@ -6907,7 +6907,7 @@
         <v>1.5</v>
       </c>
       <c r="P48" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q48" t="n">
         <v>2.48</v>
@@ -6919,7 +6919,7 @@
         <v>4.9</v>
       </c>
       <c r="T48" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U48" t="n">
         <v>1.78</v>
@@ -6949,7 +6949,7 @@
         <v>7.8</v>
       </c>
       <c r="AD48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE48" t="n">
         <v>24</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G49" t="n">
         <v>1.98</v>
@@ -7024,10 +7024,10 @@
         <v>4.8</v>
       </c>
       <c r="J49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K49" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.6</v>
       </c>
       <c r="L49" t="n">
         <v>1.48</v>
@@ -7231,7 +7231,7 @@
         <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI50" t="n">
         <v>44</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G51" t="n">
         <v>4.2</v>
       </c>
-      <c r="G51" t="n">
-        <v>4.3</v>
-      </c>
       <c r="H51" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I51" t="n">
         <v>1.93</v>
@@ -7333,7 +7333,7 @@
         <v>2.06</v>
       </c>
       <c r="W51" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X51" t="n">
         <v>20</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G52" t="n">
         <v>3.9</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3.95</v>
       </c>
       <c r="H52" t="n">
         <v>2.1</v>
@@ -7468,7 +7468,7 @@
         <v>1.89</v>
       </c>
       <c r="W52" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X52" t="n">
         <v>15</v>
@@ -7501,7 +7501,7 @@
         <v>16</v>
       </c>
       <c r="AH52" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI52" t="n">
         <v>34</v>
@@ -7645,7 +7645,7 @@
         <v>65</v>
       </c>
       <c r="AK53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="n">
         <v>55</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G54" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H54" t="n">
         <v>1.96</v>
       </c>
       <c r="I54" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="J54" t="n">
         <v>3.15</v>
       </c>
       <c r="K54" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7726,7 +7726,7 @@
         <v>1.27</v>
       </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T54" t="n">
         <v>1.01</v>
@@ -7735,7 +7735,7 @@
         <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="W54" t="n">
         <v>1.26</v>
@@ -7825,13 +7825,13 @@
         <v>1.63</v>
       </c>
       <c r="G55" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H55" t="n">
         <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J55" t="n">
         <v>4.3</v>
@@ -7852,7 +7852,7 @@
         <v>1.32</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q55" t="n">
         <v>1.96</v>
@@ -7873,7 +7873,7 @@
         <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X55" t="n">
         <v>14.5</v>
@@ -7915,7 +7915,7 @@
         <v>15.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL55" t="n">
         <v>38</v>
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H57" t="n">
         <v>2.46</v>
@@ -8104,25 +8104,25 @@
         <v>2.78</v>
       </c>
       <c r="J57" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
         <v>3.45</v>
       </c>
       <c r="L57" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P57" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q57" t="n">
         <v>2.36</v>
@@ -8131,13 +8131,13 @@
         <v>1.24</v>
       </c>
       <c r="S57" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T57" t="n">
         <v>1.95</v>
       </c>
       <c r="U57" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V57" t="n">
         <v>1.56</v>
@@ -8146,25 +8146,25 @@
         <v>1.38</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA57" t="n">
         <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE57" t="n">
         <v>1000</v>
@@ -8173,7 +8173,7 @@
         <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH57" t="n">
         <v>1000</v>
@@ -8191,7 +8191,7 @@
         <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN57" t="n">
         <v>1000</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G58" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>15</v>
@@ -8269,7 +8269,7 @@
         <v>2.58</v>
       </c>
       <c r="T58" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="U58" t="n">
         <v>1.64</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G60" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="I60" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J60" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K60" t="n">
         <v>4.2</v>
@@ -8545,10 +8545,10 @@
         <v>2.34</v>
       </c>
       <c r="V60" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W60" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="X60" t="n">
         <v>1000</v>
@@ -8632,10 +8632,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G61" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H61" t="n">
         <v>4.8</v>
@@ -8644,7 +8644,7 @@
         <v>5.4</v>
       </c>
       <c r="J61" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K61" t="n">
         <v>4</v>
@@ -8656,13 +8656,13 @@
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O61" t="n">
         <v>1.31</v>
       </c>
       <c r="P61" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q61" t="n">
         <v>1.94</v>
@@ -8683,7 +8683,7 @@
         <v>1.22</v>
       </c>
       <c r="W61" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X61" t="n">
         <v>17.5</v>
@@ -8737,7 +8737,7 @@
         <v>13</v>
       </c>
       <c r="AO61" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62">
@@ -8770,7 +8770,7 @@
         <v>2.02</v>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H62" t="n">
         <v>4.1</v>
@@ -8785,25 +8785,25 @@
         <v>3.7</v>
       </c>
       <c r="L62" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O62" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P62" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R62" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S62" t="n">
         <v>3.7</v>
@@ -8818,7 +8818,7 @@
         <v>1.28</v>
       </c>
       <c r="W62" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X62" t="n">
         <v>13.5</v>
@@ -8905,7 +8905,7 @@
         <v>2.94</v>
       </c>
       <c r="G63" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>2.78</v>
@@ -8929,13 +8929,13 @@
         <v>3.25</v>
       </c>
       <c r="O63" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P63" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R63" t="n">
         <v>1.28</v>
@@ -8944,7 +8944,7 @@
         <v>4.3</v>
       </c>
       <c r="T63" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U63" t="n">
         <v>2.06</v>
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="G64" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="H64" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="I64" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="J64" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K64" t="n">
         <v>4.4</v>
@@ -9061,13 +9061,13 @@
         <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O64" t="n">
         <v>1.19</v>
       </c>
       <c r="P64" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q64" t="n">
         <v>1.59</v>
@@ -9079,16 +9079,16 @@
         <v>2.26</v>
       </c>
       <c r="T64" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="U64" t="n">
         <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W64" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9310,7 +9310,7 @@
         <v>1.83</v>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H66" t="n">
         <v>4.6</v>
@@ -9358,7 +9358,7 @@
         <v>1.25</v>
       </c>
       <c r="W66" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X66" t="n">
         <v>19</v>
@@ -9451,7 +9451,7 @@
         <v>3.15</v>
       </c>
       <c r="I67" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J67" t="n">
         <v>3.65</v>
@@ -9493,7 +9493,7 @@
         <v>1.41</v>
       </c>
       <c r="W67" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X67" t="n">
         <v>24</v>
@@ -9595,7 +9595,7 @@
         <v>5.2</v>
       </c>
       <c r="L68" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M68" t="n">
         <v>1.02</v>
@@ -9736,13 +9736,13 @@
         <v>1.01</v>
       </c>
       <c r="N69" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="O69" t="n">
         <v>1.01</v>
       </c>
       <c r="P69" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="Q69" t="n">
         <v>1.01</v>
@@ -9871,19 +9871,19 @@
         <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O70" t="n">
         <v>1.3</v>
       </c>
       <c r="P70" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R70" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S70" t="n">
         <v>3.25</v>
@@ -9898,7 +9898,7 @@
         <v>1.56</v>
       </c>
       <c r="W70" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X70" t="n">
         <v>15.5</v>
@@ -9982,109 +9982,109 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G71" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H71" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="I71" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J71" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="L71" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M71" t="n">
         <v>1.05</v>
       </c>
       <c r="N71" t="n">
-        <v>4.1</v>
+        <v>2.14</v>
       </c>
       <c r="O71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P71" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T71" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q71" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S71" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T71" t="n">
-        <v>2.36</v>
-      </c>
       <c r="U71" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="V71" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W71" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="X71" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y71" t="n">
         <v>50</v>
       </c>
       <c r="Z71" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AA71" t="n">
         <v>1000</v>
       </c>
       <c r="AB71" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC71" t="n">
         <v>17</v>
       </c>
       <c r="AD71" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE71" t="n">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="AF71" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG71" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI71" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AJ71" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AK71" t="n">
         <v>19</v>
       </c>
       <c r="AL71" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM71" t="n">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="AN71" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="AO71" t="n">
         <v>1000</v>
@@ -10120,19 +10120,19 @@
         <v>2.44</v>
       </c>
       <c r="G72" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I72" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J72" t="n">
         <v>3.45</v>
       </c>
       <c r="K72" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L72" t="n">
         <v>1.01</v>
@@ -10141,34 +10141,34 @@
         <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O72" t="n">
         <v>1.3</v>
       </c>
       <c r="P72" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R72" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S72" t="n">
         <v>3.3</v>
       </c>
       <c r="T72" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U72" t="n">
         <v>1.99</v>
       </c>
       <c r="V72" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W72" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10258,7 +10258,7 @@
         <v>9.6</v>
       </c>
       <c r="H73" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I73" t="n">
         <v>1.51</v>
@@ -10291,13 +10291,13 @@
         <v>1.35</v>
       </c>
       <c r="S73" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="T73" t="n">
         <v>1.01</v>
       </c>
       <c r="U73" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V73" t="n">
         <v>2.96</v>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="G74" t="n">
         <v>2.32</v>
@@ -10396,7 +10396,7 @@
         <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J74" t="n">
         <v>3.05</v>
@@ -10405,94 +10405,94 @@
         <v>4.3</v>
       </c>
       <c r="L74" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M74" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P74" t="n">
         <v>1.79</v>
       </c>
-      <c r="O74" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P74" t="n">
-        <v>1.1</v>
-      </c>
       <c r="Q74" t="n">
-        <v>1.34</v>
+        <v>1.89</v>
       </c>
       <c r="R74" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="S74" t="n">
-        <v>1.34</v>
+        <v>2.82</v>
       </c>
       <c r="T74" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U74" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V74" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W74" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="X74" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y74" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z74" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA74" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB74" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC74" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD74" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE74" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF74" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG74" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH74" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI74" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK74" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL74" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM74" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN74" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO74" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
@@ -10525,7 +10525,7 @@
         <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H75" t="n">
         <v>3.5</v>
@@ -10555,7 +10555,7 @@
         <v>1.87</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R75" t="n">
         <v>1.33</v>
@@ -10573,7 +10573,7 @@
         <v>1.27</v>
       </c>
       <c r="W75" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X75" t="n">
         <v>1000</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="G76" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="H76" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I76" t="n">
         <v>1000</v>
       </c>
       <c r="J76" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="K76" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10681,7 +10681,7 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="O76" t="n">
         <v>1.14</v>
@@ -10690,13 +10690,13 @@
         <v>2.32</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="R76" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="S76" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="T76" t="n">
         <v>1.01</v>
@@ -10708,7 +10708,7 @@
         <v>1.01</v>
       </c>
       <c r="W76" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10795,19 +10795,19 @@
         <v>4.2</v>
       </c>
       <c r="G77" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H77" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I77" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="J77" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K77" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10843,10 +10843,10 @@
         <v>2.06</v>
       </c>
       <c r="W77" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X77" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -10858,7 +10858,7 @@
         <v>23</v>
       </c>
       <c r="AB77" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AC77" t="n">
         <v>9.4</v>
@@ -10873,10 +10873,10 @@
         <v>36</v>
       </c>
       <c r="AG77" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AH77" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AI77" t="n">
         <v>34</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G78" t="n">
         <v>1.78</v>
@@ -10936,7 +10936,7 @@
         <v>5.1</v>
       </c>
       <c r="I78" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J78" t="n">
         <v>4</v>
@@ -10945,7 +10945,7 @@
         <v>4.1</v>
       </c>
       <c r="L78" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
@@ -10963,10 +10963,10 @@
         <v>1.86</v>
       </c>
       <c r="R78" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S78" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T78" t="n">
         <v>1.83</v>
@@ -10975,7 +10975,7 @@
         <v>2.12</v>
       </c>
       <c r="V78" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W78" t="n">
         <v>2.28</v>
@@ -10990,7 +10990,7 @@
         <v>40</v>
       </c>
       <c r="AA78" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB78" t="n">
         <v>9.4</v>
@@ -11014,13 +11014,13 @@
         <v>19</v>
       </c>
       <c r="AI78" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ78" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK78" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL78" t="n">
         <v>32</v>
@@ -11062,16 +11062,16 @@
         </is>
       </c>
       <c r="F79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G79" t="n">
         <v>1.51</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1.52</v>
       </c>
       <c r="H79" t="n">
         <v>7</v>
       </c>
       <c r="I79" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J79" t="n">
         <v>5</v>
@@ -11113,7 +11113,7 @@
         <v>1.16</v>
       </c>
       <c r="W79" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X79" t="n">
         <v>27</v>
@@ -11122,7 +11122,7 @@
         <v>32</v>
       </c>
       <c r="Z79" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA79" t="n">
         <v>180</v>
@@ -11140,7 +11140,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG79" t="n">
         <v>9.800000000000001</v>
@@ -11164,7 +11164,7 @@
         <v>80</v>
       </c>
       <c r="AN79" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO79" t="n">
         <v>65</v>
@@ -11227,7 +11227,7 @@
         <v>1.32</v>
       </c>
       <c r="P80" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q80" t="n">
         <v>1.98</v>
@@ -11236,7 +11236,7 @@
         <v>1.37</v>
       </c>
       <c r="S80" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T80" t="n">
         <v>1.86</v>
@@ -11245,7 +11245,7 @@
         <v>2.08</v>
       </c>
       <c r="V80" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W80" t="n">
         <v>1.26</v>
@@ -11278,13 +11278,13 @@
         <v>36</v>
       </c>
       <c r="AG80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI80" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ80" t="n">
         <v>140</v>
@@ -11365,7 +11365,7 @@
         <v>1.25</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R81" t="n">
         <v>1.18</v>
@@ -11494,13 +11494,13 @@
         <v>4.1</v>
       </c>
       <c r="O82" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P82" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R82" t="n">
         <v>1.41</v>
@@ -11524,7 +11524,7 @@
         <v>14</v>
       </c>
       <c r="Y82" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z82" t="n">
         <v>28</v>
@@ -11536,7 +11536,7 @@
         <v>10</v>
       </c>
       <c r="AC82" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD82" t="n">
         <v>16</v>
@@ -11566,7 +11566,7 @@
         <v>34</v>
       </c>
       <c r="AM82" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN82" t="n">
         <v>14.5</v>
@@ -11608,7 +11608,7 @@
         <v>1.12</v>
       </c>
       <c r="H83" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I83" t="n">
         <v>34</v>
@@ -11632,7 +11632,7 @@
         <v>1.07</v>
       </c>
       <c r="P83" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q83" t="n">
         <v>1.24</v>
@@ -11641,13 +11641,13 @@
         <v>2.52</v>
       </c>
       <c r="S83" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="T83" t="n">
         <v>2.08</v>
       </c>
       <c r="U83" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V83" t="n">
         <v>1.03</v>
@@ -11656,7 +11656,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X83" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y83" t="n">
         <v>1000</v>
@@ -11668,7 +11668,7 @@
         <v>1000</v>
       </c>
       <c r="AB83" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC83" t="n">
         <v>34</v>
@@ -11743,7 +11743,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="I84" t="n">
         <v>2.9</v>
@@ -11878,7 +11878,7 @@
         <v>2.6</v>
       </c>
       <c r="H85" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I85" t="n">
         <v>3.7</v>
@@ -11914,7 +11914,7 @@
         <v>4</v>
       </c>
       <c r="T85" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U85" t="n">
         <v>1.99</v>
@@ -12010,16 +12010,16 @@
         <v>1.29</v>
       </c>
       <c r="G86" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H86" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I86" t="n">
         <v>16</v>
       </c>
       <c r="J86" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K86" t="n">
         <v>6.6</v>
@@ -12055,7 +12055,7 @@
         <v>1.67</v>
       </c>
       <c r="V86" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W86" t="n">
         <v>3.7</v>
@@ -12100,7 +12100,7 @@
         <v>970</v>
       </c>
       <c r="AK86" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AL86" t="n">
         <v>50</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="G87" t="n">
-        <v>2.18</v>
+        <v>2.48</v>
       </c>
       <c r="H87" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="J87" t="n">
         <v>2.8</v>
       </c>
       <c r="K87" t="n">
-        <v>10.5</v>
+        <v>950</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12166,7 +12166,7 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="O87" t="n">
         <v>1.53</v>
@@ -12175,13 +12175,13 @@
         <v>1.4</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R87" t="n">
         <v>1.18</v>
       </c>
       <c r="S87" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T87" t="n">
         <v>1.01</v>
@@ -12190,10 +12190,10 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W87" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12313,10 +12313,10 @@
         <v>1.7</v>
       </c>
       <c r="R88" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S88" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T88" t="n">
         <v>1.5</v>
@@ -12415,10 +12415,10 @@
         <v>2.2</v>
       </c>
       <c r="G89" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H89" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I89" t="n">
         <v>3.8</v>
@@ -12442,46 +12442,46 @@
         <v>1.28</v>
       </c>
       <c r="P89" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q89" t="n">
         <v>1.87</v>
       </c>
       <c r="R89" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S89" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T89" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U89" t="n">
         <v>2.16</v>
       </c>
       <c r="V89" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W89" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="X89" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y89" t="n">
         <v>15</v>
       </c>
       <c r="Z89" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA89" t="n">
         <v>65</v>
       </c>
       <c r="AB89" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC89" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD89" t="n">
         <v>15.5</v>
@@ -12496,7 +12496,7 @@
         <v>12</v>
       </c>
       <c r="AH89" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI89" t="n">
         <v>50</v>
@@ -12514,10 +12514,10 @@
         <v>110</v>
       </c>
       <c r="AN89" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90">
@@ -12550,7 +12550,7 @@
         <v>1.86</v>
       </c>
       <c r="G90" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H90" t="n">
         <v>3.6</v>
@@ -12598,7 +12598,7 @@
         <v>1.31</v>
       </c>
       <c r="W90" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X90" t="n">
         <v>29</v>
@@ -12685,13 +12685,13 @@
         <v>2.52</v>
       </c>
       <c r="G91" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="I91" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J91" t="n">
         <v>3.85</v>
@@ -12700,7 +12700,7 @@
         <v>3.95</v>
       </c>
       <c r="L91" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M91" t="n">
         <v>1.05</v>
@@ -12730,10 +12730,10 @@
         <v>2.44</v>
       </c>
       <c r="V91" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W91" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X91" t="n">
         <v>19.5</v>
@@ -12757,7 +12757,7 @@
         <v>13.5</v>
       </c>
       <c r="AE91" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AF91" t="n">
         <v>18.5</v>
@@ -12826,10 +12826,10 @@
         <v>1.97</v>
       </c>
       <c r="I92" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="J92" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K92" t="n">
         <v>3.95</v>
@@ -12841,22 +12841,22 @@
         <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O92" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P92" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R92" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S92" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T92" t="n">
         <v>1.01</v>
@@ -12865,7 +12865,7 @@
         <v>1.01</v>
       </c>
       <c r="V92" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W92" t="n">
         <v>1.25</v>
@@ -12985,16 +12985,16 @@
         <v>2.34</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R93" t="n">
         <v>1.53</v>
       </c>
       <c r="S93" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T93" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="U93" t="n">
         <v>1.47</v>
@@ -13012,7 +13012,7 @@
         <v>8.4</v>
       </c>
       <c r="Z93" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA93" t="n">
         <v>8</v>
@@ -13048,7 +13048,7 @@
         <v>1000</v>
       </c>
       <c r="AL93" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="AM93" t="n">
         <v>590</v>
@@ -13090,13 +13090,13 @@
         <v>7</v>
       </c>
       <c r="G94" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H94" t="n">
         <v>1.58</v>
       </c>
       <c r="I94" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J94" t="n">
         <v>4.3</v>
@@ -13105,13 +13105,13 @@
         <v>4.5</v>
       </c>
       <c r="L94" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M94" t="n">
         <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O94" t="n">
         <v>1.34</v>
@@ -13129,7 +13129,7 @@
         <v>3.7</v>
       </c>
       <c r="T94" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U94" t="n">
         <v>1.83</v>
@@ -13162,7 +13162,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF94" t="n">
         <v>60</v>
@@ -13225,7 +13225,7 @@
         <v>1.62</v>
       </c>
       <c r="G95" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H95" t="n">
         <v>5.5</v>
@@ -13246,16 +13246,16 @@
         <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O95" t="n">
         <v>1.29</v>
       </c>
       <c r="P95" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R95" t="n">
         <v>1.38</v>
@@ -13363,10 +13363,10 @@
         <v>5</v>
       </c>
       <c r="H96" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I96" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J96" t="n">
         <v>4.6</v>
@@ -13399,13 +13399,13 @@
         <v>2.62</v>
       </c>
       <c r="T96" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U96" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V96" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W96" t="n">
         <v>1.25</v>
@@ -13495,13 +13495,13 @@
         <v>1.81</v>
       </c>
       <c r="G97" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I97" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J97" t="n">
         <v>3.55</v>
@@ -13516,7 +13516,7 @@
         <v>1.09</v>
       </c>
       <c r="N97" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O97" t="n">
         <v>1.43</v>
@@ -13525,7 +13525,7 @@
         <v>1.65</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R97" t="n">
         <v>1.24</v>
@@ -13543,7 +13543,7 @@
         <v>1.23</v>
       </c>
       <c r="W97" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X97" t="n">
         <v>11.5</v>
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G98" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
         <v>2.52</v>
@@ -13642,7 +13642,7 @@
         <v>3.2</v>
       </c>
       <c r="K98" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L98" t="n">
         <v>1.3</v>
@@ -13651,13 +13651,13 @@
         <v>1.04</v>
       </c>
       <c r="N98" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="O98" t="n">
         <v>1.28</v>
       </c>
       <c r="P98" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q98" t="n">
         <v>1.74</v>
@@ -13678,7 +13678,7 @@
         <v>1.4</v>
       </c>
       <c r="W98" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X98" t="n">
         <v>1000</v>
@@ -13771,7 +13771,7 @@
         <v>1.45</v>
       </c>
       <c r="I99" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J99" t="n">
         <v>4.3</v>
@@ -13786,13 +13786,13 @@
         <v>1.07</v>
       </c>
       <c r="N99" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O99" t="n">
         <v>1.35</v>
       </c>
       <c r="P99" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q99" t="n">
         <v>2.02</v>
@@ -13804,7 +13804,7 @@
         <v>3.7</v>
       </c>
       <c r="T99" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U99" t="n">
         <v>1.7</v>
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G100" t="n">
         <v>12</v>
@@ -13921,7 +13921,7 @@
         <v>1.06</v>
       </c>
       <c r="N100" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O100" t="n">
         <v>1.28</v>
@@ -13945,7 +13945,7 @@
         <v>1.7</v>
       </c>
       <c r="V100" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="W100" t="n">
         <v>1.09</v>
@@ -13987,7 +13987,7 @@
         <v>48</v>
       </c>
       <c r="AJ100" t="n">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="AK100" t="n">
         <v>240</v>
@@ -14032,37 +14032,37 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="G101" t="n">
         <v>3.85</v>
       </c>
       <c r="H101" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="I101" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J101" t="n">
         <v>3.2</v>
       </c>
       <c r="K101" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L101" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M101" t="n">
         <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O101" t="n">
         <v>1.43</v>
       </c>
       <c r="P101" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q101" t="n">
         <v>2.26</v>
@@ -14077,13 +14077,13 @@
         <v>1.02</v>
       </c>
       <c r="U101" t="n">
-        <v>1.02</v>
+        <v>1.74</v>
       </c>
       <c r="V101" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W101" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X101" t="n">
         <v>1000</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="G102" t="n">
         <v>7.8</v>
@@ -14176,10 +14176,10 @@
         <v>1.49</v>
       </c>
       <c r="I102" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J102" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
         <v>6.2</v>
@@ -14191,7 +14191,7 @@
         <v>1.03</v>
       </c>
       <c r="N102" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O102" t="n">
         <v>1.2</v>
@@ -14209,13 +14209,13 @@
         <v>2.46</v>
       </c>
       <c r="T102" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U102" t="n">
         <v>2.1</v>
       </c>
       <c r="V102" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W102" t="n">
         <v>1.15</v>
@@ -14305,13 +14305,13 @@
         <v>2.28</v>
       </c>
       <c r="G103" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H103" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I103" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J103" t="n">
         <v>3.5</v>
@@ -14326,34 +14326,34 @@
         <v>1.03</v>
       </c>
       <c r="N103" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O103" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P103" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q103" t="n">
         <v>1.46</v>
       </c>
       <c r="R103" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S103" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T103" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="U103" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="V103" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="W103" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X103" t="n">
         <v>1000</v>
@@ -14371,7 +14371,7 @@
         <v>1000</v>
       </c>
       <c r="AC103" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD103" t="n">
         <v>1000</v>
@@ -14407,7 +14407,7 @@
         <v>1000</v>
       </c>
       <c r="AO103" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104">
@@ -14458,7 +14458,7 @@
         <v>1.28</v>
       </c>
       <c r="M104" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N104" t="n">
         <v>5.7</v>
@@ -14476,7 +14476,7 @@
         <v>1.66</v>
       </c>
       <c r="S104" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T104" t="n">
         <v>1.54</v>
@@ -14575,16 +14575,16 @@
         <v>4.5</v>
       </c>
       <c r="G105" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H105" t="n">
         <v>1.27</v>
       </c>
       <c r="I105" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="J105" t="n">
-        <v>1.09</v>
+        <v>2.76</v>
       </c>
       <c r="K105" t="n">
         <v>970</v>
@@ -14602,10 +14602,10 @@
         <v>1.34</v>
       </c>
       <c r="P105" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R105" t="n">
         <v>1.25</v>
@@ -14620,7 +14620,7 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W105" t="n">
         <v>1.17</v>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G106" t="n">
         <v>1.38</v>
@@ -14743,10 +14743,10 @@
         <v>1.6</v>
       </c>
       <c r="R106" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="S106" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="T106" t="n">
         <v>2.14</v>
@@ -14842,22 +14842,22 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="G107" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="H107" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="I107" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="J107" t="n">
-        <v>1.02</v>
+        <v>1.34</v>
       </c>
       <c r="K107" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L107" t="n">
         <v>1.01</v>
@@ -14866,7 +14866,7 @@
         <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="O107" t="n">
         <v>1.11</v>
@@ -14893,61 +14893,61 @@
         <v>1.01</v>
       </c>
       <c r="W107" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="X107" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="Y107" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z107" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA107" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB107" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AC107" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AD107" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE107" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF107" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG107" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH107" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI107" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ107" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK107" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL107" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM107" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN107" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AO107" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108">
@@ -15001,19 +15001,19 @@
         <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="O108" t="n">
         <v>1.07</v>
       </c>
       <c r="P108" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q108" t="n">
         <v>1.07</v>
       </c>
       <c r="R108" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S108" t="n">
         <v>1.07</v>
@@ -15136,7 +15136,7 @@
         <v>1.08</v>
       </c>
       <c r="N109" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O109" t="n">
         <v>1.38</v>
@@ -15157,7 +15157,7 @@
         <v>1.92</v>
       </c>
       <c r="U109" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V109" t="n">
         <v>1.26</v>
@@ -15187,7 +15187,7 @@
         <v>970</v>
       </c>
       <c r="AE109" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF109" t="n">
         <v>970</v>
@@ -15214,7 +15214,7 @@
         <v>160</v>
       </c>
       <c r="AN109" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO109" t="n">
         <v>1000</v>
@@ -15247,13 +15247,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G110" t="n">
         <v>3.6</v>
       </c>
       <c r="H110" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="I110" t="n">
         <v>2.36</v>
@@ -15517,10 +15517,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G112" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H112" t="n">
         <v>4</v>
@@ -15568,7 +15568,7 @@
         <v>1.31</v>
       </c>
       <c r="W112" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X112" t="n">
         <v>26</v>
@@ -15652,19 +15652,19 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G113" t="n">
         <v>3.05</v>
       </c>
       <c r="H113" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I113" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J113" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K113" t="n">
         <v>3.25</v>
@@ -15679,7 +15679,7 @@
         <v>3.15</v>
       </c>
       <c r="O113" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P113" t="n">
         <v>1.71</v>
@@ -15700,10 +15700,10 @@
         <v>2</v>
       </c>
       <c r="V113" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W113" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X113" t="n">
         <v>10</v>
@@ -15712,7 +15712,7 @@
         <v>9.6</v>
       </c>
       <c r="Z113" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA113" t="n">
         <v>42</v>
@@ -15790,7 +15790,7 @@
         <v>5.6</v>
       </c>
       <c r="G114" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H114" t="n">
         <v>1.75</v>
@@ -15838,13 +15838,13 @@
         <v>2.28</v>
       </c>
       <c r="W114" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X114" t="n">
         <v>15</v>
       </c>
       <c r="Y114" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z114" t="n">
         <v>10.5</v>
@@ -15892,7 +15892,7 @@
         <v>80</v>
       </c>
       <c r="AO114" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -15928,13 +15928,13 @@
         <v>3.3</v>
       </c>
       <c r="H115" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I115" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="J115" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K115" t="n">
         <v>3.25</v>
@@ -15946,7 +15946,7 @@
         <v>1.12</v>
       </c>
       <c r="N115" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O115" t="n">
         <v>1.59</v>
@@ -15970,7 +15970,7 @@
         <v>1.73</v>
       </c>
       <c r="V115" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W115" t="n">
         <v>1.43</v>
@@ -16060,13 +16060,13 @@
         <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H116" t="n">
         <v>2.62</v>
       </c>
       <c r="I116" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J116" t="n">
         <v>3.1</v>
@@ -16075,7 +16075,7 @@
         <v>3.3</v>
       </c>
       <c r="L116" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M116" t="n">
         <v>1.1</v>
@@ -16087,7 +16087,7 @@
         <v>1.42</v>
       </c>
       <c r="P116" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q116" t="n">
         <v>2.26</v>
@@ -16105,7 +16105,7 @@
         <v>2.06</v>
       </c>
       <c r="V116" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W116" t="n">
         <v>1.45</v>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G117" t="n">
         <v>2.68</v>
@@ -16216,13 +16216,13 @@
         <v>1.01</v>
       </c>
       <c r="N117" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O117" t="n">
         <v>1.3</v>
       </c>
       <c r="P117" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="Q117" t="n">
         <v>1.86</v>
@@ -16246,7 +16246,7 @@
         <v>1.59</v>
       </c>
       <c r="X117" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y117" t="n">
         <v>970</v>
@@ -16351,13 +16351,13 @@
         <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="O118" t="n">
         <v>1.09</v>
       </c>
       <c r="P118" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="Q118" t="n">
         <v>1.09</v>
@@ -16486,19 +16486,19 @@
         <v>1.01</v>
       </c>
       <c r="N119" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="O119" t="n">
         <v>1.06</v>
       </c>
       <c r="P119" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q119" t="n">
         <v>1.06</v>
       </c>
       <c r="R119" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="S119" t="n">
         <v>1.06</v>
@@ -16597,16 +16597,16 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="G120" t="n">
         <v>6.4</v>
       </c>
       <c r="H120" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I120" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="J120" t="n">
         <v>3.85</v>
@@ -16615,7 +16615,7 @@
         <v>5.1</v>
       </c>
       <c r="L120" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M120" t="n">
         <v>1.05</v>
@@ -16627,31 +16627,31 @@
         <v>1.27</v>
       </c>
       <c r="P120" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q120" t="n">
         <v>1.75</v>
       </c>
       <c r="R120" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S120" t="n">
         <v>2.88</v>
       </c>
       <c r="T120" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U120" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V120" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W120" t="n">
         <v>1.19</v>
       </c>
       <c r="X120" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y120" t="n">
         <v>11.5</v>
@@ -16660,10 +16660,10 @@
         <v>13.5</v>
       </c>
       <c r="AA120" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB120" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC120" t="n">
         <v>11.5</v>
@@ -16675,31 +16675,31 @@
         <v>22</v>
       </c>
       <c r="AF120" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG120" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH120" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI120" t="n">
         <v>40</v>
       </c>
       <c r="AJ120" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK120" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL120" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM120" t="n">
         <v>120</v>
       </c>
       <c r="AN120" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO120" t="n">
         <v>11.5</v>
@@ -16870,7 +16870,7 @@
         <v>1.91</v>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H122" t="n">
         <v>3.85</v>
@@ -16891,22 +16891,22 @@
         <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O122" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P122" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q122" t="n">
         <v>1.8</v>
       </c>
       <c r="R122" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S122" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T122" t="n">
         <v>1.73</v>
@@ -16918,7 +16918,7 @@
         <v>1.29</v>
       </c>
       <c r="W122" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="X122" t="n">
         <v>17.5</v>
@@ -16963,7 +16963,7 @@
         <v>22</v>
       </c>
       <c r="AL122" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM122" t="n">
         <v>110</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.95</v>
       </c>
-      <c r="I2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="G3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="I3" t="n">
         <v>1.55</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>7.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.1</v>
@@ -835,79 +835,79 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="S3" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
         <v>970</v>
       </c>
       <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
         <v>970</v>
       </c>
-      <c r="AB3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
       <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
         <v>970</v>
       </c>
-      <c r="AE3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>22</v>
-      </c>
       <c r="AI3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
         <v>60</v>
       </c>
-      <c r="AM3" t="n">
-        <v>65</v>
-      </c>
       <c r="AN3" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4">
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I4" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" t="n">
         <v>1.45</v>
@@ -976,16 +976,16 @@
         <v>1.71</v>
       </c>
       <c r="S4" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="W4" t="n">
         <v>1.13</v>
@@ -1003,19 +1003,19 @@
         <v>16.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
         <v>970</v>
       </c>
       <c r="AF4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
         <v>36</v>
@@ -1033,7 +1033,7 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.36</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.6</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
         <v>2.62</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
         <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.48</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.47</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1282,7 +1282,7 @@
         <v>15.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
         <v>23</v>
@@ -1297,7 +1297,7 @@
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
         <v>42</v>
@@ -1312,7 +1312,7 @@
         <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G7" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
         <v>5.7</v>
@@ -1366,52 +1366,52 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
         <v>1.56</v>
       </c>
       <c r="S7" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
         <v>12.5</v>
@@ -1420,31 +1420,31 @@
         <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
         <v>34</v>
       </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>36</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AK7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AO7" t="n">
         <v>6.8</v>
@@ -1477,52 +1477,52 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G8" t="n">
         <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
         <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
         <v>1.46</v>
@@ -1534,7 +1534,7 @@
         <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,13 +1543,13 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,7 +1558,7 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.84</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.82</v>
       </c>
       <c r="I9" t="n">
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1642,7 +1642,7 @@
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
         <v>2.02</v>
@@ -1660,7 +1660,7 @@
         <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W9" t="n">
         <v>1.55</v>
@@ -1672,7 +1672,7 @@
         <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>60</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
         <v>40</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I10" t="n">
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.45</v>
@@ -1795,7 +1795,7 @@
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
         <v>1.56</v>
@@ -1906,25 +1906,25 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
         <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="n">
         <v>2.42</v>
@@ -1933,7 +1933,7 @@
         <v>1.78</v>
       </c>
       <c r="W11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1945,7 +1945,7 @@
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
@@ -1969,7 +1969,7 @@
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G12" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
         <v>1.76</v>
       </c>
       <c r="I12" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AO12" t="n">
         <v>970</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.42</v>
       </c>
       <c r="I13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.28</v>
@@ -2176,52 +2176,52 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q13" t="n">
         <v>1.61</v>
       </c>
       <c r="R13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U13" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="V13" t="n">
         <v>1.69</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
         <v>12.5</v>
@@ -2230,19 +2230,19 @@
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2257,7 +2257,7 @@
         <v>18.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,79 +2287,79 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="I14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q14" t="n">
         <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S14" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
         <v>1.25</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA14" t="n">
         <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
         <v>20</v>
@@ -2368,31 +2368,31 @@
         <v>48</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK14" t="n">
         <v>60</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="15">
@@ -2422,73 +2422,73 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G15" t="n">
         <v>3.2</v>
       </c>
-      <c r="G15" t="n">
-        <v>3.35</v>
-      </c>
       <c r="H15" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="I15" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
         <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W15" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
         <v>7.8</v>
@@ -2497,7 +2497,7 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
         <v>22</v>
@@ -2506,16 +2506,16 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL15" t="n">
         <v>60</v>
@@ -2524,10 +2524,10 @@
         <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -2560,46 +2560,46 @@
         <v>1.54</v>
       </c>
       <c r="G16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="S16" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
         <v>1.01</v>
@@ -2620,13 +2620,13 @@
         <v>65</v>
       </c>
       <c r="AA16" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
         <v>29</v>
@@ -2641,10 +2641,10 @@
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
         <v>19</v>
@@ -2659,10 +2659,10 @@
         <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -2695,19 +2695,19 @@
         <v>1.65</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I17" t="n">
         <v>6.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,97 +2827,97 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="G18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I18" t="n">
         <v>9</v>
       </c>
-      <c r="I18" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="J18" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
         <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
         <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V18" t="n">
         <v>1.12</v>
       </c>
       <c r="W18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
         <v>16</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG18" t="n">
         <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK18" t="n">
         <v>16</v>
@@ -2926,7 +2926,7 @@
         <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
         <v>7.6</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G19" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>2.88</v>
@@ -2980,13 +2980,13 @@
         <v>3.35</v>
       </c>
       <c r="L19" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="O19" t="n">
         <v>1.48</v>
@@ -3001,19 +3001,19 @@
         <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
         <v>1.81</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X19" t="n">
         <v>11.5</v>
@@ -3037,7 +3037,7 @@
         <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
@@ -3049,13 +3049,13 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
         <v>50</v>
       </c>
       <c r="AK19" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="n">
         <v>70</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
         <v>2.26</v>
@@ -3106,10 +3106,10 @@
         <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
         <v>4.1</v>
@@ -3145,7 +3145,7 @@
         <v>2.28</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
         <v>1.79</v>
@@ -3238,7 +3238,7 @@
         <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I21" t="n">
         <v>1000</v>
@@ -3370,13 +3370,13 @@
         <v>2.54</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
         <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
         <v>2.74</v>
@@ -3391,7 +3391,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="O22" t="n">
         <v>1.41</v>
@@ -3406,7 +3406,7 @@
         <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
         <v>1.86</v>
@@ -3418,7 +3418,7 @@
         <v>1.41</v>
       </c>
       <c r="W22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G23" t="n">
         <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
         <v>4.4</v>
@@ -3535,13 +3535,13 @@
         <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
         <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T23" t="n">
         <v>1.6</v>
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J24" t="n">
         <v>3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.74</v>
       </c>
       <c r="K24" t="n">
         <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.84</v>
+        <v>3.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P24" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
-        <v>1.92</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W24" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
@@ -3697,13 +3697,13 @@
         <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA24" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
         <v>9.6</v>
@@ -3712,13 +3712,13 @@
         <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -3727,10 +3727,10 @@
         <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL24" t="n">
         <v>50</v>
@@ -3739,10 +3739,10 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G25" t="n">
         <v>1.77</v>
@@ -3784,34 +3784,34 @@
         <v>7.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
         <v>5.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O25" t="n">
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
         <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="T25" t="n">
         <v>1.73</v>
@@ -3823,7 +3823,7 @@
         <v>1.15</v>
       </c>
       <c r="W25" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="X25" t="n">
         <v>19</v>
@@ -3922,7 +3922,7 @@
         <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.25</v>
@@ -3943,10 +3943,10 @@
         <v>1.51</v>
       </c>
       <c r="R26" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S26" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="T26" t="n">
         <v>1.59</v>
@@ -4066,16 +4066,16 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R27" t="n">
         <v>1.6</v>
@@ -4084,7 +4084,7 @@
         <v>2.48</v>
       </c>
       <c r="T27" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U27" t="n">
         <v>2.24</v>
@@ -4105,7 +4105,7 @@
         <v>60</v>
       </c>
       <c r="AA27" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB27" t="n">
         <v>12</v>
@@ -4183,7 +4183,7 @@
         <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I28" t="n">
         <v>5.3</v>
@@ -4192,16 +4192,16 @@
         <v>3.85</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O28" t="n">
         <v>1.33</v>
@@ -4216,19 +4216,19 @@
         <v>1.37</v>
       </c>
       <c r="S28" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
         <v>1.84</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V28" t="n">
         <v>1.23</v>
       </c>
       <c r="W28" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X28" t="n">
         <v>15.5</v>
@@ -4246,7 +4246,7 @@
         <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>21</v>
@@ -4273,7 +4273,7 @@
         <v>20</v>
       </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
         <v>140</v>
@@ -4282,7 +4282,7 @@
         <v>12.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="G29" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I29" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="J29" t="n">
         <v>4.1</v>
@@ -4336,88 +4336,88 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.8</v>
+        <v>2.32</v>
       </c>
       <c r="O29" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
         <v>2.32</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S29" t="n">
-        <v>2.72</v>
+        <v>1.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="U29" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="V29" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB29" t="n">
         <v>11</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
         <v>22</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AI29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO29" t="n">
         <v>65</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -4447,64 +4447,64 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="H30" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K30" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>1.89</v>
+        <v>4.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
       </c>
       <c r="P30" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R30" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="S30" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T30" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="U30" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V30" t="n">
         <v>1.13</v>
       </c>
       <c r="W30" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD30" t="n">
         <v>32</v>
@@ -4528,19 +4528,19 @@
         <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="G31" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L31" t="n">
         <v>1.28</v>
@@ -4609,19 +4609,19 @@
         <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R31" t="n">
         <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="T31" t="n">
         <v>1.72</v>
@@ -4630,10 +4630,10 @@
         <v>2.28</v>
       </c>
       <c r="V31" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X31" t="n">
         <v>20</v>
@@ -4651,7 +4651,7 @@
         <v>11.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
         <v>18.5</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.8</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.82</v>
       </c>
       <c r="H32" t="n">
         <v>4.4</v>
@@ -4732,10 +4732,10 @@
         <v>4.4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -4747,13 +4747,13 @@
         <v>1.15</v>
       </c>
       <c r="P32" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R32" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="S32" t="n">
         <v>2.16</v>
@@ -4762,13 +4762,13 @@
         <v>1.54</v>
       </c>
       <c r="U32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V32" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W32" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X32" t="n">
         <v>38</v>
@@ -4780,7 +4780,7 @@
         <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="n">
         <v>15.5</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G33" t="n">
         <v>2.1</v>
       </c>
-      <c r="G33" t="n">
-        <v>2.12</v>
-      </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
         <v>4.6</v>
@@ -4870,37 +4870,37 @@
         <v>3.35</v>
       </c>
       <c r="L33" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
         <v>1.69</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S33" t="n">
         <v>4.6</v>
       </c>
       <c r="T33" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V33" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
         <v>1.9</v>
@@ -4918,16 +4918,16 @@
         <v>100</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC33" t="n">
         <v>7.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF33" t="n">
         <v>11.5</v>
@@ -4948,10 +4948,10 @@
         <v>25</v>
       </c>
       <c r="AL33" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM33" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN33" t="n">
         <v>21</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G35" t="n">
         <v>1.45</v>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="I35" t="n">
         <v>11.5</v>
@@ -5146,28 +5146,28 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S35" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V35" t="n">
         <v>1.1</v>
@@ -5194,10 +5194,10 @@
         <v>12.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE35" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF35" t="n">
         <v>9.800000000000001</v>
@@ -5209,25 +5209,25 @@
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ35" t="n">
         <v>15</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="n">
         <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN35" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO35" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
@@ -5260,10 +5260,10 @@
         <v>3.45</v>
       </c>
       <c r="G36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H36" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I36" t="n">
         <v>2.36</v>
@@ -5275,7 +5275,7 @@
         <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -5287,7 +5287,7 @@
         <v>1.35</v>
       </c>
       <c r="P36" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="Q36" t="n">
         <v>2.06</v>
@@ -5296,10 +5296,10 @@
         <v>1.31</v>
       </c>
       <c r="S36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U36" t="n">
         <v>2.08</v>
@@ -5308,7 +5308,7 @@
         <v>1.73</v>
       </c>
       <c r="W36" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X36" t="n">
         <v>16</v>
@@ -5359,7 +5359,7 @@
         <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO36" t="n">
         <v>21</v>
@@ -5395,16 +5395,16 @@
         <v>1.8</v>
       </c>
       <c r="G37" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K37" t="n">
         <v>4.4</v>
@@ -5419,19 +5419,19 @@
         <v>4.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P37" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q37" t="n">
         <v>1.69</v>
       </c>
       <c r="R37" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S37" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T37" t="n">
         <v>1.69</v>
@@ -5443,28 +5443,28 @@
         <v>1.26</v>
       </c>
       <c r="W37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y37" t="n">
         <v>24</v>
       </c>
       <c r="Z37" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE37" t="n">
         <v>65</v>
@@ -5476,25 +5476,25 @@
         <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK37" t="n">
         <v>22</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM37" t="n">
         <v>100</v>
       </c>
       <c r="AN37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO37" t="n">
         <v>55</v>
@@ -5530,7 +5530,7 @@
         <v>1.39</v>
       </c>
       <c r="G38" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H38" t="n">
         <v>7.2</v>
@@ -5542,7 +5542,7 @@
         <v>4.1</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.29</v>
@@ -5557,28 +5557,28 @@
         <v>1.26</v>
       </c>
       <c r="P38" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="R38" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S38" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="T38" t="n">
         <v>1.99</v>
       </c>
       <c r="U38" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V38" t="n">
         <v>1.09</v>
       </c>
       <c r="W38" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5593,7 +5593,7 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>1000</v>
@@ -5668,16 +5668,16 @@
         <v>3.15</v>
       </c>
       <c r="H39" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I39" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J39" t="n">
         <v>4.1</v>
       </c>
       <c r="K39" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
         <v>1.27</v>
@@ -5686,34 +5686,34 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O39" t="n">
         <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S39" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T39" t="n">
         <v>1.51</v>
       </c>
       <c r="U39" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="V39" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W39" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X39" t="n">
         <v>27</v>
@@ -5728,7 +5728,7 @@
         <v>34</v>
       </c>
       <c r="AB39" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC39" t="n">
         <v>10</v>
@@ -5737,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF39" t="n">
         <v>27</v>
@@ -5752,7 +5752,7 @@
         <v>26</v>
       </c>
       <c r="AJ39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK39" t="n">
         <v>29</v>
@@ -5803,19 +5803,19 @@
         <v>1.48</v>
       </c>
       <c r="H40" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I40" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J40" t="n">
         <v>5.1</v>
       </c>
       <c r="K40" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -5836,16 +5836,16 @@
         <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T40" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U40" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V40" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W40" t="n">
         <v>3.05</v>
@@ -5881,7 +5881,7 @@
         <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
         <v>95</v>
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G41" t="n">
         <v>2.62</v>
       </c>
       <c r="H41" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
         <v>3.45</v>
@@ -5956,13 +5956,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P41" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q41" t="n">
         <v>2.34</v>
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H42" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
         <v>5.1</v>
@@ -6100,7 +6100,7 @@
         <v>1.67</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R42" t="n">
         <v>1.24</v>
@@ -6109,22 +6109,22 @@
         <v>4.5</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U42" t="n">
         <v>1.81</v>
       </c>
       <c r="V42" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X42" t="n">
         <v>10</v>
       </c>
       <c r="Y42" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z42" t="n">
         <v>38</v>
@@ -6163,7 +6163,7 @@
         <v>25</v>
       </c>
       <c r="AL42" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM42" t="n">
         <v>170</v>
@@ -6172,7 +6172,7 @@
         <v>19.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I43" t="n">
         <v>1.81</v>
@@ -6217,7 +6217,7 @@
         <v>3.6</v>
       </c>
       <c r="K43" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6226,16 +6226,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.7</v>
+        <v>2.92</v>
       </c>
       <c r="O43" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P43" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6340,7 +6340,7 @@
         <v>5.1</v>
       </c>
       <c r="G44" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H44" t="n">
         <v>1.69</v>
@@ -6370,28 +6370,28 @@
         <v>1.53</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R44" t="n">
         <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="T44" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U44" t="n">
         <v>1.63</v>
       </c>
       <c r="V44" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W44" t="n">
         <v>1.16</v>
       </c>
       <c r="X44" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y44" t="n">
         <v>7.2</v>
@@ -6403,7 +6403,7 @@
         <v>20</v>
       </c>
       <c r="AB44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC44" t="n">
         <v>8.800000000000001</v>
@@ -6415,16 +6415,16 @@
         <v>27</v>
       </c>
       <c r="AF44" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG44" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH44" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
         <v>1000</v>
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G45" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H45" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I45" t="n">
         <v>1000</v>
@@ -6496,13 +6496,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O45" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P45" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q45" t="n">
         <v>1.88</v>
@@ -6610,13 +6610,13 @@
         <v>5.5</v>
       </c>
       <c r="G46" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="H46" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I46" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="J46" t="n">
         <v>3.45</v>
@@ -6631,7 +6631,7 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
         <v>1.39</v>
@@ -6643,10 +6643,10 @@
         <v>2.16</v>
       </c>
       <c r="R46" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S46" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T46" t="n">
         <v>2.02</v>
@@ -6655,7 +6655,7 @@
         <v>1.79</v>
       </c>
       <c r="V46" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W46" t="n">
         <v>1.17</v>
@@ -6673,13 +6673,13 @@
         <v>23</v>
       </c>
       <c r="AB46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC46" t="n">
         <v>10</v>
       </c>
       <c r="AD46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE46" t="n">
         <v>26</v>
@@ -6688,7 +6688,7 @@
         <v>60</v>
       </c>
       <c r="AG46" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH46" t="n">
         <v>29</v>
@@ -6745,16 +6745,16 @@
         <v>3.3</v>
       </c>
       <c r="G47" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I47" t="n">
         <v>2.8</v>
       </c>
       <c r="J47" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K47" t="n">
         <v>3.15</v>
@@ -6790,7 +6790,7 @@
         <v>1.71</v>
       </c>
       <c r="V47" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W47" t="n">
         <v>1.37</v>
@@ -6823,7 +6823,7 @@
         <v>27</v>
       </c>
       <c r="AG47" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AH47" t="n">
         <v>30</v>
@@ -6880,7 +6880,7 @@
         <v>1.66</v>
       </c>
       <c r="G48" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H48" t="n">
         <v>6.2</v>
@@ -6889,7 +6889,7 @@
         <v>7.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K48" t="n">
         <v>3.9</v>
@@ -6916,7 +6916,7 @@
         <v>1.32</v>
       </c>
       <c r="S48" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T48" t="n">
         <v>1.98</v>
@@ -6928,13 +6928,13 @@
         <v>1.16</v>
       </c>
       <c r="W48" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X48" t="n">
         <v>13</v>
       </c>
       <c r="Y48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="n">
         <v>55</v>
@@ -7015,19 +7015,19 @@
         <v>1.46</v>
       </c>
       <c r="G49" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="I49" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J49" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L49" t="n">
         <v>1.22</v>
@@ -7036,7 +7036,7 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="O49" t="n">
         <v>1.16</v>
@@ -7045,31 +7045,31 @@
         <v>2.78</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R49" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S49" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T49" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U49" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V49" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W49" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="n">
         <v>1000</v>
@@ -7078,25 +7078,25 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC49" t="n">
         <v>15</v>
       </c>
       <c r="AD49" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG49" t="n">
         <v>13</v>
       </c>
-      <c r="AG49" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH49" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
@@ -7105,16 +7105,16 @@
         <v>970</v>
       </c>
       <c r="AK49" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AL49" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G50" t="n">
         <v>4.3</v>
       </c>
       <c r="H50" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I50" t="n">
         <v>2.26</v>
@@ -7171,13 +7171,13 @@
         <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.33</v>
       </c>
       <c r="P50" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q50" t="n">
         <v>1.96</v>
@@ -7192,7 +7192,7 @@
         <v>1.79</v>
       </c>
       <c r="U50" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V50" t="n">
         <v>1.79</v>
@@ -7282,16 +7282,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I51" t="n">
         <v>2.32</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.34</v>
       </c>
       <c r="J51" t="n">
         <v>3.4</v>
@@ -7306,40 +7306,40 @@
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O51" t="n">
         <v>1.35</v>
       </c>
       <c r="P51" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R51" t="n">
         <v>1.35</v>
       </c>
       <c r="S51" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T51" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U51" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W51" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X51" t="n">
         <v>13</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z51" t="n">
         <v>13.5</v>
@@ -7360,16 +7360,16 @@
         <v>24</v>
       </c>
       <c r="AF51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG51" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH51" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="n">
         <v>65</v>
@@ -7378,16 +7378,16 @@
         <v>40</v>
       </c>
       <c r="AL51" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM51" t="n">
         <v>85</v>
       </c>
       <c r="AN51" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO51" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G52" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H52" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I52" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
@@ -7441,19 +7441,19 @@
         <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P52" t="n">
         <v>2.36</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R52" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S52" t="n">
         <v>2.78</v>
@@ -7465,19 +7465,19 @@
         <v>2.38</v>
       </c>
       <c r="V52" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W52" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X52" t="n">
         <v>20</v>
       </c>
       <c r="Y52" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA52" t="n">
         <v>21</v>
@@ -7498,19 +7498,19 @@
         <v>34</v>
       </c>
       <c r="AG52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH52" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>16</v>
       </c>
       <c r="AI52" t="n">
         <v>27</v>
       </c>
       <c r="AJ52" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK52" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL52" t="n">
         <v>48</v>
@@ -7519,10 +7519,10 @@
         <v>70</v>
       </c>
       <c r="AN52" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="53">
@@ -7558,22 +7558,22 @@
         <v>4.1</v>
       </c>
       <c r="H53" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I53" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K53" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.75</v>
       </c>
       <c r="L53" t="n">
         <v>1.4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
         <v>4.1</v>
@@ -7582,25 +7582,25 @@
         <v>1.3</v>
       </c>
       <c r="P53" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R53" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S53" t="n">
         <v>3.35</v>
       </c>
       <c r="T53" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U53" t="n">
         <v>2.26</v>
       </c>
       <c r="V53" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W53" t="n">
         <v>1.32</v>
@@ -7609,13 +7609,13 @@
         <v>15.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z53" t="n">
         <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB53" t="n">
         <v>15</v>
@@ -7624,10 +7624,10 @@
         <v>8</v>
       </c>
       <c r="AD53" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="n">
         <v>28</v>
@@ -7645,19 +7645,19 @@
         <v>75</v>
       </c>
       <c r="AK53" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL53" t="n">
         <v>55</v>
       </c>
       <c r="AM53" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN53" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO53" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="54">
@@ -7693,10 +7693,10 @@
         <v>2.66</v>
       </c>
       <c r="H54" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J54" t="n">
         <v>3.45</v>
@@ -7705,7 +7705,7 @@
         <v>3.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M54" t="n">
         <v>1.08</v>
@@ -7720,7 +7720,7 @@
         <v>1.92</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R54" t="n">
         <v>1.35</v>
@@ -7735,7 +7735,7 @@
         <v>2.2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W54" t="n">
         <v>1.6</v>
@@ -7750,7 +7750,7 @@
         <v>19</v>
       </c>
       <c r="AA54" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB54" t="n">
         <v>11</v>
@@ -7768,7 +7768,7 @@
         <v>16.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH54" t="n">
         <v>17</v>
@@ -7825,16 +7825,16 @@
         <v>1.67</v>
       </c>
       <c r="G55" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="H55" t="n">
         <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J55" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K55" t="n">
         <v>4.3</v>
@@ -7855,7 +7855,7 @@
         <v>1.96</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R55" t="n">
         <v>1.37</v>
@@ -7864,22 +7864,22 @@
         <v>3.55</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U55" t="n">
         <v>1.94</v>
       </c>
       <c r="V55" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W55" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="X55" t="n">
         <v>14.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z55" t="n">
         <v>48</v>
@@ -7921,7 +7921,7 @@
         <v>38</v>
       </c>
       <c r="AM55" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN55" t="n">
         <v>10.5</v>
@@ -7957,19 +7957,19 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G56" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H56" t="n">
         <v>4.7</v>
       </c>
       <c r="I56" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K56" t="n">
         <v>3.6</v>
@@ -7981,7 +7981,7 @@
         <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O56" t="n">
         <v>1.44</v>
@@ -7990,7 +7990,7 @@
         <v>1.73</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R56" t="n">
         <v>1.26</v>
@@ -7999,25 +7999,25 @@
         <v>4.5</v>
       </c>
       <c r="T56" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U56" t="n">
         <v>1.89</v>
       </c>
       <c r="V56" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W56" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X56" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y56" t="n">
         <v>14</v>
       </c>
       <c r="Z56" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA56" t="n">
         <v>120</v>
@@ -8092,31 +8092,31 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G57" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H57" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="I57" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="J57" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K57" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L57" t="n">
         <v>1.54</v>
       </c>
       <c r="M57" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O57" t="n">
         <v>1.51</v>
@@ -8125,13 +8125,13 @@
         <v>1.65</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="R57" t="n">
         <v>1.23</v>
       </c>
       <c r="S57" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T57" t="n">
         <v>2.2</v>
@@ -8140,13 +8140,13 @@
         <v>1.78</v>
       </c>
       <c r="V57" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W57" t="n">
         <v>1.23</v>
       </c>
       <c r="X57" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y57" t="n">
         <v>6.6</v>
@@ -8164,13 +8164,13 @@
         <v>7.8</v>
       </c>
       <c r="AD57" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE57" t="n">
         <v>24</v>
       </c>
       <c r="AF57" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG57" t="n">
         <v>22</v>
@@ -8185,19 +8185,19 @@
         <v>150</v>
       </c>
       <c r="AK57" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL57" t="n">
         <v>110</v>
       </c>
       <c r="AM57" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN57" t="n">
         <v>140</v>
       </c>
       <c r="AO57" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="58">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G58" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>3.15</v>
@@ -8245,7 +8245,7 @@
         <v>3.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M58" t="n">
         <v>1.1</v>
@@ -8254,55 +8254,55 @@
         <v>3.2</v>
       </c>
       <c r="O58" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P58" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R58" t="n">
         <v>1.27</v>
       </c>
       <c r="S58" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T58" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U58" t="n">
         <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W58" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X58" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y58" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA58" t="n">
         <v>70</v>
       </c>
       <c r="AB58" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD58" t="n">
         <v>14</v>
       </c>
       <c r="AE58" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF58" t="n">
         <v>17</v>
@@ -8311,7 +8311,7 @@
         <v>12.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI58" t="n">
         <v>60</v>
@@ -8323,13 +8323,13 @@
         <v>40</v>
       </c>
       <c r="AL58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM58" t="n">
         <v>150</v>
       </c>
       <c r="AN58" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO58" t="n">
         <v>50</v>
@@ -8395,13 +8395,13 @@
         <v>1.8</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R59" t="n">
         <v>1.3</v>
       </c>
       <c r="S59" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T59" t="n">
         <v>1.81</v>
@@ -8503,19 +8503,19 @@
         <v>1.16</v>
       </c>
       <c r="H60" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="I60" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J60" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K60" t="n">
         <v>15.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M60" t="n">
         <v>1.01</v>
@@ -8524,10 +8524,10 @@
         <v>4.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P60" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="Q60" t="n">
         <v>1.56</v>
@@ -8539,13 +8539,13 @@
         <v>2.42</v>
       </c>
       <c r="T60" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="U60" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V60" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W60" t="n">
         <v>7.2</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G61" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="I61" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J61" t="n">
         <v>6.2</v>
       </c>
       <c r="K61" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L61" t="n">
         <v>1.25</v>
@@ -8656,16 +8656,16 @@
         <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O61" t="n">
         <v>1.21</v>
       </c>
       <c r="P61" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R61" t="n">
         <v>1.51</v>
@@ -8674,25 +8674,25 @@
         <v>2.58</v>
       </c>
       <c r="T61" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U61" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V61" t="n">
         <v>1.04</v>
       </c>
       <c r="W61" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X61" t="n">
         <v>28</v>
       </c>
       <c r="Y61" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z61" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AA61" t="n">
         <v>1000</v>
@@ -8707,7 +8707,7 @@
         <v>1000</v>
       </c>
       <c r="AE61" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AF61" t="n">
         <v>8.800000000000001</v>
@@ -8719,7 +8719,7 @@
         <v>48</v>
       </c>
       <c r="AI61" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AJ61" t="n">
         <v>11</v>
@@ -8731,7 +8731,7 @@
         <v>60</v>
       </c>
       <c r="AM61" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AN61" t="n">
         <v>5.4</v>
@@ -8770,13 +8770,13 @@
         <v>3.45</v>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H62" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I62" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J62" t="n">
         <v>3.65</v>
@@ -8791,19 +8791,19 @@
         <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O62" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P62" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q62" t="n">
         <v>1.83</v>
       </c>
       <c r="R62" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S62" t="n">
         <v>3.1</v>
@@ -8815,10 +8815,10 @@
         <v>2.34</v>
       </c>
       <c r="V62" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W62" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X62" t="n">
         <v>16</v>
@@ -8902,31 +8902,31 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G63" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H63" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="I63" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J63" t="n">
         <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L63" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M63" t="n">
         <v>1.09</v>
       </c>
       <c r="N63" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O63" t="n">
         <v>1.45</v>
@@ -8935,7 +8935,7 @@
         <v>1.6</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R63" t="n">
         <v>1.24</v>
@@ -8950,10 +8950,10 @@
         <v>1.86</v>
       </c>
       <c r="V63" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W63" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="X63" t="n">
         <v>10.5</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G64" t="n">
         <v>2.66</v>
@@ -9055,13 +9055,13 @@
         <v>4.1</v>
       </c>
       <c r="L64" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M64" t="n">
         <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O64" t="n">
         <v>1.24</v>
@@ -9076,16 +9076,16 @@
         <v>1.46</v>
       </c>
       <c r="S64" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T64" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U64" t="n">
         <v>2.36</v>
       </c>
       <c r="V64" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W64" t="n">
         <v>1.6</v>
@@ -9175,64 +9175,64 @@
         <v>1.85</v>
       </c>
       <c r="G65" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H65" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J65" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K65" t="n">
         <v>3.85</v>
       </c>
       <c r="L65" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M65" t="n">
         <v>1.07</v>
       </c>
       <c r="N65" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O65" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P65" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R65" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S65" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T65" t="n">
         <v>1.86</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V65" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W65" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X65" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y65" t="n">
         <v>17</v>
       </c>
       <c r="Z65" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA65" t="n">
         <v>120</v>
@@ -9241,19 +9241,19 @@
         <v>9</v>
       </c>
       <c r="AC65" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD65" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF65" t="n">
         <v>11.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH65" t="n">
         <v>20</v>
@@ -9262,7 +9262,7 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK65" t="n">
         <v>21</v>
@@ -9274,10 +9274,10 @@
         <v>120</v>
       </c>
       <c r="AN65" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO65" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H66" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I66" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J66" t="n">
         <v>3.3</v>
@@ -9331,7 +9331,7 @@
         <v>1.09</v>
       </c>
       <c r="N66" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O66" t="n">
         <v>1.42</v>
@@ -9346,16 +9346,16 @@
         <v>1.28</v>
       </c>
       <c r="S66" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T66" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U66" t="n">
         <v>2.04</v>
       </c>
       <c r="V66" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W66" t="n">
         <v>1.52</v>
@@ -9373,7 +9373,7 @@
         <v>46</v>
       </c>
       <c r="AB66" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC66" t="n">
         <v>7.2</v>
@@ -9445,7 +9445,7 @@
         <v>2.02</v>
       </c>
       <c r="G67" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>4.1</v>
@@ -9457,7 +9457,7 @@
         <v>3.45</v>
       </c>
       <c r="K67" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L67" t="n">
         <v>1.43</v>
@@ -9466,40 +9466,40 @@
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O67" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P67" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R67" t="n">
         <v>1.33</v>
       </c>
       <c r="S67" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T67" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U67" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V67" t="n">
         <v>1.28</v>
       </c>
       <c r="W67" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X67" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y67" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z67" t="n">
         <v>32</v>
@@ -9544,7 +9544,7 @@
         <v>140</v>
       </c>
       <c r="AN67" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO67" t="n">
         <v>1000</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="G68" t="n">
         <v>2.82</v>
       </c>
       <c r="H68" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I68" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="J68" t="n">
         <v>3.15</v>
       </c>
       <c r="K68" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L68" t="n">
         <v>1.43</v>
@@ -9625,7 +9625,7 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W68" t="n">
         <v>1.54</v>
@@ -9652,7 +9652,7 @@
         <v>16.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF68" t="n">
         <v>21</v>
@@ -9727,10 +9727,10 @@
         <v>3.8</v>
       </c>
       <c r="K69" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L69" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M69" t="n">
         <v>1.03</v>
@@ -9847,19 +9847,19 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="G70" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H70" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I70" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J70" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K70" t="n">
         <v>5.2</v>
@@ -9880,13 +9880,13 @@
         <v>1.88</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="R70" t="n">
         <v>1.33</v>
       </c>
       <c r="S70" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T70" t="n">
         <v>2.3</v>
@@ -9895,13 +9895,13 @@
         <v>1.7</v>
       </c>
       <c r="V70" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W70" t="n">
         <v>1.1</v>
       </c>
       <c r="X70" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y70" t="n">
         <v>8.4</v>
@@ -9913,7 +9913,7 @@
         <v>14</v>
       </c>
       <c r="AB70" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AC70" t="n">
         <v>13</v>
@@ -9925,10 +9925,10 @@
         <v>21</v>
       </c>
       <c r="AF70" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AG70" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AH70" t="n">
         <v>1000</v>
@@ -9940,10 +9940,10 @@
         <v>1000</v>
       </c>
       <c r="AK70" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AL70" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AM70" t="n">
         <v>290</v>
@@ -9985,16 +9985,16 @@
         <v>1.85</v>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H71" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I71" t="n">
         <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K71" t="n">
         <v>3.9</v>
@@ -10006,7 +10006,7 @@
         <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O71" t="n">
         <v>1.3</v>
@@ -10021,13 +10021,13 @@
         <v>1.4</v>
       </c>
       <c r="S71" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T71" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U71" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V71" t="n">
         <v>1.25</v>
@@ -10036,25 +10036,25 @@
         <v>2.12</v>
       </c>
       <c r="X71" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y71" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z71" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA71" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB71" t="n">
         <v>9.6</v>
       </c>
       <c r="AC71" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD71" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE71" t="n">
         <v>65</v>
@@ -10066,10 +10066,10 @@
         <v>10.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ71" t="n">
         <v>21</v>
@@ -10081,13 +10081,13 @@
         <v>36</v>
       </c>
       <c r="AM71" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN71" t="n">
         <v>12.5</v>
       </c>
       <c r="AO71" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
@@ -10117,13 +10117,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G72" t="n">
         <v>2.36</v>
       </c>
       <c r="H72" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I72" t="n">
         <v>3.4</v>
@@ -10132,7 +10132,7 @@
         <v>3.7</v>
       </c>
       <c r="K72" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L72" t="n">
         <v>1.28</v>
@@ -10153,13 +10153,13 @@
         <v>1.72</v>
       </c>
       <c r="R72" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S72" t="n">
         <v>2.8</v>
       </c>
       <c r="T72" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U72" t="n">
         <v>2.36</v>
@@ -10207,7 +10207,7 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK72" t="n">
         <v>23</v>
@@ -10252,13 +10252,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G73" t="n">
         <v>1.79</v>
       </c>
       <c r="H73" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I73" t="n">
         <v>4.8</v>
@@ -10267,10 +10267,10 @@
         <v>4.5</v>
       </c>
       <c r="K73" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L73" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M73" t="n">
         <v>1.02</v>
@@ -10282,25 +10282,25 @@
         <v>1.13</v>
       </c>
       <c r="P73" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R73" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T73" t="n">
         <v>1.51</v>
       </c>
       <c r="U73" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V73" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W73" t="n">
         <v>2.26</v>
@@ -10309,10 +10309,10 @@
         <v>46</v>
       </c>
       <c r="Y73" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z73" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA73" t="n">
         <v>110</v>
@@ -10348,7 +10348,7 @@
         <v>18.5</v>
       </c>
       <c r="AL73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM73" t="n">
         <v>60</v>
@@ -10390,13 +10390,13 @@
         <v>1.34</v>
       </c>
       <c r="G74" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H74" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I74" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J74" t="n">
         <v>5.6</v>
@@ -10420,7 +10420,7 @@
         <v>2.78</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="R74" t="n">
         <v>1.87</v>
@@ -10435,10 +10435,10 @@
         <v>2.22</v>
       </c>
       <c r="V74" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W74" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="X74" t="n">
         <v>46</v>
@@ -10489,7 +10489,7 @@
         <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO74" t="n">
         <v>110</v>
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G75" t="n">
         <v>2.92</v>
@@ -10531,7 +10531,7 @@
         <v>2.64</v>
       </c>
       <c r="I75" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J75" t="n">
         <v>3.55</v>
@@ -10546,31 +10546,31 @@
         <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O75" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P75" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R75" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S75" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T75" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U75" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V75" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W75" t="n">
         <v>1.52</v>
@@ -10591,10 +10591,10 @@
         <v>12.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD75" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE75" t="n">
         <v>29</v>
@@ -10687,19 +10687,19 @@
         <v>1.25</v>
       </c>
       <c r="P76" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q76" t="n">
         <v>1.76</v>
       </c>
       <c r="R76" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S76" t="n">
         <v>2.92</v>
       </c>
       <c r="T76" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U76" t="n">
         <v>1.64</v>
@@ -10714,7 +10714,7 @@
         <v>21</v>
       </c>
       <c r="Y76" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z76" t="n">
         <v>180</v>
@@ -10744,16 +10744,16 @@
         <v>40</v>
       </c>
       <c r="AI76" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ76" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK76" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL76" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM76" t="n">
         <v>310</v>
@@ -10795,19 +10795,19 @@
         <v>1.19</v>
       </c>
       <c r="G77" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I77" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="J77" t="n">
         <v>6.2</v>
       </c>
       <c r="K77" t="n">
-        <v>950</v>
+        <v>10</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10816,34 +10816,34 @@
         <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>1.25</v>
+        <v>5.8</v>
       </c>
       <c r="O77" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P77" t="n">
-        <v>1.25</v>
+        <v>2.64</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="R77" t="n">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="S77" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="T77" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U77" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V77" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W77" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="X77" t="n">
         <v>1000</v>
@@ -10885,7 +10885,7 @@
         <v>11</v>
       </c>
       <c r="AK77" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL77" t="n">
         <v>1000</v>
@@ -10894,7 +10894,7 @@
         <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AO77" t="n">
         <v>1000</v>
@@ -10927,10 +10927,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G78" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>4.2</v>
@@ -10939,46 +10939,46 @@
         <v>5.2</v>
       </c>
       <c r="J78" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K78" t="n">
         <v>4.2</v>
       </c>
       <c r="L78" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O78" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P78" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="R78" t="n">
         <v>1.35</v>
       </c>
       <c r="S78" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="T78" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U78" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V78" t="n">
         <v>1.24</v>
       </c>
       <c r="W78" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X78" t="n">
         <v>1000</v>
@@ -11068,13 +11068,13 @@
         <v>2.28</v>
       </c>
       <c r="H79" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J79" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K79" t="n">
         <v>3.95</v>
@@ -11113,7 +11113,7 @@
         <v>1.33</v>
       </c>
       <c r="W79" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -11221,13 +11221,13 @@
         <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O80" t="n">
         <v>1.31</v>
       </c>
       <c r="P80" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q80" t="n">
         <v>1.92</v>
@@ -11248,7 +11248,7 @@
         <v>1.44</v>
       </c>
       <c r="W80" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X80" t="n">
         <v>18</v>
@@ -11257,7 +11257,7 @@
         <v>15.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA80" t="n">
         <v>65</v>
@@ -11272,13 +11272,13 @@
         <v>16.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF80" t="n">
         <v>20</v>
       </c>
       <c r="AG80" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH80" t="n">
         <v>21</v>
@@ -11287,10 +11287,10 @@
         <v>55</v>
       </c>
       <c r="AJ80" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK80" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL80" t="n">
         <v>48</v>
@@ -11299,7 +11299,7 @@
         <v>110</v>
       </c>
       <c r="AN80" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO80" t="n">
         <v>40</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G81" t="n">
         <v>8.800000000000001</v>
@@ -11467,16 +11467,16 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G82" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H82" t="n">
+        <v>7</v>
+      </c>
+      <c r="I82" t="n">
         <v>7.2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7.4</v>
       </c>
       <c r="J82" t="n">
         <v>5</v>
@@ -11485,16 +11485,16 @@
         <v>5.1</v>
       </c>
       <c r="L82" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
         <v>6</v>
       </c>
       <c r="O82" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P82" t="n">
         <v>2.74</v>
@@ -11503,10 +11503,10 @@
         <v>1.56</v>
       </c>
       <c r="R82" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S82" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T82" t="n">
         <v>1.72</v>
@@ -11515,10 +11515,10 @@
         <v>2.3</v>
       </c>
       <c r="V82" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W82" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X82" t="n">
         <v>26</v>
@@ -11545,13 +11545,13 @@
         <v>85</v>
       </c>
       <c r="AF82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG82" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG82" t="n">
-        <v>10</v>
-      </c>
       <c r="AH82" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI82" t="n">
         <v>70</v>
@@ -11569,7 +11569,7 @@
         <v>80</v>
       </c>
       <c r="AN82" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO82" t="n">
         <v>70</v>
@@ -11611,7 +11611,7 @@
         <v>1.93</v>
       </c>
       <c r="I83" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J83" t="n">
         <v>3.75</v>
@@ -11626,16 +11626,16 @@
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O83" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P83" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R83" t="n">
         <v>1.37</v>
@@ -11656,7 +11656,7 @@
         <v>1.27</v>
       </c>
       <c r="X83" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -11698,7 +11698,7 @@
         <v>60</v>
       </c>
       <c r="AL83" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM83" t="n">
         <v>110</v>
@@ -11737,16 +11737,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H84" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I84" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J84" t="n">
         <v>4</v>
@@ -11755,7 +11755,7 @@
         <v>4.1</v>
       </c>
       <c r="L84" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -11773,10 +11773,10 @@
         <v>1.86</v>
       </c>
       <c r="R84" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S84" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T84" t="n">
         <v>1.82</v>
@@ -11788,7 +11788,7 @@
         <v>1.23</v>
       </c>
       <c r="W84" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X84" t="n">
         <v>16</v>
@@ -11803,7 +11803,7 @@
         <v>120</v>
       </c>
       <c r="AB84" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC84" t="n">
         <v>8.800000000000001</v>
@@ -11872,61 +11872,61 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G85" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H85" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="I85" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="J85" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K85" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L85" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M85" t="n">
         <v>1.05</v>
       </c>
       <c r="N85" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O85" t="n">
         <v>1.26</v>
       </c>
       <c r="P85" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R85" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S85" t="n">
         <v>2.96</v>
       </c>
       <c r="T85" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U85" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V85" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W85" t="n">
         <v>1.27</v>
       </c>
       <c r="X85" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y85" t="n">
         <v>11</v>
@@ -11974,7 +11974,7 @@
         <v>1000</v>
       </c>
       <c r="AN85" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO85" t="n">
         <v>11.5</v>
@@ -12007,67 +12007,67 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="G86" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="H86" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I86" t="n">
         <v>8.4</v>
       </c>
       <c r="J86" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K86" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L86" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M86" t="n">
         <v>1.1</v>
       </c>
       <c r="N86" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O86" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="P86" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="Q86" t="n">
         <v>2.28</v>
       </c>
       <c r="R86" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S86" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="T86" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U86" t="n">
         <v>1.64</v>
       </c>
       <c r="V86" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W86" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="X86" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y86" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z86" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA86" t="n">
         <v>1000</v>
@@ -12079,13 +12079,13 @@
         <v>9</v>
       </c>
       <c r="AD86" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE86" t="n">
         <v>1000</v>
       </c>
       <c r="AF86" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AG86" t="n">
         <v>11.5</v>
@@ -12097,19 +12097,19 @@
         <v>1000</v>
       </c>
       <c r="AJ86" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK86" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL86" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM86" t="n">
         <v>1000</v>
       </c>
       <c r="AN86" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO86" t="n">
         <v>1000</v>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="F87" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G87" t="n">
         <v>2.1</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2.12</v>
       </c>
       <c r="H87" t="n">
         <v>3.95</v>
@@ -12166,16 +12166,16 @@
         <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O87" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P87" t="n">
         <v>2.04</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R87" t="n">
         <v>1.4</v>
@@ -12193,10 +12193,10 @@
         <v>1.33</v>
       </c>
       <c r="W87" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X87" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y87" t="n">
         <v>15.5</v>
@@ -12205,7 +12205,7 @@
         <v>28</v>
       </c>
       <c r="AA87" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB87" t="n">
         <v>10</v>
@@ -12244,10 +12244,10 @@
         <v>80</v>
       </c>
       <c r="AN87" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO87" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -12277,16 +12277,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G88" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H88" t="n">
+        <v>27</v>
+      </c>
+      <c r="I88" t="n">
         <v>28</v>
-      </c>
-      <c r="I88" t="n">
-        <v>30</v>
       </c>
       <c r="J88" t="n">
         <v>13.5</v>
@@ -12301,22 +12301,22 @@
         <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="O88" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P88" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R88" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="S88" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T88" t="n">
         <v>2.08</v>
@@ -12328,10 +12328,10 @@
         <v>1.03</v>
       </c>
       <c r="W88" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="X88" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Y88" t="n">
         <v>120</v>
@@ -12343,10 +12343,10 @@
         <v>1000</v>
       </c>
       <c r="AB88" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC88" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AD88" t="n">
         <v>95</v>
@@ -12355,31 +12355,31 @@
         <v>470</v>
       </c>
       <c r="AF88" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG88" t="n">
         <v>16</v>
       </c>
       <c r="AH88" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI88" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ88" t="n">
         <v>9.4</v>
       </c>
       <c r="AK88" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL88" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM88" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN88" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="AO88" t="n">
         <v>1000</v>
@@ -12415,10 +12415,10 @@
         <v>2.28</v>
       </c>
       <c r="G89" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H89" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I89" t="n">
         <v>3.8</v>
@@ -12427,37 +12427,37 @@
         <v>2.94</v>
       </c>
       <c r="K89" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L89" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M89" t="n">
         <v>1.09</v>
       </c>
       <c r="N89" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O89" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P89" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="R89" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S89" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="T89" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U89" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V89" t="n">
         <v>1.35</v>
@@ -12466,49 +12466,49 @@
         <v>1.64</v>
       </c>
       <c r="X89" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y89" t="n">
         <v>12.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA89" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB89" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC89" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD89" t="n">
         <v>18</v>
       </c>
       <c r="AE89" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF89" t="n">
         <v>15.5</v>
       </c>
       <c r="AG89" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ89" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK89" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL89" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM89" t="n">
         <v>140</v>
@@ -12553,7 +12553,7 @@
         <v>1.39</v>
       </c>
       <c r="H90" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="I90" t="n">
         <v>18</v>
@@ -12565,19 +12565,19 @@
         <v>6.2</v>
       </c>
       <c r="L90" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
       </c>
       <c r="N90" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="O90" t="n">
         <v>1.24</v>
       </c>
       <c r="P90" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q90" t="n">
         <v>1.72</v>
@@ -12586,7 +12586,7 @@
         <v>1.45</v>
       </c>
       <c r="S90" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T90" t="n">
         <v>2.18</v>
@@ -12685,10 +12685,10 @@
         <v>1.92</v>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I91" t="n">
         <v>5.5</v>
@@ -12700,28 +12700,28 @@
         <v>3.55</v>
       </c>
       <c r="L91" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="M91" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N91" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="O91" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P91" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="R91" t="n">
         <v>1.18</v>
       </c>
       <c r="S91" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="T91" t="n">
         <v>2.18</v>
@@ -12733,7 +12733,7 @@
         <v>1.22</v>
       </c>
       <c r="W91" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="X91" t="n">
         <v>9</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="G92" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H92" t="n">
         <v>2.38</v>
       </c>
       <c r="I92" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="J92" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="K92" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -12841,16 +12841,16 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1.02</v>
+        <v>2.34</v>
       </c>
       <c r="O92" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P92" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.53</v>
+        <v>2.28</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -12958,7 +12958,7 @@
         <v>2.68</v>
       </c>
       <c r="H93" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I93" t="n">
         <v>2.86</v>
@@ -12967,7 +12967,7 @@
         <v>3.75</v>
       </c>
       <c r="K93" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L93" t="n">
         <v>1.28</v>
@@ -12982,28 +12982,28 @@
         <v>1.23</v>
       </c>
       <c r="P93" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="R93" t="n">
         <v>1.47</v>
       </c>
       <c r="S93" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="T93" t="n">
         <v>1.61</v>
       </c>
       <c r="U93" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V93" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W93" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X93" t="n">
         <v>24</v>
@@ -13018,13 +13018,13 @@
         <v>50</v>
       </c>
       <c r="AB93" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC93" t="n">
         <v>11</v>
       </c>
       <c r="AD93" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE93" t="n">
         <v>34</v>
@@ -13087,16 +13087,16 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G94" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H94" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I94" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J94" t="n">
         <v>3.45</v>
@@ -13120,7 +13120,7 @@
         <v>2.02</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R94" t="n">
         <v>1.4</v>
@@ -13129,16 +13129,16 @@
         <v>3.25</v>
       </c>
       <c r="T94" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U94" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V94" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W94" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X94" t="n">
         <v>18.5</v>
@@ -13153,7 +13153,7 @@
         <v>65</v>
       </c>
       <c r="AB94" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC94" t="n">
         <v>8.199999999999999</v>
@@ -13177,7 +13177,7 @@
         <v>50</v>
       </c>
       <c r="AJ94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK94" t="n">
         <v>25</v>
@@ -13222,22 +13222,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H95" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I95" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="J95" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K95" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L95" t="n">
         <v>1.32</v>
@@ -13246,16 +13246,16 @@
         <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O95" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P95" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R95" t="n">
         <v>1.52</v>
@@ -13264,16 +13264,16 @@
         <v>2.78</v>
       </c>
       <c r="T95" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U95" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V95" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="W95" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X95" t="n">
         <v>19.5</v>
@@ -13291,13 +13291,13 @@
         <v>13.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD95" t="n">
         <v>13.5</v>
       </c>
       <c r="AE95" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AF95" t="n">
         <v>18.5</v>
@@ -13306,13 +13306,13 @@
         <v>12.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI95" t="n">
         <v>36</v>
       </c>
       <c r="AJ95" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK95" t="n">
         <v>25</v>
@@ -13327,7 +13327,7 @@
         <v>17</v>
       </c>
       <c r="AO95" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -13360,13 +13360,13 @@
         <v>2.02</v>
       </c>
       <c r="G96" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H96" t="n">
         <v>3.4</v>
       </c>
       <c r="I96" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J96" t="n">
         <v>3.95</v>
@@ -13375,25 +13375,25 @@
         <v>4.4</v>
       </c>
       <c r="L96" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M96" t="n">
         <v>1.01</v>
       </c>
       <c r="N96" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O96" t="n">
         <v>1.17</v>
       </c>
       <c r="P96" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R96" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S96" t="n">
         <v>2.28</v>
@@ -13405,10 +13405,10 @@
         <v>2.6</v>
       </c>
       <c r="V96" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W96" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X96" t="n">
         <v>29</v>
@@ -13456,7 +13456,7 @@
         <v>27</v>
       </c>
       <c r="AM96" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN96" t="n">
         <v>10</v>
@@ -13492,16 +13492,16 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G97" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H97" t="n">
         <v>2.02</v>
       </c>
       <c r="I97" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J97" t="n">
         <v>3.4</v>
@@ -13519,22 +13519,22 @@
         <v>3.45</v>
       </c>
       <c r="O97" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P97" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q97" t="n">
         <v>1.98</v>
       </c>
       <c r="R97" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S97" t="n">
         <v>3.5</v>
       </c>
       <c r="T97" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U97" t="n">
         <v>2.04</v>
@@ -13543,7 +13543,7 @@
         <v>1.83</v>
       </c>
       <c r="W97" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X97" t="n">
         <v>16.5</v>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G98" t="n">
         <v>23</v>
@@ -13636,7 +13636,7 @@
         <v>1.16</v>
       </c>
       <c r="I98" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J98" t="n">
         <v>8.6</v>
@@ -13645,7 +13645,7 @@
         <v>10</v>
       </c>
       <c r="L98" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M98" t="n">
         <v>1.03</v>
@@ -13663,16 +13663,16 @@
         <v>1.61</v>
       </c>
       <c r="R98" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S98" t="n">
         <v>2.56</v>
       </c>
       <c r="T98" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U98" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="V98" t="n">
         <v>6</v>
@@ -13714,7 +13714,7 @@
         <v>70</v>
       </c>
       <c r="AI98" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ98" t="n">
         <v>1000</v>
@@ -13762,16 +13762,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="G99" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="H99" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I99" t="n">
         <v>1.6</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1.61</v>
       </c>
       <c r="J99" t="n">
         <v>4.2</v>
@@ -13789,10 +13789,10 @@
         <v>3.7</v>
       </c>
       <c r="O99" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P99" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q99" t="n">
         <v>2.04</v>
@@ -13804,25 +13804,25 @@
         <v>3.7</v>
       </c>
       <c r="T99" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U99" t="n">
         <v>1.85</v>
       </c>
       <c r="V99" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W99" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X99" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y99" t="n">
         <v>7.6</v>
       </c>
       <c r="Z99" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA99" t="n">
         <v>14.5</v>
@@ -13843,10 +13843,10 @@
         <v>60</v>
       </c>
       <c r="AG99" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH99" t="n">
         <v>26</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>25</v>
       </c>
       <c r="AI99" t="n">
         <v>44</v>
@@ -13855,16 +13855,16 @@
         <v>230</v>
       </c>
       <c r="AK99" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL99" t="n">
         <v>110</v>
       </c>
       <c r="AM99" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN99" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AO99" t="n">
         <v>9.800000000000001</v>
@@ -13897,10 +13897,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G100" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H100" t="n">
         <v>5.3</v>
@@ -13921,16 +13921,16 @@
         <v>1.06</v>
       </c>
       <c r="N100" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O100" t="n">
         <v>1.3</v>
       </c>
       <c r="P100" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="R100" t="n">
         <v>1.37</v>
@@ -13948,7 +13948,7 @@
         <v>1.2</v>
       </c>
       <c r="W100" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X100" t="n">
         <v>19</v>
@@ -13990,7 +13990,7 @@
         <v>22</v>
       </c>
       <c r="AK100" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL100" t="n">
         <v>1000</v>
@@ -14032,13 +14032,13 @@
         </is>
       </c>
       <c r="F101" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G101" t="n">
         <v>4.9</v>
       </c>
-      <c r="G101" t="n">
-        <v>5</v>
-      </c>
       <c r="H101" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I101" t="n">
         <v>1.76</v>
@@ -14056,16 +14056,16 @@
         <v>1.04</v>
       </c>
       <c r="N101" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O101" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P101" t="n">
         <v>2.48</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R101" t="n">
         <v>1.58</v>
@@ -14074,13 +14074,13 @@
         <v>2.64</v>
       </c>
       <c r="T101" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U101" t="n">
         <v>2.36</v>
       </c>
       <c r="V101" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W101" t="n">
         <v>1.25</v>
@@ -14101,13 +14101,13 @@
         <v>22</v>
       </c>
       <c r="AC101" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD101" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE101" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF101" t="n">
         <v>40</v>
@@ -14119,7 +14119,7 @@
         <v>18</v>
       </c>
       <c r="AI101" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ101" t="n">
         <v>110</v>
@@ -14134,7 +14134,7 @@
         <v>75</v>
       </c>
       <c r="AN101" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO101" t="n">
         <v>7.8</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G102" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H102" t="n">
         <v>5.4</v>
       </c>
       <c r="I102" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J102" t="n">
         <v>3.65</v>
       </c>
       <c r="K102" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L102" t="n">
         <v>1.49</v>
@@ -14197,7 +14197,7 @@
         <v>1.44</v>
       </c>
       <c r="P102" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q102" t="n">
         <v>2.28</v>
@@ -14212,16 +14212,16 @@
         <v>2.06</v>
       </c>
       <c r="U102" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V102" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W102" t="n">
         <v>2.2</v>
       </c>
       <c r="X102" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y102" t="n">
         <v>16.5</v>
@@ -14233,10 +14233,10 @@
         <v>210</v>
       </c>
       <c r="AB102" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AC102" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD102" t="n">
         <v>28</v>
@@ -14257,19 +14257,19 @@
         <v>130</v>
       </c>
       <c r="AJ102" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK102" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL102" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM102" t="n">
         <v>220</v>
       </c>
       <c r="AN102" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO102" t="n">
         <v>1000</v>
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G103" t="n">
         <v>2.82</v>
@@ -14311,31 +14311,31 @@
         <v>2.74</v>
       </c>
       <c r="I103" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J103" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K103" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L103" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M103" t="n">
         <v>1.06</v>
       </c>
       <c r="N103" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O103" t="n">
         <v>1.28</v>
       </c>
       <c r="P103" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="R103" t="n">
         <v>1.38</v>
@@ -14350,13 +14350,13 @@
         <v>2.02</v>
       </c>
       <c r="V103" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W103" t="n">
         <v>1.55</v>
       </c>
       <c r="X103" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y103" t="n">
         <v>1000</v>
@@ -14371,7 +14371,7 @@
         <v>14.5</v>
       </c>
       <c r="AC103" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD103" t="n">
         <v>1000</v>
@@ -14383,7 +14383,7 @@
         <v>1000</v>
       </c>
       <c r="AG103" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH103" t="n">
         <v>1000</v>
@@ -14437,22 +14437,22 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G104" t="n">
         <v>9.4</v>
       </c>
       <c r="H104" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I104" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="J104" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K104" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L104" t="n">
         <v>1.42</v>
@@ -14467,31 +14467,31 @@
         <v>1.36</v>
       </c>
       <c r="P104" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R104" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S104" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T104" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U104" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V104" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="W104" t="n">
         <v>1.11</v>
       </c>
       <c r="X104" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y104" t="n">
         <v>6.8</v>
@@ -14500,7 +14500,7 @@
         <v>7.8</v>
       </c>
       <c r="AA104" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB104" t="n">
         <v>26</v>
@@ -14515,28 +14515,28 @@
         <v>17.5</v>
       </c>
       <c r="AF104" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AG104" t="n">
         <v>36</v>
       </c>
       <c r="AH104" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI104" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ104" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AK104" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AL104" t="n">
         <v>180</v>
       </c>
       <c r="AM104" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN104" t="n">
         <v>300</v>
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G105" t="n">
         <v>10.5</v>
@@ -14581,13 +14581,13 @@
         <v>1.39</v>
       </c>
       <c r="I105" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="J105" t="n">
         <v>5.3</v>
       </c>
       <c r="K105" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L105" t="n">
         <v>1.37</v>
@@ -14599,22 +14599,22 @@
         <v>4.1</v>
       </c>
       <c r="O105" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P105" t="n">
         <v>2.08</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R105" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S105" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T105" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U105" t="n">
         <v>1.74</v>
@@ -14623,13 +14623,13 @@
         <v>3.4</v>
       </c>
       <c r="W105" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X105" t="n">
         <v>18</v>
       </c>
       <c r="Y105" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z105" t="n">
         <v>7.6</v>
@@ -14674,7 +14674,7 @@
         <v>210</v>
       </c>
       <c r="AN105" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AO105" t="n">
         <v>6.8</v>
@@ -14707,16 +14707,16 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G106" t="n">
         <v>3.75</v>
       </c>
       <c r="H106" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="I106" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J106" t="n">
         <v>3.05</v>
@@ -14731,31 +14731,31 @@
         <v>1.08</v>
       </c>
       <c r="N106" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O106" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P106" t="n">
         <v>1.65</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R106" t="n">
         <v>1.23</v>
       </c>
       <c r="S106" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T106" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U106" t="n">
         <v>1.88</v>
       </c>
       <c r="V106" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W106" t="n">
         <v>1.36</v>
@@ -14797,7 +14797,7 @@
         <v>65</v>
       </c>
       <c r="AJ106" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK106" t="n">
         <v>60</v>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="G107" t="n">
         <v>7.6</v>
@@ -14851,28 +14851,28 @@
         <v>1.49</v>
       </c>
       <c r="I107" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J107" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K107" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L107" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M107" t="n">
         <v>1.03</v>
       </c>
       <c r="N107" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="O107" t="n">
         <v>1.2</v>
       </c>
       <c r="P107" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q107" t="n">
         <v>1.59</v>
@@ -14881,13 +14881,13 @@
         <v>1.55</v>
       </c>
       <c r="S107" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="T107" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U107" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V107" t="n">
         <v>2.68</v>
@@ -14911,7 +14911,7 @@
         <v>34</v>
       </c>
       <c r="AC107" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD107" t="n">
         <v>12.5</v>
@@ -14926,7 +14926,7 @@
         <v>32</v>
       </c>
       <c r="AH107" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI107" t="n">
         <v>36</v>
@@ -14938,7 +14938,7 @@
         <v>1000</v>
       </c>
       <c r="AL107" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM107" t="n">
         <v>1000</v>
@@ -14947,7 +14947,7 @@
         <v>1000</v>
       </c>
       <c r="AO107" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="108">
@@ -14977,112 +14977,112 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="H108" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I108" t="n">
         <v>1.87</v>
       </c>
-      <c r="I108" t="n">
-        <v>1.97</v>
-      </c>
       <c r="J108" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K108" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S108" t="n">
         <v>3.8</v>
-      </c>
-      <c r="L108" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M108" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N108" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O108" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P108" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R108" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S108" t="n">
-        <v>3.5</v>
       </c>
       <c r="T108" t="n">
         <v>1.94</v>
       </c>
       <c r="U108" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V108" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="W108" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="X108" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y108" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z108" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA108" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB108" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD108" t="n">
         <v>11</v>
       </c>
       <c r="AE108" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF108" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AG108" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AH108" t="n">
         <v>22</v>
       </c>
       <c r="AI108" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ108" t="n">
         <v>150</v>
       </c>
       <c r="AK108" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL108" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM108" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN108" t="n">
         <v>120</v>
       </c>
       <c r="AO108" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="109">
@@ -15121,7 +15121,7 @@
         <v>2.74</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J109" t="n">
         <v>3.55</v>
@@ -15139,28 +15139,28 @@
         <v>5.8</v>
       </c>
       <c r="O109" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P109" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q109" t="n">
         <v>1.42</v>
       </c>
       <c r="R109" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="S109" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="T109" t="n">
         <v>1.43</v>
       </c>
       <c r="U109" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V109" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W109" t="n">
         <v>1.62</v>
@@ -15181,7 +15181,7 @@
         <v>1000</v>
       </c>
       <c r="AC109" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD109" t="n">
         <v>16.5</v>
@@ -15196,19 +15196,19 @@
         <v>15</v>
       </c>
       <c r="AH109" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI109" t="n">
         <v>1000</v>
       </c>
       <c r="AJ109" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK109" t="n">
         <v>1000</v>
       </c>
       <c r="AL109" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM109" t="n">
         <v>1000</v>
@@ -15217,7 +15217,7 @@
         <v>14</v>
       </c>
       <c r="AO109" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="110">
@@ -15247,10 +15247,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>2.36</v>
@@ -15262,7 +15262,7 @@
         <v>3.95</v>
       </c>
       <c r="K110" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L110" t="n">
         <v>1.28</v>
@@ -15286,10 +15286,10 @@
         <v>1.65</v>
       </c>
       <c r="S110" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T110" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U110" t="n">
         <v>2.72</v>
@@ -15298,7 +15298,7 @@
         <v>1.7</v>
       </c>
       <c r="W110" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X110" t="n">
         <v>25</v>
@@ -15382,16 +15382,16 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="G111" t="n">
         <v>1.37</v>
       </c>
       <c r="H111" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I111" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J111" t="n">
         <v>5.4</v>
@@ -15406,34 +15406,34 @@
         <v>1.05</v>
       </c>
       <c r="N111" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O111" t="n">
         <v>1.25</v>
       </c>
       <c r="P111" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T111" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q111" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R111" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S111" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T111" t="n">
-        <v>1.98</v>
-      </c>
       <c r="U111" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="V111" t="n">
         <v>1.08</v>
       </c>
       <c r="W111" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X111" t="n">
         <v>1000</v>
@@ -15442,7 +15442,7 @@
         <v>1000</v>
       </c>
       <c r="Z111" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA111" t="n">
         <v>1000</v>
@@ -15457,10 +15457,10 @@
         <v>1000</v>
       </c>
       <c r="AE111" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF111" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG111" t="n">
         <v>1000</v>
@@ -15469,7 +15469,7 @@
         <v>1000</v>
       </c>
       <c r="AI111" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ111" t="n">
         <v>11</v>
@@ -15520,19 +15520,19 @@
         <v>2.78</v>
       </c>
       <c r="G112" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H112" t="n">
         <v>2.32</v>
       </c>
       <c r="I112" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J112" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K112" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
@@ -15556,10 +15556,10 @@
         <v>1.5</v>
       </c>
       <c r="S112" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="T112" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U112" t="n">
         <v>1.01</v>
@@ -15568,28 +15568,28 @@
         <v>1.58</v>
       </c>
       <c r="W112" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X112" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="Y112" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="Z112" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AA112" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB112" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AC112" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AD112" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE112" t="n">
         <v>50</v>
@@ -15598,7 +15598,7 @@
         <v>65</v>
       </c>
       <c r="AG112" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AH112" t="n">
         <v>27</v>
@@ -15607,7 +15607,7 @@
         <v>85</v>
       </c>
       <c r="AJ112" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK112" t="n">
         <v>55</v>
@@ -15616,7 +15616,7 @@
         <v>90</v>
       </c>
       <c r="AM112" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN112" t="n">
         <v>80</v>
@@ -15652,19 +15652,19 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H113" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="I113" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="J113" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K113" t="n">
         <v>1000</v>
@@ -15676,22 +15676,22 @@
         <v>1.01</v>
       </c>
       <c r="N113" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="O113" t="n">
         <v>1.09</v>
       </c>
       <c r="P113" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="R113" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="S113" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="T113" t="n">
         <v>1.01</v>
@@ -15703,7 +15703,7 @@
         <v>1.01</v>
       </c>
       <c r="W113" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X113" t="n">
         <v>1000</v>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="G114" t="n">
         <v>970</v>
@@ -15922,16 +15922,16 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G115" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H115" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I115" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J115" t="n">
         <v>3.5</v>
@@ -15949,19 +15949,19 @@
         <v>3.2</v>
       </c>
       <c r="O115" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P115" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R115" t="n">
         <v>1.29</v>
       </c>
       <c r="S115" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T115" t="n">
         <v>1.9</v>
@@ -15970,16 +15970,16 @@
         <v>1.96</v>
       </c>
       <c r="V115" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W115" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="X115" t="n">
         <v>970</v>
       </c>
       <c r="Y115" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z115" t="n">
         <v>28</v>
@@ -16000,7 +16000,7 @@
         <v>55</v>
       </c>
       <c r="AF115" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG115" t="n">
         <v>11.5</v>
@@ -16024,7 +16024,7 @@
         <v>150</v>
       </c>
       <c r="AN115" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AO115" t="n">
         <v>80</v>
@@ -16195,19 +16195,19 @@
         <v>3.7</v>
       </c>
       <c r="G117" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
         <v>2.12</v>
       </c>
       <c r="I117" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J117" t="n">
         <v>3.45</v>
       </c>
       <c r="K117" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -16216,16 +16216,16 @@
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="O117" t="n">
         <v>1.44</v>
       </c>
       <c r="P117" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="G118" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="H118" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K118" t="n">
         <v>4</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4</v>
-      </c>
-      <c r="K118" t="n">
-        <v>4.1</v>
       </c>
       <c r="L118" t="n">
         <v>1.27</v>
@@ -16354,7 +16354,7 @@
         <v>6.2</v>
       </c>
       <c r="O118" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P118" t="n">
         <v>2.74</v>
@@ -16366,61 +16366,61 @@
         <v>1.71</v>
       </c>
       <c r="S118" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T118" t="n">
         <v>1.53</v>
       </c>
       <c r="U118" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V118" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W118" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="X118" t="n">
         <v>26</v>
       </c>
       <c r="Y118" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z118" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA118" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB118" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD118" t="n">
         <v>15</v>
       </c>
-      <c r="AC118" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE118" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF118" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG118" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH118" t="n">
         <v>14.5</v>
       </c>
       <c r="AI118" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ118" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK118" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AL118" t="n">
         <v>24</v>
@@ -16429,7 +16429,7 @@
         <v>55</v>
       </c>
       <c r="AN118" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AO118" t="n">
         <v>25</v>
@@ -16462,16 +16462,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G119" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H119" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I119" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="J119" t="n">
         <v>3.25</v>
@@ -16480,7 +16480,7 @@
         <v>3.3</v>
       </c>
       <c r="L119" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M119" t="n">
         <v>1.1</v>
@@ -16489,10 +16489,10 @@
         <v>3.15</v>
       </c>
       <c r="O119" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P119" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q119" t="n">
         <v>2.32</v>
@@ -16504,70 +16504,70 @@
         <v>4.5</v>
       </c>
       <c r="T119" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U119" t="n">
         <v>2</v>
       </c>
       <c r="V119" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W119" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="X119" t="n">
         <v>10.5</v>
       </c>
       <c r="Y119" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z119" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AA119" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AB119" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC119" t="n">
         <v>7</v>
       </c>
       <c r="AD119" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE119" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF119" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AG119" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH119" t="n">
         <v>19.5</v>
       </c>
       <c r="AI119" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ119" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK119" t="n">
         <v>40</v>
       </c>
       <c r="AL119" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM119" t="n">
         <v>130</v>
       </c>
       <c r="AN119" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO119" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
@@ -16603,13 +16603,13 @@
         <v>6.4</v>
       </c>
       <c r="H120" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="I120" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J120" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K120" t="n">
         <v>4.3</v>
@@ -16633,19 +16633,19 @@
         <v>1.82</v>
       </c>
       <c r="R120" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S120" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T120" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U120" t="n">
         <v>2.1</v>
       </c>
       <c r="V120" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="W120" t="n">
         <v>1.18</v>
@@ -16654,7 +16654,7 @@
         <v>16.5</v>
       </c>
       <c r="Y120" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z120" t="n">
         <v>9.800000000000001</v>
@@ -16669,7 +16669,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD120" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE120" t="n">
         <v>16</v>
@@ -16687,7 +16687,7 @@
         <v>32</v>
       </c>
       <c r="AJ120" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK120" t="n">
         <v>80</v>
@@ -16699,10 +16699,10 @@
         <v>110</v>
       </c>
       <c r="AN120" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO120" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="121">
@@ -16750,10 +16750,10 @@
         <v>3.1</v>
       </c>
       <c r="L121" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="M121" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N121" t="n">
         <v>2.52</v>
@@ -16765,7 +16765,7 @@
         <v>1.52</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="R121" t="n">
         <v>1.17</v>
@@ -16777,7 +16777,7 @@
         <v>2.18</v>
       </c>
       <c r="U121" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V121" t="n">
         <v>1.6</v>
@@ -16795,7 +16795,7 @@
         <v>15</v>
       </c>
       <c r="AA121" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB121" t="n">
         <v>9</v>
@@ -16831,10 +16831,10 @@
         <v>85</v>
       </c>
       <c r="AM121" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN121" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO121" t="n">
         <v>44</v>
@@ -16873,13 +16873,13 @@
         <v>3.1</v>
       </c>
       <c r="H122" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I122" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J122" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K122" t="n">
         <v>3.35</v>
@@ -16891,19 +16891,19 @@
         <v>1.1</v>
       </c>
       <c r="N122" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O122" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P122" t="n">
         <v>1.68</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R122" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S122" t="n">
         <v>4.4</v>
@@ -16912,10 +16912,10 @@
         <v>1.91</v>
       </c>
       <c r="U122" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V122" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W122" t="n">
         <v>1.47</v>
@@ -16927,7 +16927,7 @@
         <v>11.5</v>
       </c>
       <c r="Z122" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA122" t="n">
         <v>44</v>
@@ -16939,7 +16939,7 @@
         <v>7.4</v>
       </c>
       <c r="AD122" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE122" t="n">
         <v>36</v>
@@ -16969,7 +16969,7 @@
         <v>130</v>
       </c>
       <c r="AN122" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO122" t="n">
         <v>36</v>
@@ -17005,13 +17005,13 @@
         <v>1.36</v>
       </c>
       <c r="G123" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H123" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I123" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J123" t="n">
         <v>4.5</v>
@@ -17020,40 +17020,40 @@
         <v>6.4</v>
       </c>
       <c r="L123" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M123" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N123" t="n">
         <v>3.6</v>
       </c>
       <c r="O123" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P123" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="Q123" t="n">
         <v>1.98</v>
       </c>
       <c r="R123" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S123" t="n">
-        <v>2.92</v>
+        <v>1.98</v>
       </c>
       <c r="T123" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="U123" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="V123" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W123" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X123" t="n">
         <v>970</v>
@@ -17074,7 +17074,7 @@
         <v>970</v>
       </c>
       <c r="AD123" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE123" t="n">
         <v>1000</v>
@@ -17092,7 +17092,7 @@
         <v>1000</v>
       </c>
       <c r="AJ123" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK123" t="n">
         <v>970</v>
@@ -17104,7 +17104,7 @@
         <v>1000</v>
       </c>
       <c r="AN123" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO123" t="n">
         <v>1000</v>
@@ -17137,22 +17137,22 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="G124" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="H124" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="I124" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J124" t="n">
         <v>3.85</v>
       </c>
       <c r="K124" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L124" t="n">
         <v>1.3</v>
@@ -17161,31 +17161,31 @@
         <v>1.05</v>
       </c>
       <c r="N124" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="O124" t="n">
         <v>1.27</v>
       </c>
       <c r="P124" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R124" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S124" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="T124" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U124" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V124" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="W124" t="n">
         <v>1.2</v>
@@ -17194,10 +17194,10 @@
         <v>20</v>
       </c>
       <c r="Y124" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z124" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA124" t="n">
         <v>22</v>
@@ -17218,28 +17218,28 @@
         <v>55</v>
       </c>
       <c r="AG124" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH124" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI124" t="n">
         <v>40</v>
       </c>
       <c r="AJ124" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK124" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL124" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM124" t="n">
         <v>120</v>
       </c>
       <c r="AN124" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO124" t="n">
         <v>12</v>
@@ -17281,7 +17281,7 @@
         <v>2.72</v>
       </c>
       <c r="I125" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J125" t="n">
         <v>3.6</v>
@@ -17290,19 +17290,19 @@
         <v>4.1</v>
       </c>
       <c r="L125" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M125" t="n">
         <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O125" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P125" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q125" t="n">
         <v>1.93</v>
@@ -17311,7 +17311,7 @@
         <v>1.35</v>
       </c>
       <c r="S125" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T125" t="n">
         <v>1.73</v>
@@ -17320,13 +17320,13 @@
         <v>2.14</v>
       </c>
       <c r="V125" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W125" t="n">
         <v>1.59</v>
       </c>
       <c r="X125" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y125" t="n">
         <v>13.5</v>
@@ -17359,7 +17359,7 @@
         <v>21</v>
       </c>
       <c r="AI125" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ125" t="n">
         <v>48</v>
@@ -17416,7 +17416,7 @@
         <v>1.09</v>
       </c>
       <c r="I126" t="n">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="J126" t="n">
         <v>1.09</v>
@@ -17437,13 +17437,13 @@
         <v>1.08</v>
       </c>
       <c r="P126" t="n">
-        <v>2.36</v>
+        <v>1.64</v>
       </c>
       <c r="Q126" t="n">
         <v>1.08</v>
       </c>
       <c r="R126" t="n">
-        <v>2.36</v>
+        <v>1.64</v>
       </c>
       <c r="S126" t="n">
         <v>1.09</v>
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G128" t="n">
         <v>2.06</v>
@@ -17689,13 +17689,13 @@
         <v>4.2</v>
       </c>
       <c r="J128" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K128" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L128" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M128" t="n">
         <v>1.06</v>
@@ -17716,7 +17716,7 @@
         <v>1.42</v>
       </c>
       <c r="S128" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T128" t="n">
         <v>1.68</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
@@ -670,22 +670,22 @@
         <v>1.82</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -694,34 +694,34 @@
         <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
         <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.4</v>
+        <v>990</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -805,16 +805,16 @@
         <v>6.2</v>
       </c>
       <c r="G3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J3" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
         <v>7.2</v>
@@ -826,7 +826,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.11</v>
@@ -838,7 +838,7 @@
         <v>1.32</v>
       </c>
       <c r="R3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.83</v>
@@ -847,13 +847,13 @@
         <v>1.54</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -901,13 +901,13 @@
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -943,28 +943,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L4" t="n">
         <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
         <v>2.5</v>
@@ -982,10 +982,10 @@
         <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="W4" t="n">
         <v>1.12</v>
@@ -1009,7 +1009,7 @@
         <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
         <v>970</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
         <v>990</v>
@@ -1087,7 +1087,7 @@
         <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.37</v>
@@ -1105,7 +1105,7 @@
         <v>1.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
         <v>1.34</v>
@@ -1120,10 +1120,10 @@
         <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
@@ -1252,7 +1252,7 @@
         <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.5</v>
@@ -1276,7 +1276,7 @@
         <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>14.5</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="G7" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
         <v>5.5</v>
@@ -1363,7 +1363,7 @@
         <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>5.1</v>
@@ -1375,7 +1375,7 @@
         <v>2.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
         <v>1.57</v>
@@ -1384,49 +1384,49 @@
         <v>2.42</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="W7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF7" t="n">
         <v>450</v>
       </c>
       <c r="AG7" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>32</v>
@@ -1447,7 +1447,7 @@
         <v>200</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I8" t="n">
         <v>3.05</v>
@@ -1510,7 +1510,7 @@
         <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
         <v>1.3</v>
@@ -1525,10 +1525,10 @@
         <v>2</v>
       </c>
       <c r="V8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.49</v>
       </c>
       <c r="X8" t="n">
         <v>23</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
@@ -1630,7 +1630,7 @@
         <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1660,7 +1660,7 @@
         <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
         <v>1.56</v>
@@ -1711,10 +1711,10 @@
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
         <v>38</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G10" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -1795,25 +1795,25 @@
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8</v>
@@ -1825,10 +1825,10 @@
         <v>38</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
         <v>18.5</v>
@@ -1837,22 +1837,22 @@
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL10" t="n">
         <v>50</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>60</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G11" t="n">
         <v>4.1</v>
@@ -1903,10 +1903,10 @@
         <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
@@ -1921,7 +1921,7 @@
         <v>1.55</v>
       </c>
       <c r="S11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.58</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="n">
         <v>990</v>
@@ -1960,7 +1960,7 @@
         <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="n">
         <v>18.5</v>
@@ -2026,13 +2026,13 @@
         <v>1.77</v>
       </c>
       <c r="I12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="J12" t="n">
         <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2050,19 +2050,19 @@
         <v>1.87</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
         <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
         <v>2.1</v>
@@ -2071,19 +2071,19 @@
         <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
         <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
         <v>970</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AC12" t="n">
         <v>42</v>
@@ -2095,7 +2095,7 @@
         <v>970</v>
       </c>
       <c r="AF12" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="n">
         <v>990</v>
@@ -2104,25 +2104,25 @@
         <v>990</v>
       </c>
       <c r="AI12" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G13" t="n">
         <v>3.1</v>
@@ -2161,7 +2161,7 @@
         <v>2.42</v>
       </c>
       <c r="I13" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J13" t="n">
         <v>3.85</v>
@@ -2170,37 +2170,37 @@
         <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
         <v>2.56</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.42</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U13" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="W13" t="n">
         <v>1.48</v>
@@ -2212,25 +2212,25 @@
         <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
         <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -2239,10 +2239,10 @@
         <v>14.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2251,13 +2251,13 @@
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="n">
         <v>5.1</v>
@@ -2296,7 +2296,7 @@
         <v>1.74</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
@@ -2305,37 +2305,37 @@
         <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V14" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
         <v>1.24</v>
@@ -2380,19 +2380,19 @@
         <v>110</v>
       </c>
       <c r="AK14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
         <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
         <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="15">
@@ -2425,13 +2425,13 @@
         <v>3.05</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -2440,55 +2440,55 @@
         <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
         <v>85</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>7.8</v>
@@ -2497,37 +2497,37 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2560,7 +2560,7 @@
         <v>1.56</v>
       </c>
       <c r="G16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H16" t="n">
         <v>5.6</v>
@@ -2569,7 +2569,7 @@
         <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
         <v>5.1</v>
@@ -2596,7 +2596,7 @@
         <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T16" t="n">
         <v>1.75</v>
@@ -2605,10 +2605,10 @@
         <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W16" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X16" t="n">
         <v>28</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G17" t="n">
         <v>1.79</v>
@@ -2707,7 +2707,7 @@
         <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J18" t="n">
         <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
         <v>1.39</v>
@@ -2860,7 +2860,7 @@
         <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
         <v>1.4</v>
@@ -2875,10 +2875,10 @@
         <v>1.84</v>
       </c>
       <c r="V18" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X18" t="n">
         <v>16</v>
@@ -2893,7 +2893,7 @@
         <v>320</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC18" t="n">
         <v>10</v>
@@ -2905,7 +2905,7 @@
         <v>150</v>
       </c>
       <c r="AF18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG18" t="n">
         <v>10</v>
@@ -2926,13 +2926,13 @@
         <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
         <v>7.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G19" t="n">
         <v>2.62</v>
@@ -3097,25 +3097,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
         <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3127,7 +3127,7 @@
         <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
         <v>1.73</v>
@@ -3136,49 +3136,49 @@
         <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T20" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W20" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA20" t="n">
         <v>470</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="n">
         <v>18.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>20</v>
@@ -3187,10 +3187,10 @@
         <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
         <v>40</v>
@@ -3202,7 +3202,7 @@
         <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="G21" t="n">
         <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,16 +3256,16 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="R21" t="n">
         <v>1.09</v>
@@ -3274,13 +3274,13 @@
         <v>1.34</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="W21" t="n">
         <v>1.2</v>
@@ -3370,61 +3370,61 @@
         <v>2.56</v>
       </c>
       <c r="G22" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.8</v>
-      </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O22" t="n">
         <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
         <v>1.92</v>
       </c>
       <c r="V22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W22" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,13 +3433,13 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3448,10 +3448,10 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH22" t="n">
-        <v>990</v>
+        <v>65</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H23" t="n">
         <v>3.75</v>
       </c>
       <c r="I23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.4</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -3532,28 +3532,28 @@
         <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.62</v>
       </c>
-      <c r="R23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U23" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
         <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X23" t="n">
         <v>27</v>
@@ -3565,7 +3565,7 @@
         <v>40</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
@@ -3577,10 +3577,10 @@
         <v>20</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3592,7 +3592,7 @@
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="n">
         <v>23</v>
@@ -3601,7 +3601,7 @@
         <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
         <v>12</v>
@@ -3637,64 +3637,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="H24" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X24" t="n">
         <v>30</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
         <v>65</v>
@@ -3703,25 +3703,25 @@
         <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>120</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI24" t="n">
         <v>260</v>
@@ -3733,16 +3733,16 @@
         <v>85</v>
       </c>
       <c r="AL24" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
@@ -3781,16 +3781,16 @@
         <v>5.5</v>
       </c>
       <c r="I25" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
         <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3820,10 +3820,10 @@
         <v>1.95</v>
       </c>
       <c r="V25" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X25" t="n">
         <v>16.5</v>
@@ -3859,7 +3859,7 @@
         <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="n">
         <v>17.5</v>
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G26" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H26" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I26" t="n">
         <v>2.92</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -3937,10 +3937,10 @@
         <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R26" t="n">
         <v>1.55</v>
@@ -3949,19 +3949,19 @@
         <v>2.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="U26" t="n">
         <v>2.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W26" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X26" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Y26" t="n">
         <v>16.5</v>
@@ -3979,10 +3979,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="n">
         <v>25</v>
@@ -3991,13 +3991,13 @@
         <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI26" t="n">
         <v>40</v>
       </c>
       <c r="AJ26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -4006,13 +4006,13 @@
         <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -4045,7 +4045,7 @@
         <v>1.58</v>
       </c>
       <c r="G27" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>6.2</v>
@@ -4066,37 +4066,37 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
         <v>2.58</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R27" t="n">
         <v>1.63</v>
       </c>
       <c r="S27" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U27" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V27" t="n">
         <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="X27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
         <v>28</v>
@@ -4120,10 +4120,10 @@
         <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
         <v>19</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G28" t="n">
         <v>1.83</v>
       </c>
       <c r="H28" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
         <v>5.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
         <v>3.9</v>
@@ -4201,7 +4201,7 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.32</v>
@@ -4213,37 +4213,37 @@
         <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S28" t="n">
         <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="U28" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V28" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W28" t="n">
         <v>2.2</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
         <v>18</v>
       </c>
       <c r="Z28" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA28" t="n">
         <v>130</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
         <v>8.6</v>
@@ -4315,10 +4315,10 @@
         <v>1.69</v>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H29" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I29" t="n">
         <v>6.2</v>
@@ -4339,22 +4339,22 @@
         <v>4.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
         <v>2.34</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R29" t="n">
         <v>1.54</v>
       </c>
       <c r="S29" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U29" t="n">
         <v>2.24</v>
@@ -4363,7 +4363,7 @@
         <v>1.19</v>
       </c>
       <c r="W29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X29" t="n">
         <v>21</v>
@@ -4372,7 +4372,7 @@
         <v>27</v>
       </c>
       <c r="Z29" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="AA29" t="n">
         <v>150</v>
@@ -4384,7 +4384,7 @@
         <v>10</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>70</v>
@@ -4414,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO29" t="n">
         <v>160</v>
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="G30" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="H30" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I30" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -4480,28 +4480,28 @@
         <v>2.16</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R30" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S30" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T30" t="n">
         <v>1.81</v>
       </c>
       <c r="U30" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W30" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="X30" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
@@ -4516,7 +4516,7 @@
         <v>11.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD30" t="n">
         <v>32</v>
@@ -4528,7 +4528,7 @@
         <v>10.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>48</v>
@@ -4537,19 +4537,19 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AK30" t="n">
         <v>32</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="G31" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>4.1</v>
@@ -4594,13 +4594,13 @@
         <v>4.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
         <v>4.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4612,7 +4612,7 @@
         <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q31" t="n">
         <v>1.73</v>
@@ -4654,13 +4654,13 @@
         <v>10.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
@@ -4681,10 +4681,10 @@
         <v>32</v>
       </c>
       <c r="AM31" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
         <v>44</v>
@@ -4726,7 +4726,7 @@
         <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J32" t="n">
         <v>4.4</v>
@@ -4750,16 +4750,16 @@
         <v>2.84</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R32" t="n">
         <v>1.74</v>
       </c>
       <c r="S32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U32" t="n">
         <v>2.58</v>
@@ -4774,7 +4774,7 @@
         <v>95</v>
       </c>
       <c r="Y32" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4789,7 +4789,7 @@
         <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="n">
         <v>120</v>
@@ -4822,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H33" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -4870,13 +4870,13 @@
         <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M33" t="n">
         <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O33" t="n">
         <v>1.45</v>
@@ -4900,22 +4900,22 @@
         <v>1.92</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X33" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z33" t="n">
         <v>30</v>
       </c>
       <c r="AA33" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB33" t="n">
         <v>7.4</v>
@@ -4930,7 +4930,7 @@
         <v>70</v>
       </c>
       <c r="AF33" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG33" t="n">
         <v>11</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G34" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H34" t="n">
         <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
         <v>4.2</v>
@@ -5023,31 +5023,31 @@
         <v>1.84</v>
       </c>
       <c r="R34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T34" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U34" t="n">
         <v>2.06</v>
       </c>
       <c r="V34" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W34" t="n">
         <v>2.08</v>
       </c>
       <c r="X34" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y34" t="n">
         <v>22</v>
       </c>
       <c r="Z34" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
@@ -5056,13 +5056,13 @@
         <v>11.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF34" t="n">
         <v>12.5</v>
@@ -5071,16 +5071,16 @@
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL34" t="n">
         <v>42</v>
@@ -5089,10 +5089,10 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -5122,40 +5122,40 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="G35" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="H35" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I35" t="n">
         <v>11.5</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K35" t="n">
         <v>6.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P35" t="n">
         <v>2.28</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R35" t="n">
         <v>1.5</v>
@@ -5167,16 +5167,16 @@
         <v>2.1</v>
       </c>
       <c r="U35" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V35" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W35" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="X35" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="Y35" t="n">
         <v>990</v>
@@ -5188,10 +5188,10 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AD35" t="n">
         <v>990</v>
@@ -5200,7 +5200,7 @@
         <v>170</v>
       </c>
       <c r="AF35" t="n">
-        <v>17.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG35" t="n">
         <v>19</v>
@@ -5260,13 +5260,13 @@
         <v>3.5</v>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H36" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I36" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J36" t="n">
         <v>3.35</v>
@@ -5275,13 +5275,13 @@
         <v>3.55</v>
       </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O36" t="n">
         <v>1.35</v>
@@ -5290,7 +5290,7 @@
         <v>1.92</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R36" t="n">
         <v>1.31</v>
@@ -5299,19 +5299,19 @@
         <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U36" t="n">
         <v>2.08</v>
       </c>
       <c r="V36" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W36" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
         <v>9.800000000000001</v>
@@ -5344,10 +5344,10 @@
         <v>20</v>
       </c>
       <c r="AI36" t="n">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="AJ36" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="n">
         <v>55</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G37" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H37" t="n">
         <v>4.3</v>
@@ -5404,55 +5404,55 @@
         <v>4.8</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q37" t="n">
         <v>1.61</v>
       </c>
       <c r="R37" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="S37" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T37" t="n">
         <v>1.64</v>
       </c>
       <c r="U37" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="V37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
         <v>21</v>
       </c>
       <c r="Z37" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AA37" t="n">
         <v>110</v>
@@ -5467,7 +5467,7 @@
         <v>19</v>
       </c>
       <c r="AE37" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AF37" t="n">
         <v>13.5</v>
@@ -5479,7 +5479,7 @@
         <v>17.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AJ37" t="n">
         <v>21</v>
@@ -5488,13 +5488,13 @@
         <v>18</v>
       </c>
       <c r="AL37" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AM37" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AO37" t="n">
         <v>270</v>
@@ -5530,22 +5530,22 @@
         <v>1.39</v>
       </c>
       <c r="G38" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H38" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I38" t="n">
         <v>12.5</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -5563,7 +5563,7 @@
         <v>1.68</v>
       </c>
       <c r="R38" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S38" t="n">
         <v>2.72</v>
@@ -5575,13 +5575,13 @@
         <v>1.78</v>
       </c>
       <c r="V38" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W38" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y38" t="n">
         <v>1000</v>
@@ -5608,7 +5608,7 @@
         <v>10</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
@@ -5662,112 +5662,112 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
         <v>3.15</v>
       </c>
       <c r="H39" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I39" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="J39" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>4.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R39" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T39" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U39" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="V39" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W39" t="n">
         <v>1.47</v>
       </c>
       <c r="X39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y39" t="n">
         <v>16.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA39" t="n">
         <v>34</v>
       </c>
       <c r="AB39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD39" t="n">
         <v>12</v>
       </c>
       <c r="AE39" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF39" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH39" t="n">
         <v>14.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ39" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
         <v>32</v>
       </c>
       <c r="AM39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN39" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO39" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="40">
@@ -5809,10 +5809,10 @@
         <v>8.4</v>
       </c>
       <c r="J40" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K40" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L40" t="n">
         <v>1.26</v>
@@ -5821,28 +5821,28 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="O40" t="n">
         <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q40" t="n">
         <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V40" t="n">
         <v>1.13</v>
@@ -5869,13 +5869,13 @@
         <v>12.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE40" t="n">
         <v>100</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG40" t="n">
         <v>10</v>
@@ -5899,7 +5899,7 @@
         <v>90</v>
       </c>
       <c r="AN40" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO40" t="n">
         <v>120</v>
@@ -5935,13 +5935,13 @@
         <v>2.48</v>
       </c>
       <c r="G41" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H41" t="n">
         <v>3.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J41" t="n">
         <v>3.05</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G42" t="n">
         <v>2.04</v>
@@ -6079,13 +6079,13 @@
         <v>5.1</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L42" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M42" t="n">
         <v>1.09</v>
@@ -6094,7 +6094,7 @@
         <v>2.96</v>
       </c>
       <c r="O42" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P42" t="n">
         <v>1.67</v>
@@ -6124,10 +6124,10 @@
         <v>10</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AA42" t="n">
         <v>130</v>
@@ -6136,7 +6136,7 @@
         <v>7.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD42" t="n">
         <v>21</v>
@@ -6145,7 +6145,7 @@
         <v>380</v>
       </c>
       <c r="AF42" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG42" t="n">
         <v>10.5</v>
@@ -6154,7 +6154,7 @@
         <v>24</v>
       </c>
       <c r="AI42" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="AJ42" t="n">
         <v>24</v>
@@ -6166,13 +6166,13 @@
         <v>55</v>
       </c>
       <c r="AM42" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO42" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G43" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H43" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I43" t="n">
         <v>1.8</v>
@@ -6226,16 +6226,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
       </c>
       <c r="P43" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6337,76 +6337,76 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="G44" t="n">
         <v>7.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I44" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K44" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M44" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N44" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O44" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P44" t="n">
         <v>1.53</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="R44" t="n">
         <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T44" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U44" t="n">
         <v>1.63</v>
       </c>
       <c r="V44" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="W44" t="n">
         <v>1.16</v>
       </c>
       <c r="X44" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA44" t="n">
         <v>20</v>
       </c>
       <c r="AB44" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD44" t="n">
         <v>11.5</v>
@@ -6421,7 +6421,7 @@
         <v>28</v>
       </c>
       <c r="AH44" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="n">
         <v>1000</v>
@@ -6475,13 +6475,13 @@
         <v>1.42</v>
       </c>
       <c r="G45" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="J45" t="n">
         <v>4.1</v>
@@ -6499,7 +6499,7 @@
         <v>3.3</v>
       </c>
       <c r="O45" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P45" t="n">
         <v>1.79</v>
@@ -6616,10 +6616,10 @@
         <v>1.71</v>
       </c>
       <c r="I46" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="J46" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
         <v>4</v>
@@ -6628,7 +6628,7 @@
         <v>1.46</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
         <v>3</v>
@@ -6643,7 +6643,7 @@
         <v>2.16</v>
       </c>
       <c r="R46" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S46" t="n">
         <v>4.1</v>
@@ -6655,10 +6655,10 @@
         <v>1.79</v>
       </c>
       <c r="V46" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W46" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X46" t="n">
         <v>14</v>
@@ -6682,37 +6682,37 @@
         <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF46" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH46" t="n">
         <v>60</v>
       </c>
-      <c r="AG46" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>29</v>
-      </c>
       <c r="AI46" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="47">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G47" t="n">
         <v>4.1</v>
@@ -6754,10 +6754,10 @@
         <v>2.58</v>
       </c>
       <c r="J47" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K47" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L47" t="n">
         <v>1.62</v>
@@ -6766,7 +6766,7 @@
         <v>1.14</v>
       </c>
       <c r="N47" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O47" t="n">
         <v>1.61</v>
@@ -6784,13 +6784,13 @@
         <v>6</v>
       </c>
       <c r="T47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U47" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V47" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W47" t="n">
         <v>1.32</v>
@@ -6811,7 +6811,7 @@
         <v>17.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AD47" t="n">
         <v>36</v>
@@ -6823,7 +6823,7 @@
         <v>100</v>
       </c>
       <c r="AG47" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="AH47" t="n">
         <v>990</v>
@@ -6844,10 +6844,10 @@
         <v>260</v>
       </c>
       <c r="AN47" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="AO47" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48">
@@ -6877,112 +6877,112 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G48" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="H48" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K48" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L48" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="O48" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P48" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="R48" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="T48" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="U48" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="V48" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W48" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="X48" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y48" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="Z48" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA48" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB48" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC48" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>9.4</v>
       </c>
       <c r="AG48" t="n">
         <v>10.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AJ48" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK48" t="n">
         <v>16.5</v>
       </c>
-      <c r="AK48" t="n">
-        <v>70</v>
-      </c>
       <c r="AL48" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="n">
         <v>140</v>
       </c>
       <c r="AN48" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO48" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49">
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G49" t="n">
         <v>1.48</v>
       </c>
       <c r="H49" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
         <v>8.199999999999999</v>
@@ -7027,10 +7027,10 @@
         <v>5.5</v>
       </c>
       <c r="K49" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L49" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7051,7 +7051,7 @@
         <v>1.68</v>
       </c>
       <c r="S49" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="T49" t="n">
         <v>1.71</v>
@@ -7066,7 +7066,7 @@
         <v>3.05</v>
       </c>
       <c r="X49" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
         <v>85</v>
@@ -7207,13 +7207,13 @@
         <v>11</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB50" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AC50" t="n">
         <v>9.6</v>
@@ -7222,16 +7222,16 @@
         <v>13</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF50" t="n">
         <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH50" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
@@ -7252,7 +7252,7 @@
         <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -7285,7 +7285,7 @@
         <v>3.5</v>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H51" t="n">
         <v>2.34</v>
@@ -7309,31 +7309,31 @@
         <v>3.85</v>
       </c>
       <c r="O51" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P51" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S51" t="n">
         <v>3.6</v>
       </c>
       <c r="T51" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U51" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V51" t="n">
         <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X51" t="n">
         <v>13.5</v>
@@ -7342,13 +7342,13 @@
         <v>10</v>
       </c>
       <c r="Z51" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA51" t="n">
         <v>29</v>
       </c>
       <c r="AB51" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC51" t="n">
         <v>7.4</v>
@@ -7366,25 +7366,25 @@
         <v>14</v>
       </c>
       <c r="AH51" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI51" t="n">
         <v>36</v>
       </c>
       <c r="AJ51" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="n">
         <v>46</v>
       </c>
       <c r="AM51" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO51" t="n">
         <v>18.5</v>
@@ -7423,16 +7423,16 @@
         <v>4.5</v>
       </c>
       <c r="H52" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I52" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L52" t="n">
         <v>1.33</v>
@@ -7447,13 +7447,13 @@
         <v>1.24</v>
       </c>
       <c r="P52" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R52" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S52" t="n">
         <v>2.8</v>
@@ -7462,7 +7462,7 @@
         <v>1.71</v>
       </c>
       <c r="U52" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V52" t="n">
         <v>2.12</v>
@@ -7480,7 +7480,7 @@
         <v>12.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB52" t="n">
         <v>19.5</v>
@@ -7519,10 +7519,10 @@
         <v>70</v>
       </c>
       <c r="AN52" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO52" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="53">
@@ -7561,73 +7561,73 @@
         <v>2.08</v>
       </c>
       <c r="I53" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J53" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K53" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.7</v>
       </c>
       <c r="L53" t="n">
         <v>1.4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O53" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P53" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R53" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S53" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T53" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U53" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V53" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W53" t="n">
         <v>1.32</v>
       </c>
       <c r="X53" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z53" t="n">
         <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB53" t="n">
         <v>15</v>
       </c>
       <c r="AC53" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD53" t="n">
         <v>10.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF53" t="n">
         <v>27</v>
@@ -7639,25 +7639,25 @@
         <v>17</v>
       </c>
       <c r="AI53" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ53" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK53" t="n">
         <v>44</v>
       </c>
       <c r="AL53" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM53" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN53" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO53" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="54">
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H54" t="n">
         <v>2.92</v>
@@ -7705,31 +7705,31 @@
         <v>3.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O54" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P54" t="n">
         <v>1.94</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R54" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S54" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T54" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U54" t="n">
         <v>2.2</v>
@@ -7741,7 +7741,7 @@
         <v>1.58</v>
       </c>
       <c r="X54" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y54" t="n">
         <v>11.5</v>
@@ -7759,19 +7759,19 @@
         <v>7.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE54" t="n">
         <v>32</v>
       </c>
       <c r="AF54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH54" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>17</v>
       </c>
       <c r="AI54" t="n">
         <v>44</v>
@@ -7792,7 +7792,7 @@
         <v>24</v>
       </c>
       <c r="AO54" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G55" t="n">
         <v>1.73</v>
       </c>
-      <c r="G55" t="n">
-        <v>1.74</v>
-      </c>
       <c r="H55" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I55" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
@@ -7846,7 +7846,7 @@
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O55" t="n">
         <v>1.35</v>
@@ -7867,13 +7867,13 @@
         <v>1.98</v>
       </c>
       <c r="U55" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V55" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W55" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X55" t="n">
         <v>14</v>
@@ -7894,7 +7894,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE55" t="n">
         <v>85</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G56" t="n">
         <v>2.1</v>
@@ -7969,49 +7969,49 @@
         <v>4.5</v>
       </c>
       <c r="J56" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K56" t="n">
         <v>3.4</v>
       </c>
-      <c r="K56" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L56" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M56" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N56" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P56" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="R56" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S56" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T56" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U56" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V56" t="n">
         <v>1.28</v>
       </c>
       <c r="W56" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X56" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y56" t="n">
         <v>12.5</v>
@@ -8020,49 +8020,49 @@
         <v>29</v>
       </c>
       <c r="AA56" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD56" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE56" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF56" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG56" t="n">
         <v>11.5</v>
       </c>
       <c r="AH56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN56" t="n">
         <v>22</v>
       </c>
-      <c r="AI56" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>20</v>
-      </c>
       <c r="AO56" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
@@ -8092,67 +8092,67 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G57" t="n">
         <v>5.3</v>
       </c>
       <c r="H57" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I57" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J57" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L57" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M57" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O57" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P57" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R57" t="n">
         <v>1.24</v>
       </c>
       <c r="S57" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T57" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U57" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V57" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W57" t="n">
         <v>1.23</v>
       </c>
       <c r="X57" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z57" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>9.6</v>
       </c>
       <c r="AA57" t="n">
         <v>21</v>
@@ -8188,7 +8188,7 @@
         <v>90</v>
       </c>
       <c r="AL57" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM57" t="n">
         <v>190</v>
@@ -8197,7 +8197,7 @@
         <v>140</v>
       </c>
       <c r="AO57" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="58">
@@ -8236,7 +8236,7 @@
         <v>3.15</v>
       </c>
       <c r="I58" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J58" t="n">
         <v>3.15</v>
@@ -8245,7 +8245,7 @@
         <v>3.25</v>
       </c>
       <c r="L58" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M58" t="n">
         <v>1.1</v>
@@ -8269,10 +8269,10 @@
         <v>4.3</v>
       </c>
       <c r="T58" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V58" t="n">
         <v>1.44</v>
@@ -8281,7 +8281,7 @@
         <v>1.59</v>
       </c>
       <c r="X58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y58" t="n">
         <v>10.5</v>
@@ -8329,10 +8329,10 @@
         <v>120</v>
       </c>
       <c r="AN58" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO58" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
@@ -8362,16 +8362,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G59" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H59" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="I59" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J59" t="n">
         <v>3.25</v>
@@ -8383,25 +8383,25 @@
         <v>1.48</v>
       </c>
       <c r="M59" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O59" t="n">
         <v>1.37</v>
       </c>
       <c r="P59" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S59" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="T59" t="n">
         <v>1.81</v>
@@ -8410,64 +8410,64 @@
         <v>2.08</v>
       </c>
       <c r="V59" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W59" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="Z59" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB59" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="AC59" t="n">
         <v>7.4</v>
       </c>
       <c r="AD59" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AE59" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF59" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AG59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH59" t="n">
         <v>18</v>
       </c>
       <c r="AI59" t="n">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AJ59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK59" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL59" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM59" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN59" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -8506,22 +8506,22 @@
         <v>25</v>
       </c>
       <c r="I60" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J60" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K60" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="L60" t="n">
         <v>1.24</v>
       </c>
       <c r="M60" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O60" t="n">
         <v>1.2</v>
@@ -8530,22 +8530,22 @@
         <v>2.26</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R60" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S60" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T60" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="U60" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="V60" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W60" t="n">
         <v>7.2</v>
@@ -8563,10 +8563,10 @@
         <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC60" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD60" t="n">
         <v>1000</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="G61" t="n">
         <v>1.29</v>
@@ -8641,7 +8641,7 @@
         <v>15</v>
       </c>
       <c r="I61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J61" t="n">
         <v>6.2</v>
@@ -8677,13 +8677,13 @@
         <v>2.26</v>
       </c>
       <c r="U61" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V61" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W61" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X61" t="n">
         <v>28</v>
@@ -8698,34 +8698,34 @@
         <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC61" t="n">
         <v>18.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AE61" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AF61" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AG61" t="n">
         <v>14</v>
       </c>
       <c r="AH61" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AI61" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ61" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AK61" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL61" t="n">
         <v>60</v>
@@ -8770,22 +8770,22 @@
         <v>3.55</v>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I62" t="n">
         <v>2.24</v>
       </c>
-      <c r="I62" t="n">
-        <v>2.26</v>
-      </c>
       <c r="J62" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K62" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L62" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -8800,28 +8800,28 @@
         <v>2.16</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R62" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S62" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T62" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U62" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V62" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W62" t="n">
         <v>1.38</v>
       </c>
       <c r="X62" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y62" t="n">
         <v>11.5</v>
@@ -8836,7 +8836,7 @@
         <v>15.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD62" t="n">
         <v>11</v>
@@ -8857,7 +8857,7 @@
         <v>34</v>
       </c>
       <c r="AJ62" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="n">
         <v>38</v>
@@ -8866,10 +8866,10 @@
         <v>44</v>
       </c>
       <c r="AM62" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN62" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO62" t="n">
         <v>14.5</v>
@@ -8905,22 +8905,22 @@
         <v>3.2</v>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H63" t="n">
         <v>2.68</v>
       </c>
       <c r="I63" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J63" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K63" t="n">
         <v>3.25</v>
       </c>
       <c r="L63" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M63" t="n">
         <v>1.09</v>
@@ -8932,7 +8932,7 @@
         <v>1.47</v>
       </c>
       <c r="P63" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q63" t="n">
         <v>2.48</v>
@@ -8941,25 +8941,25 @@
         <v>1.24</v>
       </c>
       <c r="S63" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T63" t="n">
         <v>1.96</v>
       </c>
       <c r="U63" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="V63" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W63" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X63" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="Y63" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z63" t="n">
         <v>18.5</v>
@@ -8968,13 +8968,13 @@
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE63" t="n">
         <v>1000</v>
@@ -8986,7 +8986,7 @@
         <v>19</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI63" t="n">
         <v>1000</v>
@@ -9037,22 +9037,22 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G64" t="n">
         <v>2.66</v>
       </c>
       <c r="H64" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I64" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J64" t="n">
         <v>3.5</v>
       </c>
       <c r="K64" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L64" t="n">
         <v>1.01</v>
@@ -9085,7 +9085,7 @@
         <v>2.36</v>
       </c>
       <c r="V64" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="W64" t="n">
         <v>1.6</v>
@@ -9172,73 +9172,73 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G65" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="H65" t="n">
         <v>4.9</v>
       </c>
       <c r="I65" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J65" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K65" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L65" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M65" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N65" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O65" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P65" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="R65" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="S65" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="T65" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="V65" t="n">
         <v>1.23</v>
       </c>
       <c r="W65" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="X65" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Z65" t="n">
         <v>38</v>
       </c>
       <c r="AA65" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB65" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC65" t="n">
         <v>8.800000000000001</v>
@@ -9247,7 +9247,7 @@
         <v>19.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF65" t="n">
         <v>11</v>
@@ -9256,28 +9256,28 @@
         <v>10</v>
       </c>
       <c r="AH65" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI65" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ65" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK65" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL65" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM65" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN65" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO65" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G66" t="n">
         <v>2.96</v>
@@ -9316,7 +9316,7 @@
         <v>2.78</v>
       </c>
       <c r="I66" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J66" t="n">
         <v>3.3</v>
@@ -9355,7 +9355,7 @@
         <v>2.04</v>
       </c>
       <c r="V66" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W66" t="n">
         <v>1.51</v>
@@ -9466,7 +9466,7 @@
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O67" t="n">
         <v>1.35</v>
@@ -9496,28 +9496,28 @@
         <v>1.92</v>
       </c>
       <c r="X67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y67" t="n">
         <v>17.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AA67" t="n">
         <v>120</v>
       </c>
       <c r="AB67" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC67" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD67" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AE67" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF67" t="n">
         <v>12.5</v>
@@ -9526,28 +9526,28 @@
         <v>10.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AI67" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AJ67" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AK67" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AL67" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AM67" t="n">
+        <v>470</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO67" t="n">
         <v>140</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="68">
@@ -9598,31 +9598,31 @@
         <v>1.43</v>
       </c>
       <c r="M68" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N68" t="n">
-        <v>1.67</v>
+        <v>3.25</v>
       </c>
       <c r="O68" t="n">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="P68" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="R68" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="S68" t="n">
-        <v>1.92</v>
+        <v>3.25</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V68" t="n">
         <v>1.44</v>
@@ -9634,16 +9634,16 @@
         <v>15.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z68" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA68" t="n">
         <v>55</v>
       </c>
       <c r="AB68" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC68" t="n">
         <v>9.199999999999999</v>
@@ -9655,28 +9655,28 @@
         <v>44</v>
       </c>
       <c r="AF68" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG68" t="n">
         <v>15</v>
       </c>
       <c r="AH68" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ68" t="n">
         <v>42</v>
       </c>
       <c r="AK68" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL68" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM68" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN68" t="n">
         <v>34</v>
@@ -9730,7 +9730,7 @@
         <v>4.2</v>
       </c>
       <c r="L69" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M69" t="n">
         <v>1.03</v>
@@ -9751,7 +9751,7 @@
         <v>1.56</v>
       </c>
       <c r="S69" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T69" t="n">
         <v>1.55</v>
@@ -9766,13 +9766,13 @@
         <v>1.55</v>
       </c>
       <c r="X69" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y69" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z69" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA69" t="n">
         <v>40</v>
@@ -9784,31 +9784,31 @@
         <v>11.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE69" t="n">
         <v>30</v>
       </c>
       <c r="AF69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG69" t="n">
         <v>15.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI69" t="n">
         <v>38</v>
       </c>
       <c r="AJ69" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="n">
         <v>32</v>
       </c>
       <c r="AL69" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM69" t="n">
         <v>70</v>
@@ -9859,10 +9859,10 @@
         <v>1.45</v>
       </c>
       <c r="J70" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K70" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L70" t="n">
         <v>1.4</v>
@@ -9877,7 +9877,7 @@
         <v>1.33</v>
       </c>
       <c r="P70" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q70" t="n">
         <v>1.99</v>
@@ -9913,7 +9913,7 @@
         <v>14</v>
       </c>
       <c r="AB70" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AC70" t="n">
         <v>13</v>
@@ -9931,7 +9931,7 @@
         <v>50</v>
       </c>
       <c r="AH70" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI70" t="n">
         <v>1000</v>
@@ -9943,7 +9943,7 @@
         <v>260</v>
       </c>
       <c r="AL70" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AM70" t="n">
         <v>290</v>
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G71" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H71" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I71" t="n">
         <v>4.9</v>
@@ -9997,7 +9997,7 @@
         <v>3.85</v>
       </c>
       <c r="K71" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L71" t="n">
         <v>1.4</v>
@@ -10006,7 +10006,7 @@
         <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O71" t="n">
         <v>1.3</v>
@@ -10015,19 +10015,19 @@
         <v>2.06</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R71" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S71" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T71" t="n">
         <v>1.79</v>
       </c>
       <c r="U71" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V71" t="n">
         <v>1.25</v>
@@ -10042,7 +10042,7 @@
         <v>18</v>
       </c>
       <c r="Z71" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AA71" t="n">
         <v>130</v>
@@ -10057,7 +10057,7 @@
         <v>19.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF71" t="n">
         <v>12</v>
@@ -10069,7 +10069,7 @@
         <v>19.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AJ71" t="n">
         <v>21</v>
@@ -10078,16 +10078,16 @@
         <v>20</v>
       </c>
       <c r="AL71" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="AM71" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN71" t="n">
         <v>12</v>
       </c>
       <c r="AO71" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -10132,7 +10132,7 @@
         <v>3.8</v>
       </c>
       <c r="K72" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L72" t="n">
         <v>1.28</v>
@@ -10147,7 +10147,7 @@
         <v>1.24</v>
       </c>
       <c r="P72" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="Q72" t="n">
         <v>1.63</v>
@@ -10156,7 +10156,7 @@
         <v>1.51</v>
       </c>
       <c r="S72" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T72" t="n">
         <v>1.64</v>
@@ -10192,7 +10192,7 @@
         <v>14.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AF72" t="n">
         <v>16.5</v>
@@ -10204,10 +10204,10 @@
         <v>16</v>
       </c>
       <c r="AI72" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AK72" t="n">
         <v>23</v>
@@ -10216,7 +10216,7 @@
         <v>32</v>
       </c>
       <c r="AM72" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AN72" t="n">
         <v>14</v>
@@ -10258,7 +10258,7 @@
         <v>1.77</v>
       </c>
       <c r="H73" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I73" t="n">
         <v>4.7</v>
@@ -10270,94 +10270,94 @@
         <v>4.8</v>
       </c>
       <c r="L73" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="M73" t="n">
         <v>1.02</v>
       </c>
       <c r="N73" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="O73" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P73" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="R73" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="S73" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="T73" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U73" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="V73" t="n">
         <v>1.27</v>
       </c>
       <c r="W73" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X73" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="Y73" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="Z73" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AA73" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="AB73" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AC73" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AD73" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AE73" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AF73" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AG73" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI73" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL73" t="n">
         <v>48</v>
       </c>
-      <c r="AJ73" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>26</v>
-      </c>
       <c r="AM73" t="n">
-        <v>55</v>
+        <v>580</v>
       </c>
       <c r="AN73" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO73" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74">
@@ -10387,43 +10387,43 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G74" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H74" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I74" t="n">
         <v>11.5</v>
       </c>
       <c r="J74" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K74" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L74" t="n">
         <v>1.22</v>
       </c>
       <c r="M74" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="O74" t="n">
         <v>1.13</v>
       </c>
       <c r="P74" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="R74" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S74" t="n">
         <v>1.98</v>
@@ -10438,31 +10438,31 @@
         <v>1.1</v>
       </c>
       <c r="W74" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X74" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="Y74" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="Z74" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AA74" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="AB74" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC74" t="n">
         <v>15</v>
       </c>
       <c r="AD74" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AE74" t="n">
-        <v>130</v>
+        <v>510</v>
       </c>
       <c r="AF74" t="n">
         <v>11.5</v>
@@ -10471,28 +10471,28 @@
         <v>11.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI74" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ74" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK74" t="n">
         <v>13.5</v>
       </c>
       <c r="AL74" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="n">
         <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="AO74" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75">
@@ -10525,10 +10525,10 @@
         <v>2.82</v>
       </c>
       <c r="G75" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H75" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I75" t="n">
         <v>2.7</v>
@@ -10537,7 +10537,7 @@
         <v>3.6</v>
       </c>
       <c r="K75" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L75" t="n">
         <v>1.39</v>
@@ -10552,7 +10552,7 @@
         <v>1.3</v>
       </c>
       <c r="P75" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q75" t="n">
         <v>1.9</v>
@@ -10561,16 +10561,16 @@
         <v>1.4</v>
       </c>
       <c r="S75" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T75" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U75" t="n">
         <v>2.28</v>
       </c>
       <c r="V75" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W75" t="n">
         <v>1.52</v>
@@ -10609,13 +10609,13 @@
         <v>16.5</v>
       </c>
       <c r="AI75" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ75" t="n">
         <v>44</v>
       </c>
       <c r="AK75" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL75" t="n">
         <v>40</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G76" t="n">
         <v>1.32</v>
@@ -10669,7 +10669,7 @@
         <v>16.5</v>
       </c>
       <c r="J76" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K76" t="n">
         <v>6.6</v>
@@ -10702,7 +10702,7 @@
         <v>2.32</v>
       </c>
       <c r="U76" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="V76" t="n">
         <v>1.06</v>
@@ -10714,7 +10714,7 @@
         <v>21</v>
       </c>
       <c r="Y76" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z76" t="n">
         <v>180</v>
@@ -10729,10 +10729,10 @@
         <v>14.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="AE76" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AF76" t="n">
         <v>7.6</v>
@@ -10753,7 +10753,7 @@
         <v>16.5</v>
       </c>
       <c r="AL76" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AM76" t="n">
         <v>310</v>
@@ -10807,7 +10807,7 @@
         <v>8</v>
       </c>
       <c r="K77" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10861,7 +10861,7 @@
         <v>12.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="AD77" t="n">
         <v>1000</v>
@@ -10939,10 +10939,10 @@
         <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K78" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L78" t="n">
         <v>1.38</v>
@@ -10954,10 +10954,10 @@
         <v>3.7</v>
       </c>
       <c r="O78" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P78" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q78" t="n">
         <v>1.8</v>
@@ -10966,13 +10966,13 @@
         <v>1.36</v>
       </c>
       <c r="S78" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T78" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U78" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V78" t="n">
         <v>1.25</v>
@@ -10981,10 +10981,10 @@
         <v>2</v>
       </c>
       <c r="X78" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="Y78" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z78" t="n">
         <v>1000</v>
@@ -10996,7 +10996,7 @@
         <v>10</v>
       </c>
       <c r="AC78" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD78" t="n">
         <v>1000</v>
@@ -11005,19 +11005,19 @@
         <v>1000</v>
       </c>
       <c r="AF78" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG78" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AH78" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI78" t="n">
         <v>1000</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK78" t="n">
         <v>26</v>
@@ -11029,7 +11029,7 @@
         <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO78" t="n">
         <v>1000</v>
@@ -11077,25 +11077,25 @@
         <v>3.45</v>
       </c>
       <c r="K79" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L79" t="n">
         <v>1.3</v>
       </c>
       <c r="M79" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="O79" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P79" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R79" t="n">
         <v>1.31</v>
@@ -11104,13 +11104,13 @@
         <v>2.78</v>
       </c>
       <c r="T79" t="n">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="U79" t="n">
         <v>2.04</v>
       </c>
       <c r="V79" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W79" t="n">
         <v>1.79</v>
@@ -11131,7 +11131,7 @@
         <v>1000</v>
       </c>
       <c r="AC79" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD79" t="n">
         <v>1000</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G80" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H80" t="n">
         <v>3.05</v>
@@ -11227,64 +11227,64 @@
         <v>1.31</v>
       </c>
       <c r="P80" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R80" t="n">
         <v>1.36</v>
       </c>
       <c r="S80" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="T80" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U80" t="n">
         <v>2.16</v>
       </c>
       <c r="V80" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W80" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X80" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y80" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z80" t="n">
         <v>23</v>
       </c>
       <c r="AA80" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB80" t="n">
         <v>11.5</v>
       </c>
       <c r="AC80" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD80" t="n">
         <v>14.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF80" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG80" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH80" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ80" t="n">
         <v>40</v>
@@ -11296,13 +11296,13 @@
         <v>46</v>
       </c>
       <c r="AM80" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AN80" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO80" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
@@ -11332,112 +11332,112 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="G81" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="H81" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="I81" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="J81" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K81" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L81" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M81" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N81" t="n">
         <v>4</v>
       </c>
       <c r="O81" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P81" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R81" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S81" t="n">
         <v>3.05</v>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="U81" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="V81" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="W81" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X81" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y81" t="n">
         <v>8.6</v>
       </c>
       <c r="Z81" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AA81" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB81" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="AC81" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE81" t="n">
         <v>17</v>
       </c>
       <c r="AF81" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AG81" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AH81" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AI81" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ81" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="AK81" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AL81" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="AM81" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AN81" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AO81" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="82">
@@ -11467,10 +11467,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G82" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H82" t="n">
         <v>6.8</v>
@@ -11479,97 +11479,97 @@
         <v>7</v>
       </c>
       <c r="J82" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K82" t="n">
         <v>5</v>
       </c>
-      <c r="K82" t="n">
-        <v>5.1</v>
-      </c>
       <c r="L82" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M82" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O82" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P82" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="R82" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="S82" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="T82" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U82" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V82" t="n">
         <v>1.16</v>
       </c>
       <c r="W82" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="X82" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y82" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z82" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA82" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB82" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC82" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD82" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE82" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF82" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG82" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH82" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI82" t="n">
         <v>70</v>
       </c>
       <c r="AJ82" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK82" t="n">
         <v>14</v>
       </c>
-      <c r="AK82" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL82" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM82" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN82" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AO82" t="n">
         <v>70</v>
@@ -11608,7 +11608,7 @@
         <v>4.7</v>
       </c>
       <c r="H83" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="I83" t="n">
         <v>1.94</v>
@@ -11617,37 +11617,37 @@
         <v>3.8</v>
       </c>
       <c r="K83" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L83" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M83" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N83" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O83" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P83" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="R83" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S83" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="T83" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U83" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V83" t="n">
         <v>2.06</v>
@@ -11656,28 +11656,28 @@
         <v>1.27</v>
       </c>
       <c r="X83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y83" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Z83" t="n">
         <v>11.5</v>
       </c>
       <c r="AA83" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB83" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC83" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD83" t="n">
         <v>10</v>
       </c>
       <c r="AE83" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF83" t="n">
         <v>34</v>
@@ -11686,28 +11686,28 @@
         <v>18</v>
       </c>
       <c r="AH83" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI83" t="n">
         <v>36</v>
       </c>
       <c r="AJ83" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="n">
         <v>60</v>
       </c>
       <c r="AL83" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM83" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN83" t="n">
         <v>65</v>
       </c>
       <c r="AO83" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="84">
@@ -11737,10 +11737,10 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G84" t="n">
         <v>1.86</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1.87</v>
       </c>
       <c r="H84" t="n">
         <v>4.8</v>
@@ -11752,49 +11752,49 @@
         <v>3.9</v>
       </c>
       <c r="K84" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M84" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P84" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="R84" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="S84" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="T84" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U84" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V84" t="n">
         <v>1.25</v>
       </c>
       <c r="W84" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X84" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y84" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z84" t="n">
         <v>36</v>
@@ -11803,16 +11803,16 @@
         <v>120</v>
       </c>
       <c r="AB84" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC84" t="n">
         <v>8.4</v>
       </c>
       <c r="AD84" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE84" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF84" t="n">
         <v>11</v>
@@ -11824,25 +11824,25 @@
         <v>20</v>
       </c>
       <c r="AI84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ84" t="n">
         <v>21</v>
       </c>
       <c r="AK84" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL84" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM84" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN84" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85">
@@ -11872,112 +11872,112 @@
         </is>
       </c>
       <c r="F85" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G85" t="n">
         <v>4.5</v>
       </c>
-      <c r="G85" t="n">
-        <v>4.7</v>
-      </c>
       <c r="H85" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="I85" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K85" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L85" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M85" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="O85" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P85" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="R85" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="S85" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="T85" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="U85" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V85" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="W85" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X85" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z85" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA85" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE85" t="n">
         <v>22</v>
       </c>
-      <c r="AB85" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AF85" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG85" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH85" t="n">
         <v>18.5</v>
       </c>
       <c r="AI85" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ85" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK85" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL85" t="n">
         <v>65</v>
       </c>
-      <c r="AL85" t="n">
-        <v>60</v>
-      </c>
       <c r="AM85" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN85" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO85" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
@@ -12061,13 +12061,13 @@
         <v>2.24</v>
       </c>
       <c r="X86" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y86" t="n">
         <v>18.5</v>
       </c>
       <c r="Z86" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA86" t="n">
         <v>1000</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H87" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I87" t="n">
         <v>4</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4.1</v>
       </c>
       <c r="J87" t="n">
         <v>3.6</v>
       </c>
       <c r="K87" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L87" t="n">
         <v>1.41</v>
@@ -12166,40 +12166,40 @@
         <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O87" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P87" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R87" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S87" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T87" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="U87" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V87" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W87" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X87" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y87" t="n">
         <v>14.5</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>15.5</v>
       </c>
       <c r="Z87" t="n">
         <v>28</v>
@@ -12208,13 +12208,13 @@
         <v>80</v>
       </c>
       <c r="AB87" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC87" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD87" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE87" t="n">
         <v>44</v>
@@ -12223,7 +12223,7 @@
         <v>12.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH87" t="n">
         <v>17</v>
@@ -12232,22 +12232,22 @@
         <v>55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL87" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM87" t="n">
         <v>80</v>
       </c>
       <c r="AN87" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO87" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88">
@@ -12310,13 +12310,13 @@
         <v>4.9</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R88" t="n">
         <v>2.56</v>
       </c>
       <c r="S88" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="T88" t="n">
         <v>2.1</v>
@@ -12331,7 +12331,7 @@
         <v>9.4</v>
       </c>
       <c r="X88" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y88" t="n">
         <v>130</v>
@@ -12379,7 +12379,7 @@
         <v>250</v>
       </c>
       <c r="AN88" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="AO88" t="n">
         <v>1000</v>
@@ -12418,7 +12418,7 @@
         <v>2.54</v>
       </c>
       <c r="H89" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I89" t="n">
         <v>3.85</v>
@@ -12484,7 +12484,7 @@
         <v>7.8</v>
       </c>
       <c r="AD89" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE89" t="n">
         <v>55</v>
@@ -12550,13 +12550,13 @@
         <v>1.3</v>
       </c>
       <c r="G90" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H90" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="I90" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J90" t="n">
         <v>4.8</v>
@@ -12589,7 +12589,7 @@
         <v>2.52</v>
       </c>
       <c r="T90" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U90" t="n">
         <v>1.69</v>
@@ -12601,10 +12601,10 @@
         <v>3.55</v>
       </c>
       <c r="X90" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Y90" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="Z90" t="n">
         <v>1000</v>
@@ -12616,10 +12616,10 @@
         <v>10.5</v>
       </c>
       <c r="AC90" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AE90" t="n">
         <v>1000</v>
@@ -12631,7 +12631,7 @@
         <v>14</v>
       </c>
       <c r="AH90" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AI90" t="n">
         <v>1000</v>
@@ -12643,7 +12643,7 @@
         <v>19.5</v>
       </c>
       <c r="AL90" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AM90" t="n">
         <v>1000</v>
@@ -12703,7 +12703,7 @@
         <v>1.49</v>
       </c>
       <c r="M91" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N91" t="n">
         <v>2.4</v>
@@ -12754,7 +12754,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD91" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE91" t="n">
         <v>100</v>
@@ -12778,7 +12778,7 @@
         <v>32</v>
       </c>
       <c r="AL91" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AM91" t="n">
         <v>1000</v>
@@ -12955,19 +12955,19 @@
         <v>2.74</v>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="H93" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="I93" t="n">
         <v>2.66</v>
       </c>
       <c r="J93" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K93" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
@@ -13003,10 +13003,10 @@
         <v>1.6</v>
       </c>
       <c r="W93" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="X93" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y93" t="n">
         <v>14</v>
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G94" t="n">
         <v>2.2</v>
       </c>
-      <c r="G94" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H94" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I94" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J94" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K94" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L94" t="n">
         <v>1.43</v>
@@ -13111,16 +13111,16 @@
         <v>1.06</v>
       </c>
       <c r="N94" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O94" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P94" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R94" t="n">
         <v>1.41</v>
@@ -13129,28 +13129,28 @@
         <v>3.2</v>
       </c>
       <c r="T94" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U94" t="n">
         <v>2.24</v>
       </c>
       <c r="V94" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W94" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X94" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Y94" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA94" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB94" t="n">
         <v>11</v>
@@ -13159,40 +13159,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD94" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE94" t="n">
         <v>42</v>
       </c>
       <c r="AF94" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG94" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH94" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI94" t="n">
         <v>50</v>
       </c>
       <c r="AJ94" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK94" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL94" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM94" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN94" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO94" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
@@ -13222,16 +13222,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G95" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H95" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J95" t="n">
         <v>3.7</v>
@@ -13246,34 +13246,34 @@
         <v>1.05</v>
       </c>
       <c r="N95" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O95" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P95" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R95" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S95" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T95" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U95" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V95" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W95" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X95" t="n">
         <v>19.5</v>
@@ -13291,7 +13291,7 @@
         <v>14</v>
       </c>
       <c r="AC95" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD95" t="n">
         <v>13.5</v>
@@ -13300,7 +13300,7 @@
         <v>29</v>
       </c>
       <c r="AF95" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG95" t="n">
         <v>12.5</v>
@@ -13327,7 +13327,7 @@
         <v>15.5</v>
       </c>
       <c r="AO95" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -13357,13 +13357,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G96" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H96" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I96" t="n">
         <v>3.6</v>
@@ -13372,7 +13372,7 @@
         <v>4</v>
       </c>
       <c r="K96" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L96" t="n">
         <v>1.22</v>
@@ -13408,7 +13408,7 @@
         <v>1.38</v>
       </c>
       <c r="W96" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="X96" t="n">
         <v>29</v>
@@ -13420,7 +13420,7 @@
         <v>30</v>
       </c>
       <c r="AA96" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB96" t="n">
         <v>16</v>
@@ -13429,7 +13429,7 @@
         <v>11</v>
       </c>
       <c r="AD96" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE96" t="n">
         <v>34</v>
@@ -13444,7 +13444,7 @@
         <v>15.5</v>
       </c>
       <c r="AI96" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ96" t="n">
         <v>28</v>
@@ -13459,10 +13459,10 @@
         <v>55</v>
       </c>
       <c r="AN96" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO96" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
@@ -13519,7 +13519,7 @@
         <v>3.4</v>
       </c>
       <c r="O97" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P97" t="n">
         <v>1.85</v>
@@ -13588,7 +13588,7 @@
         <v>65</v>
       </c>
       <c r="AL97" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM97" t="n">
         <v>130</v>
@@ -13630,22 +13630,22 @@
         <v>22</v>
       </c>
       <c r="G98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H98" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I98" t="n">
         <v>1.18</v>
       </c>
       <c r="J98" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="K98" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M98" t="n">
         <v>1.03</v>
@@ -13657,7 +13657,7 @@
         <v>1.21</v>
       </c>
       <c r="P98" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q98" t="n">
         <v>1.61</v>
@@ -13666,13 +13666,13 @@
         <v>1.52</v>
       </c>
       <c r="S98" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T98" t="n">
         <v>2.72</v>
       </c>
       <c r="U98" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="V98" t="n">
         <v>6.4</v>
@@ -13681,10 +13681,10 @@
         <v>1.03</v>
       </c>
       <c r="X98" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y98" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z98" t="n">
         <v>6.8</v>
@@ -13696,7 +13696,7 @@
         <v>990</v>
       </c>
       <c r="AC98" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD98" t="n">
         <v>13.5</v>
@@ -13711,7 +13711,7 @@
         <v>90</v>
       </c>
       <c r="AH98" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="AI98" t="n">
         <v>70</v>
@@ -13732,7 +13732,7 @@
         <v>1000</v>
       </c>
       <c r="AO98" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="99">
@@ -13762,19 +13762,19 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G99" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H99" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I99" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J99" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K99" t="n">
         <v>4.4</v>
@@ -13786,22 +13786,22 @@
         <v>1.07</v>
       </c>
       <c r="N99" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O99" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P99" t="n">
         <v>1.92</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R99" t="n">
         <v>1.34</v>
       </c>
       <c r="S99" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T99" t="n">
         <v>2.12</v>
@@ -13810,16 +13810,16 @@
         <v>1.85</v>
       </c>
       <c r="V99" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W99" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X99" t="n">
         <v>14</v>
       </c>
       <c r="Y99" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z99" t="n">
         <v>8.6</v>
@@ -13828,13 +13828,13 @@
         <v>14.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC99" t="n">
         <v>9.4</v>
       </c>
       <c r="AD99" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE99" t="n">
         <v>17.5</v>
@@ -13867,7 +13867,7 @@
         <v>150</v>
       </c>
       <c r="AO99" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="100">
@@ -13900,7 +13900,7 @@
         <v>1.69</v>
       </c>
       <c r="G100" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H100" t="n">
         <v>5.3</v>
@@ -13909,10 +13909,10 @@
         <v>6.2</v>
       </c>
       <c r="J100" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K100" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L100" t="n">
         <v>1.38</v>
@@ -13930,25 +13930,25 @@
         <v>1.96</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="R100" t="n">
         <v>1.37</v>
       </c>
       <c r="S100" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T100" t="n">
         <v>1.86</v>
       </c>
       <c r="U100" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V100" t="n">
         <v>1.2</v>
       </c>
       <c r="W100" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X100" t="n">
         <v>19</v>
@@ -13957,7 +13957,7 @@
         <v>23</v>
       </c>
       <c r="Z100" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AA100" t="n">
         <v>180</v>
@@ -13975,7 +13975,7 @@
         <v>1000</v>
       </c>
       <c r="AF100" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG100" t="n">
         <v>12.5</v>
@@ -13996,7 +13996,7 @@
         <v>1000</v>
       </c>
       <c r="AM100" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN100" t="n">
         <v>13</v>
@@ -14032,10 +14032,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G101" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H101" t="n">
         <v>1.77</v>
@@ -14056,28 +14056,28 @@
         <v>1.04</v>
       </c>
       <c r="N101" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O101" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P101" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R101" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S101" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="T101" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U101" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V101" t="n">
         <v>2.28</v>
@@ -14089,7 +14089,7 @@
         <v>22</v>
       </c>
       <c r="Y101" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z101" t="n">
         <v>12</v>
@@ -14098,7 +14098,7 @@
         <v>18.5</v>
       </c>
       <c r="AB101" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC101" t="n">
         <v>9.6</v>
@@ -14107,10 +14107,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE101" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF101" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG101" t="n">
         <v>18</v>
@@ -14119,10 +14119,10 @@
         <v>18</v>
       </c>
       <c r="AI101" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ101" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK101" t="n">
         <v>55</v>
@@ -14131,13 +14131,13 @@
         <v>55</v>
       </c>
       <c r="AM101" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN101" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO101" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="102">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G102" t="n">
         <v>1.82</v>
@@ -14179,7 +14179,7 @@
         <v>6</v>
       </c>
       <c r="J102" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K102" t="n">
         <v>3.9</v>
@@ -14218,7 +14218,7 @@
         <v>1.21</v>
       </c>
       <c r="W102" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X102" t="n">
         <v>14</v>
@@ -14227,7 +14227,7 @@
         <v>16</v>
       </c>
       <c r="Z102" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AA102" t="n">
         <v>210</v>
@@ -14242,7 +14242,7 @@
         <v>28</v>
       </c>
       <c r="AE102" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="AF102" t="n">
         <v>10</v>
@@ -14260,13 +14260,13 @@
         <v>20</v>
       </c>
       <c r="AK102" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AL102" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AM102" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN102" t="n">
         <v>16.5</v>
@@ -14302,28 +14302,28 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="H103" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I103" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J103" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K103" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L103" t="n">
         <v>1.32</v>
       </c>
       <c r="M103" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N103" t="n">
         <v>3.85</v>
@@ -14335,13 +14335,13 @@
         <v>1.98</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="R103" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S103" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T103" t="n">
         <v>1.68</v>
@@ -14350,31 +14350,31 @@
         <v>2.02</v>
       </c>
       <c r="V103" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W103" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X103" t="n">
         <v>19.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Z103" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA103" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB103" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AC103" t="n">
         <v>10</v>
       </c>
       <c r="AD103" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE103" t="n">
         <v>1000</v>
@@ -14383,16 +14383,16 @@
         <v>1000</v>
       </c>
       <c r="AG103" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH103" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI103" t="n">
         <v>1000</v>
       </c>
       <c r="AJ103" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK103" t="n">
         <v>1000</v>
@@ -14437,112 +14437,112 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="G104" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="H104" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="I104" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="J104" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="K104" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="L104" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M104" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N104" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O104" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="P104" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="R104" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S104" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="T104" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U104" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="V104" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="W104" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="X104" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="Y104" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="Z104" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AA104" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB104" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AC104" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD104" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE104" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF104" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AG104" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH104" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI104" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ104" t="n">
-        <v>370</v>
+        <v>650</v>
       </c>
       <c r="AK104" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="AL104" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AM104" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="AN104" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="AO104" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="105">
@@ -14572,10 +14572,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G105" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="H105" t="n">
         <v>1.41</v>
@@ -14596,16 +14596,16 @@
         <v>1.06</v>
       </c>
       <c r="N105" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O105" t="n">
         <v>1.3</v>
       </c>
       <c r="P105" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R105" t="n">
         <v>1.4</v>
@@ -14617,16 +14617,16 @@
         <v>2.22</v>
       </c>
       <c r="U105" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V105" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="W105" t="n">
         <v>1.11</v>
       </c>
       <c r="X105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y105" t="n">
         <v>7.8</v>
@@ -14656,7 +14656,7 @@
         <v>38</v>
       </c>
       <c r="AH105" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI105" t="n">
         <v>42</v>
@@ -14668,7 +14668,7 @@
         <v>190</v>
       </c>
       <c r="AL105" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AM105" t="n">
         <v>210</v>
@@ -14716,7 +14716,7 @@
         <v>2.36</v>
       </c>
       <c r="I106" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J106" t="n">
         <v>3.05</v>
@@ -14755,7 +14755,7 @@
         <v>1.75</v>
       </c>
       <c r="V106" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W106" t="n">
         <v>1.37</v>
@@ -14767,13 +14767,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z106" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AA106" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AB106" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC106" t="n">
         <v>7.6</v>
@@ -14782,16 +14782,16 @@
         <v>12.5</v>
       </c>
       <c r="AE106" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF106" t="n">
         <v>25</v>
       </c>
       <c r="AG106" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH106" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI106" t="n">
         <v>65</v>
@@ -14800,10 +14800,10 @@
         <v>900</v>
       </c>
       <c r="AK106" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AL106" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AM106" t="n">
         <v>1000</v>
@@ -14851,7 +14851,7 @@
         <v>1.41</v>
       </c>
       <c r="I107" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J107" t="n">
         <v>5</v>
@@ -14863,7 +14863,7 @@
         <v>1.01</v>
       </c>
       <c r="M107" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N107" t="n">
         <v>5.2</v>
@@ -14881,7 +14881,7 @@
         <v>1.58</v>
       </c>
       <c r="S107" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T107" t="n">
         <v>1.79</v>
@@ -14896,7 +14896,7 @@
         <v>1.12</v>
       </c>
       <c r="X107" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y107" t="n">
         <v>11</v>
@@ -14986,13 +14986,13 @@
         <v>1.76</v>
       </c>
       <c r="I108" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="J108" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K108" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L108" t="n">
         <v>1.36</v>
@@ -15025,7 +15025,7 @@
         <v>1.92</v>
       </c>
       <c r="V108" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W108" t="n">
         <v>1.21</v>
@@ -15115,7 +15115,7 @@
         <v>2.32</v>
       </c>
       <c r="G109" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H109" t="n">
         <v>2.74</v>
@@ -15151,7 +15151,7 @@
         <v>1.66</v>
       </c>
       <c r="S109" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="T109" t="n">
         <v>1.45</v>
@@ -15163,7 +15163,7 @@
         <v>1.48</v>
       </c>
       <c r="W109" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X109" t="n">
         <v>36</v>
@@ -15274,10 +15274,10 @@
         <v>5.6</v>
       </c>
       <c r="O110" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P110" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q110" t="n">
         <v>1.61</v>
@@ -15292,7 +15292,7 @@
         <v>1.54</v>
       </c>
       <c r="U110" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="V110" t="n">
         <v>1.7</v>
@@ -15301,7 +15301,7 @@
         <v>1.48</v>
       </c>
       <c r="X110" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y110" t="n">
         <v>15.5</v>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G111" t="n">
         <v>1.36</v>
@@ -15391,13 +15391,13 @@
         <v>11</v>
       </c>
       <c r="I111" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J111" t="n">
         <v>5.5</v>
       </c>
       <c r="K111" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L111" t="n">
         <v>1.33</v>
@@ -15517,22 +15517,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="G112" t="n">
         <v>2.9</v>
       </c>
       <c r="H112" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="I112" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="J112" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K112" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
@@ -15541,10 +15541,10 @@
         <v>1.01</v>
       </c>
       <c r="N112" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="O112" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P112" t="n">
         <v>1.74</v>
@@ -15565,10 +15565,10 @@
         <v>1.01</v>
       </c>
       <c r="V112" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W112" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X112" t="n">
         <v>55</v>
@@ -15577,10 +15577,10 @@
         <v>36</v>
       </c>
       <c r="Z112" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA112" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB112" t="n">
         <v>36</v>
@@ -15592,10 +15592,10 @@
         <v>16</v>
       </c>
       <c r="AE112" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF112" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AG112" t="n">
         <v>17</v>
@@ -15607,10 +15607,10 @@
         <v>60</v>
       </c>
       <c r="AJ112" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK112" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AL112" t="n">
         <v>65</v>
@@ -15622,7 +15622,7 @@
         <v>80</v>
       </c>
       <c r="AO112" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
@@ -15652,25 +15652,25 @@
         </is>
       </c>
       <c r="F113" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G113" t="n">
         <v>2.36</v>
       </c>
-      <c r="G113" t="n">
-        <v>1000</v>
-      </c>
       <c r="H113" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="I113" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J113" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="K113" t="n">
         <v>1000</v>
       </c>
       <c r="L113" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M113" t="n">
         <v>1.01</v>
@@ -15697,13 +15697,13 @@
         <v>1.33</v>
       </c>
       <c r="U113" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V113" t="n">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="W113" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="X113" t="n">
         <v>1000</v>
@@ -15805,7 +15805,7 @@
         <v>1000</v>
       </c>
       <c r="L114" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="M114" t="n">
         <v>1.01</v>
@@ -15814,7 +15814,7 @@
         <v>3.5</v>
       </c>
       <c r="O114" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P114" t="n">
         <v>3.5</v>
@@ -15829,10 +15829,10 @@
         <v>1.07</v>
       </c>
       <c r="T114" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U114" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V114" t="n">
         <v>1.01</v>
@@ -15922,112 +15922,112 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="G115" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I115" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J115" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K115" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O115" t="n">
         <v>1.37</v>
       </c>
-      <c r="M115" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N115" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O115" t="n">
-        <v>1.38</v>
-      </c>
       <c r="P115" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R115" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V115" t="n">
         <v>1.29</v>
       </c>
-      <c r="S115" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T115" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U115" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V115" t="n">
-        <v>1.32</v>
-      </c>
       <c r="W115" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X115" t="n">
-        <v>90</v>
+        <v>14.5</v>
       </c>
       <c r="Y115" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z115" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AA115" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB115" t="n">
         <v>8.6</v>
       </c>
       <c r="AC115" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AD115" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="AE115" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF115" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG115" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH115" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AI115" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ115" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK115" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AL115" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM115" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN115" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AO115" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116">
@@ -16075,7 +16075,7 @@
         <v>3.55</v>
       </c>
       <c r="L116" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M116" t="n">
         <v>1.11</v>
@@ -16207,7 +16207,7 @@
         <v>3.45</v>
       </c>
       <c r="K117" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -16330,7 +16330,7 @@
         <v>2.04</v>
       </c>
       <c r="G118" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H118" t="n">
         <v>3.8</v>
@@ -16372,13 +16372,13 @@
         <v>1.53</v>
       </c>
       <c r="U118" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V118" t="n">
         <v>1.35</v>
       </c>
       <c r="W118" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X118" t="n">
         <v>26</v>
@@ -16462,16 +16462,16 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G119" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H119" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="I119" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="J119" t="n">
         <v>3.25</v>
@@ -16492,40 +16492,40 @@
         <v>1.43</v>
       </c>
       <c r="P119" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R119" t="n">
         <v>1.27</v>
       </c>
       <c r="S119" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T119" t="n">
         <v>1.95</v>
       </c>
       <c r="U119" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V119" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="W119" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X119" t="n">
         <v>10.5</v>
       </c>
       <c r="Y119" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z119" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA119" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB119" t="n">
         <v>11</v>
@@ -16537,7 +16537,7 @@
         <v>12</v>
       </c>
       <c r="AE119" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF119" t="n">
         <v>20</v>
@@ -16603,13 +16603,13 @@
         <v>6.4</v>
       </c>
       <c r="H120" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I120" t="n">
         <v>1.66</v>
       </c>
       <c r="J120" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K120" t="n">
         <v>4.3</v>
@@ -16630,7 +16630,7 @@
         <v>2.16</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R120" t="n">
         <v>1.46</v>
@@ -16639,7 +16639,7 @@
         <v>3.05</v>
       </c>
       <c r="T120" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U120" t="n">
         <v>2.1</v>
@@ -16687,7 +16687,7 @@
         <v>32</v>
       </c>
       <c r="AJ120" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AK120" t="n">
         <v>80</v>
@@ -16732,10 +16732,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G121" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H121" t="n">
         <v>2.64</v>
@@ -16750,94 +16750,94 @@
         <v>3.1</v>
       </c>
       <c r="L121" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="M121" t="n">
         <v>1.13</v>
       </c>
       <c r="N121" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="O121" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P121" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="R121" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="S121" t="n">
         <v>6</v>
       </c>
       <c r="T121" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="U121" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="V121" t="n">
         <v>1.59</v>
       </c>
       <c r="W121" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X121" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Y121" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z121" t="n">
         <v>15</v>
       </c>
       <c r="AA121" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB121" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC121" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD121" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE121" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AF121" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG121" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI121" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ121" t="n">
         <v>75</v>
       </c>
-      <c r="AJ121" t="n">
+      <c r="AK121" t="n">
         <v>70</v>
       </c>
-      <c r="AK121" t="n">
-        <v>55</v>
-      </c>
       <c r="AL121" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AM121" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="AN121" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AO121" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122">
@@ -16867,16 +16867,16 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="G122" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="H122" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I122" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="J122" t="n">
         <v>3.25</v>
@@ -16885,22 +16885,22 @@
         <v>3.35</v>
       </c>
       <c r="L122" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M122" t="n">
         <v>1.1</v>
       </c>
       <c r="N122" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O122" t="n">
         <v>1.43</v>
       </c>
       <c r="P122" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R122" t="n">
         <v>1.26</v>
@@ -16909,28 +16909,28 @@
         <v>4.4</v>
       </c>
       <c r="T122" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U122" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W122" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X122" t="n">
         <v>13</v>
       </c>
       <c r="Y122" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z122" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA122" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB122" t="n">
         <v>10.5</v>
@@ -16939,28 +16939,28 @@
         <v>7.4</v>
       </c>
       <c r="AD122" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE122" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF122" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG122" t="n">
         <v>14</v>
       </c>
       <c r="AH122" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI122" t="n">
         <v>55</v>
       </c>
       <c r="AJ122" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK122" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL122" t="n">
         <v>60</v>
@@ -16969,10 +16969,10 @@
         <v>130</v>
       </c>
       <c r="AN122" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO122" t="n">
         <v>44</v>
-      </c>
-      <c r="AO122" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="123">
@@ -17002,10 +17002,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G123" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H123" t="n">
         <v>4.5</v>
@@ -17026,34 +17026,34 @@
         <v>1.03</v>
       </c>
       <c r="N123" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O123" t="n">
         <v>1.29</v>
       </c>
       <c r="P123" t="n">
-        <v>1.31</v>
+        <v>1.66</v>
       </c>
       <c r="Q123" t="n">
         <v>1.98</v>
       </c>
       <c r="R123" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S123" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="T123" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U123" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V123" t="n">
         <v>1.07</v>
       </c>
       <c r="W123" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X123" t="n">
         <v>990</v>
@@ -17137,19 +17137,19 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G124" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H124" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I124" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J124" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K124" t="n">
         <v>4.6</v>
@@ -17179,13 +17179,13 @@
         <v>2.88</v>
       </c>
       <c r="T124" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U124" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V124" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W124" t="n">
         <v>1.2</v>
@@ -17194,16 +17194,16 @@
         <v>20</v>
       </c>
       <c r="Y124" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z124" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA124" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB124" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC124" t="n">
         <v>11.5</v>
@@ -17218,16 +17218,16 @@
         <v>55</v>
       </c>
       <c r="AG124" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH124" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI124" t="n">
         <v>40</v>
       </c>
       <c r="AJ124" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AK124" t="n">
         <v>1000</v>
@@ -17242,7 +17242,7 @@
         <v>1000</v>
       </c>
       <c r="AO124" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="125">
@@ -17305,7 +17305,7 @@
         <v>1.93</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R125" t="n">
         <v>1.35</v>
@@ -17365,7 +17365,7 @@
         <v>900</v>
       </c>
       <c r="AK125" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL125" t="n">
         <v>50</v>
@@ -17374,7 +17374,7 @@
         <v>110</v>
       </c>
       <c r="AN125" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO125" t="n">
         <v>30</v>
@@ -17407,25 +17407,25 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="G126" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="H126" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="I126" t="n">
         <v>970</v>
       </c>
       <c r="J126" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K126" t="n">
         <v>1000</v>
       </c>
       <c r="L126" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M126" t="n">
         <v>1.01</v>
@@ -17434,7 +17434,7 @@
         <v>4.3</v>
       </c>
       <c r="O126" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P126" t="n">
         <v>4.3</v>
@@ -17455,10 +17455,10 @@
         <v>1.01</v>
       </c>
       <c r="V126" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W126" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="X126" t="n">
         <v>1000</v>
@@ -17545,7 +17545,7 @@
         <v>1.18</v>
       </c>
       <c r="G127" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="H127" t="n">
         <v>3.7</v>
@@ -17584,10 +17584,10 @@
         <v>1.06</v>
       </c>
       <c r="T127" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U127" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V127" t="n">
         <v>1.06</v>
@@ -17677,19 +17677,19 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H128" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I128" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J128" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K128" t="n">
         <v>4.1</v>
@@ -17698,88 +17698,88 @@
         <v>1.01</v>
       </c>
       <c r="M128" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N128" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O128" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P128" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="R128" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S128" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="T128" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="U128" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V128" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W128" t="n">
         <v>2</v>
       </c>
       <c r="X128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z128" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA128" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AB128" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC128" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD128" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE128" t="n">
         <v>48</v>
       </c>
       <c r="AF128" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG128" t="n">
         <v>11</v>
       </c>
       <c r="AH128" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI128" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ128" t="n">
         <v>24</v>
       </c>
       <c r="AK128" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL128" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM128" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN128" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO128" t="n">
         <v>44</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-14.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="G2" t="n">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W2" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.6</v>
-      </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
         <v>55</v>
       </c>
-      <c r="AA2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>90</v>
-      </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>7.8</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AO2" t="n">
         <v>120</v>
